--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10.40681857530065</v>
+        <v>10.40681898194069</v>
       </c>
       <c r="E4" t="n">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F4" t="n">
         <v>9.99138518407971e-06</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10.39441473336555</v>
+        <v>10.39541639130355</v>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F5" t="n">
         <v>2.377156013231305e-07</v>
@@ -638,10 +638,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10.40711082987547</v>
+        <v>10.40711141820284</v>
       </c>
       <c r="E6" t="n">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="F6" t="n">
         <v>9.994075307793329e-06</v>
@@ -675,10 +675,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10.4084958895187</v>
+        <v>10.40849688930575</v>
       </c>
       <c r="E7" t="n">
-        <v>3095</v>
+        <v>3096</v>
       </c>
       <c r="F7" t="n">
         <v>9.996290033884991e-06</v>
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10.40687246640048</v>
+        <v>10.40687290904289</v>
       </c>
       <c r="E8" t="n">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="F8" t="n">
         <v>9.994137764061311e-06</v>
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10.40689313089054</v>
+        <v>10.4068935870377</v>
       </c>
       <c r="E9" t="n">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="F9" t="n">
         <v>9.987380083595747e-06</v>
@@ -863,7 +863,7 @@
         <v>200</v>
       </c>
       <c r="E12" t="n">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F12" t="n">
         <v>9.97464335923175e-06</v>
@@ -900,7 +900,7 @@
         <v>200</v>
       </c>
       <c r="E13" t="n">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="F13" t="n">
         <v>9.99810411957881e-06</v>
@@ -937,7 +937,7 @@
         <v>200</v>
       </c>
       <c r="E14" t="n">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F14" t="n">
         <v>9.977292795492276e-06</v>
@@ -974,7 +974,7 @@
         <v>200</v>
       </c>
       <c r="E15" t="n">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="F15" t="n">
         <v>9.9936446243908e-06</v>
@@ -1011,7 +1011,7 @@
         <v>200</v>
       </c>
       <c r="E16" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F16" t="n">
         <v>9.974198752202633e-06</v>
@@ -1048,7 +1048,7 @@
         <v>200</v>
       </c>
       <c r="E17" t="n">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="F17" t="n">
         <v>9.990028964771029e-06</v>
@@ -1156,10 +1156,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6197287.055740306</v>
+        <v>6197287.055740305</v>
       </c>
       <c r="E20" t="n">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="F20" t="n">
         <v>9.980054562380002e-06</v>
@@ -1193,10 +1193,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6197287.055740306</v>
+        <v>6197287.055740305</v>
       </c>
       <c r="E21" t="n">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="F21" t="n">
         <v>9.995238705435692e-06</v>
@@ -1230,10 +1230,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6197287.055740306</v>
+        <v>6197287.055740305</v>
       </c>
       <c r="E22" t="n">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="F22" t="n">
         <v>9.994868688560088e-06</v>
@@ -1267,10 +1267,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>6197287.055740306</v>
+        <v>6197287.055740305</v>
       </c>
       <c r="E23" t="n">
-        <v>5076</v>
+        <v>5077</v>
       </c>
       <c r="F23" t="n">
         <v>9.99765002157167e-06</v>
@@ -1304,10 +1304,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6197287.055740306</v>
+        <v>6197287.055740305</v>
       </c>
       <c r="E24" t="n">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="F24" t="n">
         <v>9.997384008650778e-06</v>
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6197287.055740306</v>
+        <v>6197287.055740305</v>
       </c>
       <c r="E25" t="n">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="F25" t="n">
         <v>9.993593012495797e-06</v>
@@ -1452,10 +1452,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>30148.79243160632</v>
+        <v>30148.79245101181</v>
       </c>
       <c r="E28" t="n">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F28" t="n">
         <v>9.98330334370097e-06</v>
@@ -1489,10 +1489,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>30148.79431025294</v>
+        <v>30148.79431134179</v>
       </c>
       <c r="E29" t="n">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="F29" t="n">
         <v>9.993272112714442e-06</v>
@@ -1529,7 +1529,7 @@
         <v>30148.7944219532</v>
       </c>
       <c r="E30" t="n">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="F30" t="n">
         <v>9.995951795772905e-06</v>
@@ -1566,7 +1566,7 @@
         <v>30148.79442195321</v>
       </c>
       <c r="E31" t="n">
-        <v>8376</v>
+        <v>8377</v>
       </c>
       <c r="F31" t="n">
         <v>9.999031665507192e-06</v>
@@ -1600,10 +1600,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>30148.79442063117</v>
+        <v>30148.79442064405</v>
       </c>
       <c r="E32" t="n">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="F32" t="n">
         <v>9.989780418632438e-06</v>
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>30148.79421490203</v>
+        <v>30148.79421692044</v>
       </c>
       <c r="E33" t="n">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="F33" t="n">
         <v>9.997868451637104e-06</v>
@@ -1751,7 +1751,7 @@
         <v>5.502378378875401</v>
       </c>
       <c r="E36" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F36" t="n">
         <v>9.955600824881408e-06</v>
@@ -1788,7 +1788,7 @@
         <v>5.502378378875402</v>
       </c>
       <c r="E37" t="n">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F37" t="n">
         <v>9.991991259533384e-06</v>
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>5.502378378875402</v>
+        <v>5.502378378875401</v>
       </c>
       <c r="E38" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F38" t="n">
         <v>9.979193167510845e-06</v>
@@ -1859,10 +1859,10 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5.502378378875402</v>
+        <v>5.502378378875401</v>
       </c>
       <c r="E39" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F39" t="n">
         <v>9.993504545296885e-06</v>
@@ -1896,10 +1896,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5.502378378875401</v>
+        <v>5.502378378875402</v>
       </c>
       <c r="E40" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F40" t="n">
         <v>9.905379762935128e-06</v>
@@ -1936,7 +1936,7 @@
         <v>5.502378378875401</v>
       </c>
       <c r="E41" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F41" t="n">
         <v>9.993817867317027e-06</v>
@@ -2044,10 +2044,10 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.9787982732272241</v>
+        <v>0.9787982813556422</v>
       </c>
       <c r="E44" t="n">
-        <v>2703</v>
+        <v>2704</v>
       </c>
       <c r="F44" t="n">
         <v>9.992951414259296e-06</v>
@@ -2081,10 +2081,10 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.9788021898677821</v>
+        <v>0.9788021900484739</v>
       </c>
       <c r="E45" t="n">
-        <v>4573</v>
+        <v>4574</v>
       </c>
       <c r="F45" t="n">
         <v>9.997635290122039e-06</v>
@@ -2118,10 +2118,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.9788022781320286</v>
+        <v>0.9788022781328694</v>
       </c>
       <c r="E46" t="n">
-        <v>7205</v>
+        <v>7206</v>
       </c>
       <c r="F46" t="n">
         <v>9.999061227797924e-06</v>
@@ -2161,7 +2161,7 @@
         <v>10000</v>
       </c>
       <c r="F47" t="n">
-        <v>0.001283438634309861</v>
+        <v>0.001285309339926012</v>
       </c>
       <c r="G47" t="n">
         <v>2048</v>
@@ -2192,10 +2192,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.9786326514520987</v>
+        <v>0.9786329384086789</v>
       </c>
       <c r="E48" t="n">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F48" t="n">
         <v>9.976605646956668e-06</v>
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.9788008652546754</v>
+        <v>0.9788008681303265</v>
       </c>
       <c r="E49" t="n">
-        <v>3215</v>
+        <v>3216</v>
       </c>
       <c r="F49" t="n">
         <v>9.997132431229519e-06</v>
@@ -2340,10 +2340,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>3015179089.096041</v>
+        <v>3015179089.119661</v>
       </c>
       <c r="E52" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F52" t="n">
         <v>9.982704017214424e-06</v>
@@ -2377,10 +2377,10 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>3015179089.897635</v>
+        <v>3015179089.897636</v>
       </c>
       <c r="E53" t="n">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="F53" t="n">
         <v>9.988665997608089e-06</v>
@@ -2414,10 +2414,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3015179087.989286</v>
+        <v>3015179088.04552</v>
       </c>
       <c r="E54" t="n">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F54" t="n">
         <v>9.991344948527075e-06</v>
@@ -2454,7 +2454,7 @@
         <v>3015179089.897686</v>
       </c>
       <c r="E55" t="n">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="F55" t="n">
         <v>9.994511562760285e-06</v>
@@ -2488,10 +2488,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3015178438.932333</v>
+        <v>3015178458.113348</v>
       </c>
       <c r="E56" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F56" t="n">
         <v>9.939429229334512e-06</v>
@@ -2525,10 +2525,10 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3015179089.890141</v>
+        <v>3015179089.890363</v>
       </c>
       <c r="E57" t="n">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F57" t="n">
         <v>9.982290391434789e-06</v>
@@ -2639,7 +2639,7 @@
         <v>5.502378378470102</v>
       </c>
       <c r="E60" t="n">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F60" t="n">
         <v>9.99859584662748e-06</v>
@@ -2673,10 +2673,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>5.502378378470102</v>
+        <v>5.502378378470101</v>
       </c>
       <c r="E61" t="n">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="F61" t="n">
         <v>9.991691453699466e-06</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>5.502378378470101</v>
+        <v>5.502378378470102</v>
       </c>
       <c r="E62" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F62" t="n">
         <v>9.974712464742694e-06</v>
@@ -2747,10 +2747,10 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>5.502378378470103</v>
+        <v>5.502378378470102</v>
       </c>
       <c r="E63" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F63" t="n">
         <v>9.97766932946064e-06</v>
@@ -2787,7 +2787,7 @@
         <v>5.502378378470101</v>
       </c>
       <c r="E64" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F64" t="n">
         <v>9.8861457622069e-06</v>
@@ -2821,10 +2821,10 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>5.502378378470102</v>
+        <v>5.502378378470103</v>
       </c>
       <c r="E65" t="n">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F65" t="n">
         <v>9.986922652148607e-06</v>
@@ -2935,7 +2935,7 @@
         <v>66.49656408021283</v>
       </c>
       <c r="E68" t="n">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="F68" t="n">
         <v>9.996050425546655e-06</v>
@@ -2972,7 +2972,7 @@
         <v>66.49656408021283</v>
       </c>
       <c r="E69" t="n">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="F69" t="n">
         <v>9.987402530037153e-06</v>
@@ -3009,7 +3009,7 @@
         <v>66.49656408021283</v>
       </c>
       <c r="E70" t="n">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="F70" t="n">
         <v>9.993300423606042e-06</v>
@@ -3046,7 +3046,7 @@
         <v>66.49656408021283</v>
       </c>
       <c r="E71" t="n">
-        <v>4633</v>
+        <v>4634</v>
       </c>
       <c r="F71" t="n">
         <v>9.998425597357998e-06</v>
@@ -3083,7 +3083,7 @@
         <v>66.49656408021283</v>
       </c>
       <c r="E72" t="n">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="F72" t="n">
         <v>9.99268005713848e-06</v>
@@ -3120,7 +3120,7 @@
         <v>66.49656408021283</v>
       </c>
       <c r="E73" t="n">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="F73" t="n">
         <v>9.995269785371948e-06</v>
@@ -3228,10 +3228,10 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>11.8668182091845</v>
+        <v>11.86682517885162</v>
       </c>
       <c r="E76" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F76" t="n">
         <v>9.919554385332669e-06</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>11.86733242842275</v>
+        <v>11.86733250672079</v>
       </c>
       <c r="E77" t="n">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F77" t="n">
         <v>9.966889770936543e-06</v>
@@ -3302,10 +3302,10 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>11.84291166989215</v>
+        <v>11.84415314508302</v>
       </c>
       <c r="E78" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F78" t="n">
         <v>9.112421910513254e-06</v>
@@ -3339,10 +3339,10 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>11.86668222613527</v>
+        <v>11.86669125703764</v>
       </c>
       <c r="E79" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F79" t="n">
         <v>9.881016451761061e-06</v>
@@ -3376,10 +3376,10 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>11.86260836927469</v>
+        <v>11.86278781549331</v>
       </c>
       <c r="E80" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F80" t="n">
         <v>7.772942852511034e-06</v>
@@ -3413,10 +3413,10 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>11.86727238992904</v>
+        <v>11.86727325552391</v>
       </c>
       <c r="E81" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F81" t="n">
         <v>9.908701187544689e-06</v>
@@ -3524,10 +3524,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>12.49339382021395</v>
+        <v>12.49222589832259</v>
       </c>
       <c r="E84" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F84" t="n">
         <v>9.754855339955774e-06</v>
@@ -3561,10 +3561,10 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>12.51389199426974</v>
+        <v>12.51321514231788</v>
       </c>
       <c r="E85" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F85" t="n">
         <v>9.972369599074409e-06</v>
@@ -3598,10 +3598,10 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>12.49572720772098</v>
+        <v>12.49456085575737</v>
       </c>
       <c r="E86" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F86" t="n">
         <v>9.989815930309881e-06</v>
@@ -3635,10 +3635,10 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>12.6037986871951</v>
+        <v>12.60378597234875</v>
       </c>
       <c r="E87" t="n">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="F87" t="n">
         <v>9.982530291828866e-06</v>
@@ -3672,10 +3672,10 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>12.5661686102434</v>
+        <v>12.56475412689529</v>
       </c>
       <c r="E88" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F88" t="n">
         <v>9.442505772186741e-06</v>
@@ -3709,10 +3709,10 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12.44904727116749</v>
+        <v>12.45279251279922</v>
       </c>
       <c r="E89" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F89" t="n">
         <v>7.030854601727593e-06</v>
@@ -3823,7 +3823,7 @@
         <v>4359568.101784363</v>
       </c>
       <c r="E92" t="n">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F92" t="n">
         <v>9.982775315803568e-06</v>
@@ -3860,7 +3860,7 @@
         <v>4359568.101784363</v>
       </c>
       <c r="E93" t="n">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="F93" t="n">
         <v>9.999267559953692e-06</v>
@@ -3897,7 +3897,7 @@
         <v>4359568.101784363</v>
       </c>
       <c r="E94" t="n">
-        <v>3064</v>
+        <v>3065</v>
       </c>
       <c r="F94" t="n">
         <v>9.9961759992915e-06</v>
@@ -3934,7 +3934,7 @@
         <v>4359568.101784363</v>
       </c>
       <c r="E95" t="n">
-        <v>9299</v>
+        <v>9300</v>
       </c>
       <c r="F95" t="n">
         <v>9.99824167624434e-06</v>
@@ -3971,7 +3971,7 @@
         <v>4359568.101784363</v>
       </c>
       <c r="E96" t="n">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="F96" t="n">
         <v>9.995315275235174e-06</v>
@@ -4008,7 +4008,7 @@
         <v>4359568.101784363</v>
       </c>
       <c r="E97" t="n">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="F97" t="n">
         <v>9.983557930100885e-06</v>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -527,13 +527,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10.26974106120281</v>
+        <v>10.4064979145221</v>
       </c>
       <c r="E3" t="n">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="F3" t="n">
-        <v>6.252801378209473e-06</v>
+        <v>9.781505380213132e-06</v>
       </c>
       <c r="G3" t="n">
         <v>398</v>
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10.40681857530065</v>
+        <v>10.41083696637312</v>
       </c>
       <c r="E4" t="n">
-        <v>848</v>
+        <v>10000</v>
       </c>
       <c r="F4" t="n">
-        <v>9.99138518407971e-06</v>
+        <v>0.0008616944137918946</v>
       </c>
       <c r="G4" t="n">
         <v>398</v>
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10.39441473336555</v>
+        <v>10.41083696637312</v>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>10000</v>
       </c>
       <c r="F5" t="n">
-        <v>2.377156013231305e-07</v>
+        <v>0.002146581051107557</v>
       </c>
       <c r="G5" t="n">
         <v>398</v>
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10.40711082987547</v>
+        <v>10.41083696637312</v>
       </c>
       <c r="E6" t="n">
-        <v>1439</v>
+        <v>10000</v>
       </c>
       <c r="F6" t="n">
-        <v>9.994075307793329e-06</v>
+        <v>3.432852633920214</v>
       </c>
       <c r="G6" t="n">
         <v>398</v>
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10.4084958895187</v>
+        <v>10.41083696637312</v>
       </c>
       <c r="E7" t="n">
-        <v>3095</v>
+        <v>10000</v>
       </c>
       <c r="F7" t="n">
-        <v>9.996290033884991e-06</v>
+        <v>3.357603950362563</v>
       </c>
       <c r="G7" t="n">
         <v>398</v>
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10.40687246640048</v>
+        <v>10.41083696637312</v>
       </c>
       <c r="E8" t="n">
-        <v>975</v>
+        <v>10000</v>
       </c>
       <c r="F8" t="n">
-        <v>9.994137764061311e-06</v>
+        <v>0.001086145166616668</v>
       </c>
       <c r="G8" t="n">
         <v>398</v>
@@ -749,13 +749,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10.40689313089054</v>
+        <v>10.41083696637312</v>
       </c>
       <c r="E9" t="n">
-        <v>1021</v>
+        <v>10000</v>
       </c>
       <c r="F9" t="n">
-        <v>9.987380083595747e-06</v>
+        <v>0.0009236602930642351</v>
       </c>
       <c r="G9" t="n">
         <v>398</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>199.9816930845243</v>
+        <v>199.9988556050082</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>4.353826715540065e-06</v>
+        <v>5.723109982979101e-06</v>
       </c>
       <c r="G11" t="n">
         <v>48</v>
@@ -863,10 +863,10 @@
         <v>200</v>
       </c>
       <c r="E12" t="n">
-        <v>748</v>
+        <v>10000</v>
       </c>
       <c r="F12" t="n">
-        <v>9.97464335923175e-06</v>
+        <v>0.000553404818035221</v>
       </c>
       <c r="G12" t="n">
         <v>48</v>
@@ -900,10 +900,10 @@
         <v>200</v>
       </c>
       <c r="E13" t="n">
-        <v>1096</v>
+        <v>10000</v>
       </c>
       <c r="F13" t="n">
-        <v>9.99810411957881e-06</v>
+        <v>0.00201762264105491</v>
       </c>
       <c r="G13" t="n">
         <v>48</v>
@@ -937,10 +937,10 @@
         <v>200</v>
       </c>
       <c r="E14" t="n">
-        <v>809</v>
+        <v>10000</v>
       </c>
       <c r="F14" t="n">
-        <v>9.977292795492276e-06</v>
+        <v>36.77244610782237</v>
       </c>
       <c r="G14" t="n">
         <v>48</v>
@@ -974,10 +974,10 @@
         <v>200</v>
       </c>
       <c r="E15" t="n">
-        <v>1982</v>
+        <v>10000</v>
       </c>
       <c r="F15" t="n">
-        <v>9.9936446243908e-06</v>
+        <v>37.0474108438139</v>
       </c>
       <c r="G15" t="n">
         <v>48</v>
@@ -1011,10 +1011,10 @@
         <v>200</v>
       </c>
       <c r="E16" t="n">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="F16" t="n">
-        <v>9.974198752202633e-06</v>
+        <v>0.00024858040203356</v>
       </c>
       <c r="G16" t="n">
         <v>48</v>
@@ -1048,10 +1048,10 @@
         <v>200</v>
       </c>
       <c r="E17" t="n">
-        <v>908</v>
+        <v>10000</v>
       </c>
       <c r="F17" t="n">
-        <v>9.990028964771029e-06</v>
+        <v>0.0005963475150896432</v>
       </c>
       <c r="G17" t="n">
         <v>48</v>
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6193373.021736953</v>
+        <v>6197215.127347972</v>
       </c>
       <c r="E19" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F19" t="n">
-        <v>9.506735145473922e-06</v>
+        <v>9.400116702690914e-06</v>
       </c>
       <c r="G19" t="n">
         <v>153</v>
@@ -1156,13 +1156,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6197287.055740306</v>
+        <v>6197287.055740305</v>
       </c>
       <c r="E20" t="n">
-        <v>942</v>
+        <v>10000</v>
       </c>
       <c r="F20" t="n">
-        <v>9.980054562380002e-06</v>
+        <v>0.0009138541077811424</v>
       </c>
       <c r="G20" t="n">
         <v>153</v>
@@ -1193,13 +1193,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6197287.055740306</v>
+        <v>6197287.055740305</v>
       </c>
       <c r="E21" t="n">
-        <v>1156</v>
+        <v>10000</v>
       </c>
       <c r="F21" t="n">
-        <v>9.995238705435692e-06</v>
+        <v>0.002722772428509236</v>
       </c>
       <c r="G21" t="n">
         <v>153</v>
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6197287.055740306</v>
+        <v>6197287.055740305</v>
       </c>
       <c r="E22" t="n">
-        <v>1962</v>
+        <v>10000</v>
       </c>
       <c r="F22" t="n">
-        <v>9.994868688560088e-06</v>
+        <v>394724.3825126545</v>
       </c>
       <c r="G22" t="n">
         <v>153</v>
@@ -1267,13 +1267,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>6197287.055740306</v>
+        <v>6197287.055740305</v>
       </c>
       <c r="E23" t="n">
-        <v>5076</v>
+        <v>10000</v>
       </c>
       <c r="F23" t="n">
-        <v>9.99765002157167e-06</v>
+        <v>380073.6072234991</v>
       </c>
       <c r="G23" t="n">
         <v>153</v>
@@ -1304,13 +1304,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6197287.055740306</v>
+        <v>6197287.055740305</v>
       </c>
       <c r="E24" t="n">
-        <v>1152</v>
+        <v>10000</v>
       </c>
       <c r="F24" t="n">
-        <v>9.997384008650778e-06</v>
+        <v>0.001345786087633187</v>
       </c>
       <c r="G24" t="n">
         <v>153</v>
@@ -1341,13 +1341,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6197287.055740306</v>
+        <v>6197287.055740305</v>
       </c>
       <c r="E25" t="n">
-        <v>1148</v>
+        <v>10000</v>
       </c>
       <c r="F25" t="n">
-        <v>9.993593012495797e-06</v>
+        <v>0.0009845720272345019</v>
       </c>
       <c r="G25" t="n">
         <v>153</v>
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>30101.60734657212</v>
+        <v>30148.49450996695</v>
       </c>
       <c r="E27" t="n">
-        <v>14</v>
+        <v>527</v>
       </c>
       <c r="F27" t="n">
-        <v>4.186377565356223e-06</v>
+        <v>9.967965300924009e-06</v>
       </c>
       <c r="G27" t="n">
         <v>1138</v>
@@ -1452,13 +1452,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>30148.79243160632</v>
+        <v>30148.79442195321</v>
       </c>
       <c r="E28" t="n">
-        <v>1039</v>
+        <v>10000</v>
       </c>
       <c r="F28" t="n">
-        <v>9.98330334370097e-06</v>
+        <v>0.001119957627176042</v>
       </c>
       <c r="G28" t="n">
         <v>1138</v>
@@ -1489,13 +1489,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>30148.79431025294</v>
+        <v>30148.79442195321</v>
       </c>
       <c r="E29" t="n">
-        <v>1333</v>
+        <v>10000</v>
       </c>
       <c r="F29" t="n">
-        <v>9.993272112714442e-06</v>
+        <v>0.003405300553530654</v>
       </c>
       <c r="G29" t="n">
         <v>1138</v>
@@ -1526,13 +1526,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>30148.7944219532</v>
+        <v>30148.79442195321</v>
       </c>
       <c r="E30" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="F30" t="n">
-        <v>9.995951795772905e-06</v>
+        <v>2895.84686552627</v>
       </c>
       <c r="G30" t="n">
         <v>1138</v>
@@ -1566,10 +1566,10 @@
         <v>30148.79442195321</v>
       </c>
       <c r="E31" t="n">
-        <v>8376</v>
+        <v>10000</v>
       </c>
       <c r="F31" t="n">
-        <v>9.999031665507192e-06</v>
+        <v>2650.598408699112</v>
       </c>
       <c r="G31" t="n">
         <v>1138</v>
@@ -1600,13 +1600,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>30148.79442063117</v>
+        <v>30148.79442195321</v>
       </c>
       <c r="E32" t="n">
-        <v>1786</v>
+        <v>10000</v>
       </c>
       <c r="F32" t="n">
-        <v>9.989780418632438e-06</v>
+        <v>0.003211752792427558</v>
       </c>
       <c r="G32" t="n">
         <v>1138</v>
@@ -1637,13 +1637,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>30148.79421490203</v>
+        <v>30148.79442195321</v>
       </c>
       <c r="E33" t="n">
-        <v>1270</v>
+        <v>10000</v>
       </c>
       <c r="F33" t="n">
-        <v>9.997868451637104e-06</v>
+        <v>0.001206569357563393</v>
       </c>
       <c r="G33" t="n">
         <v>1138</v>
@@ -1717,7 +1717,7 @@
         <v>9</v>
       </c>
       <c r="F35" t="n">
-        <v>1.655823763081636e-06</v>
+        <v>4.701018118273467e-06</v>
       </c>
       <c r="G35" t="n">
         <v>104</v>
@@ -1748,13 +1748,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>5.502378378875401</v>
+        <v>5.502378378875402</v>
       </c>
       <c r="E36" t="n">
-        <v>394</v>
+        <v>10000</v>
       </c>
       <c r="F36" t="n">
-        <v>9.955600824881408e-06</v>
+        <v>0.0001516934850493025</v>
       </c>
       <c r="G36" t="n">
         <v>104</v>
@@ -1788,10 +1788,10 @@
         <v>5.502378378875402</v>
       </c>
       <c r="E37" t="n">
-        <v>574</v>
+        <v>10000</v>
       </c>
       <c r="F37" t="n">
-        <v>9.991991259533384e-06</v>
+        <v>0.0005923647748900125</v>
       </c>
       <c r="G37" t="n">
         <v>104</v>
@@ -1825,10 +1825,10 @@
         <v>5.502378378875402</v>
       </c>
       <c r="E38" t="n">
-        <v>194</v>
+        <v>10000</v>
       </c>
       <c r="F38" t="n">
-        <v>9.979193167510845e-06</v>
+        <v>2.226956843048962</v>
       </c>
       <c r="G38" t="n">
         <v>104</v>
@@ -1862,10 +1862,10 @@
         <v>5.502378378875402</v>
       </c>
       <c r="E39" t="n">
-        <v>518</v>
+        <v>10000</v>
       </c>
       <c r="F39" t="n">
-        <v>9.993504545296885e-06</v>
+        <v>2.22860079522677</v>
       </c>
       <c r="G39" t="n">
         <v>104</v>
@@ -1896,13 +1896,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5.502378378875401</v>
+        <v>5.502378378875402</v>
       </c>
       <c r="E40" t="n">
-        <v>153</v>
+        <v>10000</v>
       </c>
       <c r="F40" t="n">
-        <v>9.905379762935128e-06</v>
+        <v>1.645156928402547e-05</v>
       </c>
       <c r="G40" t="n">
         <v>104</v>
@@ -1933,13 +1933,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>5.502378378875401</v>
+        <v>5.502378378875402</v>
       </c>
       <c r="E41" t="n">
-        <v>483</v>
+        <v>10000</v>
       </c>
       <c r="F41" t="n">
-        <v>9.993817867317027e-06</v>
+        <v>0.0001634621766867252</v>
       </c>
       <c r="G41" t="n">
         <v>104</v>
@@ -2007,13 +2007,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.9769137067289084</v>
+        <v>0.9787925878337128</v>
       </c>
       <c r="E43" t="n">
-        <v>64</v>
+        <v>2267</v>
       </c>
       <c r="F43" t="n">
-        <v>9.407687553626166e-06</v>
+        <v>9.999116609917198e-06</v>
       </c>
       <c r="G43" t="n">
         <v>2048</v>
@@ -2044,13 +2044,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.9787982732272241</v>
+        <v>0.9788022785424534</v>
       </c>
       <c r="E44" t="n">
-        <v>2703</v>
+        <v>10000</v>
       </c>
       <c r="F44" t="n">
-        <v>9.992951414259296e-06</v>
+        <v>0.007082353152920624</v>
       </c>
       <c r="G44" t="n">
         <v>2048</v>
@@ -2081,13 +2081,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.9788021898677821</v>
+        <v>0.9788022785424534</v>
       </c>
       <c r="E45" t="n">
-        <v>4573</v>
+        <v>10000</v>
       </c>
       <c r="F45" t="n">
-        <v>9.997635290122039e-06</v>
+        <v>0.02654506581249649</v>
       </c>
       <c r="G45" t="n">
         <v>2048</v>
@@ -2118,13 +2118,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.9788022781320286</v>
+        <v>0.9788022785424534</v>
       </c>
       <c r="E46" t="n">
-        <v>7205</v>
+        <v>10000</v>
       </c>
       <c r="F46" t="n">
-        <v>9.999061227797924e-06</v>
+        <v>48.96085227163616</v>
       </c>
       <c r="G46" t="n">
         <v>2048</v>
@@ -2161,7 +2161,7 @@
         <v>10000</v>
       </c>
       <c r="F47" t="n">
-        <v>0.001283438634309861</v>
+        <v>812.0638787640274</v>
       </c>
       <c r="G47" t="n">
         <v>2048</v>
@@ -2192,13 +2192,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.9786326514520987</v>
+        <v>0.9788022785424534</v>
       </c>
       <c r="E48" t="n">
-        <v>777</v>
+        <v>10000</v>
       </c>
       <c r="F48" t="n">
-        <v>9.976605646956668e-06</v>
+        <v>0.0005000839472032785</v>
       </c>
       <c r="G48" t="n">
         <v>2048</v>
@@ -2229,13 +2229,13 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.9788008652546754</v>
+        <v>0.9788022785424534</v>
       </c>
       <c r="E49" t="n">
-        <v>3215</v>
+        <v>10000</v>
       </c>
       <c r="F49" t="n">
-        <v>9.997132431229519e-06</v>
+        <v>0.007636602083683102</v>
       </c>
       <c r="G49" t="n">
         <v>2048</v>
@@ -2303,13 +2303,13 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>3011156754.072117</v>
+        <v>3015149174.692433</v>
       </c>
       <c r="E51" t="n">
-        <v>85</v>
+        <v>252</v>
       </c>
       <c r="F51" t="n">
-        <v>9.676802385755104e-06</v>
+        <v>9.928585391860365e-06</v>
       </c>
       <c r="G51" t="n">
         <v>48</v>
@@ -2340,13 +2340,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>3015179089.096041</v>
+        <v>3015179089.897686</v>
       </c>
       <c r="E52" t="n">
-        <v>604</v>
+        <v>10000</v>
       </c>
       <c r="F52" t="n">
-        <v>9.982704017214424e-06</v>
+        <v>0.0003291906152918685</v>
       </c>
       <c r="G52" t="n">
         <v>48</v>
@@ -2377,13 +2377,13 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>3015179089.897635</v>
+        <v>3015179089.897686</v>
       </c>
       <c r="E53" t="n">
-        <v>927</v>
+        <v>10000</v>
       </c>
       <c r="F53" t="n">
-        <v>9.988665997608089e-06</v>
+        <v>0.001358097661704671</v>
       </c>
       <c r="G53" t="n">
         <v>48</v>
@@ -2414,13 +2414,13 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3015179087.989286</v>
+        <v>3015179089.897686</v>
       </c>
       <c r="E54" t="n">
-        <v>575</v>
+        <v>10000</v>
       </c>
       <c r="F54" t="n">
-        <v>9.991344948527075e-06</v>
+        <v>138176655.6496532</v>
       </c>
       <c r="G54" t="n">
         <v>48</v>
@@ -2454,10 +2454,10 @@
         <v>3015179089.897686</v>
       </c>
       <c r="E55" t="n">
-        <v>1607</v>
+        <v>10000</v>
       </c>
       <c r="F55" t="n">
-        <v>9.994511562760285e-06</v>
+        <v>138800294.6638597</v>
       </c>
       <c r="G55" t="n">
         <v>48</v>
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3015178438.932333</v>
+        <v>3015179089.897686</v>
       </c>
       <c r="E56" t="n">
-        <v>380</v>
+        <v>10000</v>
       </c>
       <c r="F56" t="n">
-        <v>9.939429229334512e-06</v>
+        <v>9.069010063737639e-05</v>
       </c>
       <c r="G56" t="n">
         <v>48</v>
@@ -2525,13 +2525,13 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3015179089.890141</v>
+        <v>3015179089.897686</v>
       </c>
       <c r="E57" t="n">
-        <v>760</v>
+        <v>10000</v>
       </c>
       <c r="F57" t="n">
-        <v>9.982290391434789e-06</v>
+        <v>0.0003548055138794432</v>
       </c>
       <c r="G57" t="n">
         <v>48</v>
@@ -2599,13 +2599,13 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>5.502403871761227</v>
+        <v>5.503360131794794</v>
       </c>
       <c r="E59" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F59" t="n">
-        <v>2.432831504630166e-06</v>
+        <v>1.845225155283074e-06</v>
       </c>
       <c r="G59" t="n">
         <v>400</v>
@@ -2636,13 +2636,13 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>5.502378378470102</v>
+        <v>5.502378378470111</v>
       </c>
       <c r="E60" t="n">
-        <v>646</v>
+        <v>10000</v>
       </c>
       <c r="F60" t="n">
-        <v>9.99859584662748e-06</v>
+        <v>0.0004123978124137392</v>
       </c>
       <c r="G60" t="n">
         <v>400</v>
@@ -2673,13 +2673,13 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>5.502378378470102</v>
+        <v>5.502378378470111</v>
       </c>
       <c r="E61" t="n">
-        <v>966</v>
+        <v>10000</v>
       </c>
       <c r="F61" t="n">
-        <v>9.991691453699466e-06</v>
+        <v>0.001560911178215322</v>
       </c>
       <c r="G61" t="n">
         <v>400</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>5.502378378470101</v>
+        <v>5.502378378470111</v>
       </c>
       <c r="E62" t="n">
-        <v>206</v>
+        <v>10000</v>
       </c>
       <c r="F62" t="n">
-        <v>9.974712464742694e-06</v>
+        <v>2.226957013913808</v>
       </c>
       <c r="G62" t="n">
         <v>400</v>
@@ -2747,13 +2747,13 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>5.502378378470103</v>
+        <v>5.502378378470111</v>
       </c>
       <c r="E63" t="n">
-        <v>635</v>
+        <v>10000</v>
       </c>
       <c r="F63" t="n">
-        <v>9.97766932946064e-06</v>
+        <v>2.229172688256474</v>
       </c>
       <c r="G63" t="n">
         <v>400</v>
@@ -2784,13 +2784,13 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>5.502378378470101</v>
+        <v>5.502378378470111</v>
       </c>
       <c r="E64" t="n">
-        <v>166</v>
+        <v>10000</v>
       </c>
       <c r="F64" t="n">
-        <v>9.8861457622069e-06</v>
+        <v>1.648904966410565e-05</v>
       </c>
       <c r="G64" t="n">
         <v>400</v>
@@ -2821,13 +2821,13 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>5.502378378470102</v>
+        <v>5.502378378470111</v>
       </c>
       <c r="E65" t="n">
-        <v>788</v>
+        <v>10000</v>
       </c>
       <c r="F65" t="n">
-        <v>9.986922652148607e-06</v>
+        <v>0.0004443980341755148</v>
       </c>
       <c r="G65" t="n">
         <v>400</v>
@@ -2895,13 +2895,13 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>65.95354907787359</v>
+        <v>66.49593586857701</v>
       </c>
       <c r="E67" t="n">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="F67" t="n">
-        <v>6.35985957088322e-06</v>
+        <v>9.438464996522237e-06</v>
       </c>
       <c r="G67" t="n">
         <v>1104</v>
@@ -2935,10 +2935,10 @@
         <v>66.49656408021283</v>
       </c>
       <c r="E68" t="n">
-        <v>854</v>
+        <v>10000</v>
       </c>
       <c r="F68" t="n">
-        <v>9.996050425546655e-06</v>
+        <v>0.0007706891820941515</v>
       </c>
       <c r="G68" t="n">
         <v>1104</v>
@@ -2972,10 +2972,10 @@
         <v>66.49656408021283</v>
       </c>
       <c r="E69" t="n">
-        <v>1016</v>
+        <v>10000</v>
       </c>
       <c r="F69" t="n">
-        <v>9.987402530037153e-06</v>
+        <v>0.002246867335389094</v>
       </c>
       <c r="G69" t="n">
         <v>1104</v>
@@ -3009,10 +3009,10 @@
         <v>66.49656408021283</v>
       </c>
       <c r="E70" t="n">
-        <v>1857</v>
+        <v>10000</v>
       </c>
       <c r="F70" t="n">
-        <v>9.993300423606042e-06</v>
+        <v>14.78825031772963</v>
       </c>
       <c r="G70" t="n">
         <v>1104</v>
@@ -3046,10 +3046,10 @@
         <v>66.49656408021283</v>
       </c>
       <c r="E71" t="n">
-        <v>4633</v>
+        <v>10000</v>
       </c>
       <c r="F71" t="n">
-        <v>9.998425597357998e-06</v>
+        <v>14.28864615097917</v>
       </c>
       <c r="G71" t="n">
         <v>1104</v>
@@ -3083,10 +3083,10 @@
         <v>66.49656408021283</v>
       </c>
       <c r="E72" t="n">
-        <v>1162</v>
+        <v>10000</v>
       </c>
       <c r="F72" t="n">
-        <v>9.99268005713848e-06</v>
+        <v>0.001377026574396035</v>
       </c>
       <c r="G72" t="n">
         <v>1104</v>
@@ -3120,10 +3120,10 @@
         <v>66.49656408021283</v>
       </c>
       <c r="E73" t="n">
-        <v>1025</v>
+        <v>10000</v>
       </c>
       <c r="F73" t="n">
-        <v>9.995269785371948e-06</v>
+        <v>0.000830281044220738</v>
       </c>
       <c r="G73" t="n">
         <v>1104</v>
@@ -3191,13 +3191,13 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>11.79747645891352</v>
+        <v>11.86722041987553</v>
       </c>
       <c r="E75" t="n">
-        <v>49</v>
+        <v>325</v>
       </c>
       <c r="F75" t="n">
-        <v>7.54235882018588e-06</v>
+        <v>9.94446223104947e-06</v>
       </c>
       <c r="G75" t="n">
         <v>900</v>
@@ -3228,13 +3228,13 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>11.8668182091845</v>
+        <v>11.86573488178698</v>
       </c>
       <c r="E76" t="n">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="F76" t="n">
-        <v>9.919554385332669e-06</v>
+        <v>1.722728014120363e-06</v>
       </c>
       <c r="G76" t="n">
         <v>900</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>11.86733242842275</v>
+        <v>11.92869592386268</v>
       </c>
       <c r="E77" t="n">
-        <v>551</v>
+        <v>10000</v>
       </c>
       <c r="F77" t="n">
-        <v>9.966889770936543e-06</v>
+        <v>0.002477860861260694</v>
       </c>
       <c r="G77" t="n">
         <v>900</v>
@@ -3302,13 +3302,13 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>11.84291166989215</v>
+        <v>11.92869592386268</v>
       </c>
       <c r="E78" t="n">
-        <v>69</v>
+        <v>10000</v>
       </c>
       <c r="F78" t="n">
-        <v>9.112421910513254e-06</v>
+        <v>3.791500298878796</v>
       </c>
       <c r="G78" t="n">
         <v>900</v>
@@ -3339,13 +3339,13 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>11.86668222613527</v>
+        <v>11.92869592386268</v>
       </c>
       <c r="E79" t="n">
-        <v>196</v>
+        <v>10000</v>
       </c>
       <c r="F79" t="n">
-        <v>9.881016451761061e-06</v>
+        <v>3.760305889738109</v>
       </c>
       <c r="G79" t="n">
         <v>900</v>
@@ -3376,13 +3376,13 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>11.86260836927469</v>
+        <v>11.87332846817013</v>
       </c>
       <c r="E80" t="n">
-        <v>104</v>
+        <v>6939</v>
       </c>
       <c r="F80" t="n">
-        <v>7.772942852511034e-06</v>
+        <v>9.727630478380473e-06</v>
       </c>
       <c r="G80" t="n">
         <v>900</v>
@@ -3413,13 +3413,13 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>11.86727238992904</v>
+        <v>11.86722795318062</v>
       </c>
       <c r="E81" t="n">
-        <v>369</v>
+        <v>330</v>
       </c>
       <c r="F81" t="n">
-        <v>9.908701187544689e-06</v>
+        <v>1.46164485344731e-06</v>
       </c>
       <c r="G81" t="n">
         <v>900</v>
@@ -3487,13 +3487,13 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>12.64837768291397</v>
+        <v>12.66827343643875</v>
       </c>
       <c r="E83" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F83" t="n">
-        <v>3.152220678864829e-06</v>
+        <v>4.059705454580761e-06</v>
       </c>
       <c r="G83" t="n">
         <v>236</v>
@@ -3524,13 +3524,13 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>12.49339382021395</v>
+        <v>12.60585989664981</v>
       </c>
       <c r="E84" t="n">
-        <v>161</v>
+        <v>3410</v>
       </c>
       <c r="F84" t="n">
-        <v>9.754855339955774e-06</v>
+        <v>9.970494340118656e-06</v>
       </c>
       <c r="G84" t="n">
         <v>236</v>
@@ -3561,13 +3561,13 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>12.51389199426974</v>
+        <v>12.60586029956506</v>
       </c>
       <c r="E85" t="n">
-        <v>472</v>
+        <v>10000</v>
       </c>
       <c r="F85" t="n">
-        <v>9.972369599074409e-06</v>
+        <v>0.000775109209311593</v>
       </c>
       <c r="G85" t="n">
         <v>236</v>
@@ -3598,13 +3598,13 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>12.49572720772098</v>
+        <v>12.60586029956506</v>
       </c>
       <c r="E86" t="n">
-        <v>159</v>
+        <v>10000</v>
       </c>
       <c r="F86" t="n">
-        <v>9.989815930309881e-06</v>
+        <v>3.97156759767959</v>
       </c>
       <c r="G86" t="n">
         <v>236</v>
@@ -3635,13 +3635,13 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>12.6037986871951</v>
+        <v>12.60586029956506</v>
       </c>
       <c r="E87" t="n">
-        <v>1455</v>
+        <v>10000</v>
       </c>
       <c r="F87" t="n">
-        <v>9.982530291828866e-06</v>
+        <v>3.976563818170285</v>
       </c>
       <c r="G87" t="n">
         <v>236</v>
@@ -3672,13 +3672,13 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>12.5661686102434</v>
+        <v>12.58388703947486</v>
       </c>
       <c r="E88" t="n">
-        <v>103</v>
+        <v>764</v>
       </c>
       <c r="F88" t="n">
-        <v>9.442505772186741e-06</v>
+        <v>9.71026008152148e-06</v>
       </c>
       <c r="G88" t="n">
         <v>236</v>
@@ -3709,13 +3709,13 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12.44904727116749</v>
+        <v>12.60586029956506</v>
       </c>
       <c r="E89" t="n">
-        <v>253</v>
+        <v>8302</v>
       </c>
       <c r="F89" t="n">
-        <v>7.030854601727593e-06</v>
+        <v>9.984118833198056e-06</v>
       </c>
       <c r="G89" t="n">
         <v>236</v>
@@ -3783,13 +3783,13 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>4354741.324416467</v>
+        <v>4359530.089284046</v>
       </c>
       <c r="E91" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F91" t="n">
-        <v>5.861043871804342e-06</v>
+        <v>8.717376779685081e-06</v>
       </c>
       <c r="G91" t="n">
         <v>27</v>
@@ -3823,10 +3823,10 @@
         <v>4359568.101784363</v>
       </c>
       <c r="E92" t="n">
-        <v>732</v>
+        <v>10000</v>
       </c>
       <c r="F92" t="n">
-        <v>9.982775315803568e-06</v>
+        <v>0.0005545447756685804</v>
       </c>
       <c r="G92" t="n">
         <v>27</v>
@@ -3860,10 +3860,10 @@
         <v>4359568.101784363</v>
       </c>
       <c r="E93" t="n">
-        <v>906</v>
+        <v>10000</v>
       </c>
       <c r="F93" t="n">
-        <v>9.999267559953692e-06</v>
+        <v>0.001718627610892268</v>
       </c>
       <c r="G93" t="n">
         <v>27</v>
@@ -3897,10 +3897,10 @@
         <v>4359568.101784363</v>
       </c>
       <c r="E94" t="n">
-        <v>3064</v>
+        <v>10000</v>
       </c>
       <c r="F94" t="n">
-        <v>9.9961759992915e-06</v>
+        <v>282498.5101897008</v>
       </c>
       <c r="G94" t="n">
         <v>27</v>
@@ -3934,10 +3934,10 @@
         <v>4359568.101784363</v>
       </c>
       <c r="E95" t="n">
-        <v>9299</v>
+        <v>10000</v>
       </c>
       <c r="F95" t="n">
-        <v>9.99824167624434e-06</v>
+        <v>254375.2394593354</v>
       </c>
       <c r="G95" t="n">
         <v>27</v>
@@ -3971,10 +3971,10 @@
         <v>4359568.101784363</v>
       </c>
       <c r="E96" t="n">
-        <v>1808</v>
+        <v>10000</v>
       </c>
       <c r="F96" t="n">
-        <v>9.995315275235174e-06</v>
+        <v>0.003267482991796316</v>
       </c>
       <c r="G96" t="n">
         <v>27</v>
@@ -4008,10 +4008,10 @@
         <v>4359568.101784363</v>
       </c>
       <c r="E97" t="n">
-        <v>887</v>
+        <v>10000</v>
       </c>
       <c r="F97" t="n">
-        <v>9.983557930100885e-06</v>
+        <v>0.0005974753128452633</v>
       </c>
       <c r="G97" t="n">
         <v>27</v>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -527,13 +527,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10.4064979145221</v>
+        <v>10.26974106120281</v>
       </c>
       <c r="E3" t="n">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="F3" t="n">
-        <v>9.781505380213132e-06</v>
+        <v>6.252801378209473e-06</v>
       </c>
       <c r="G3" t="n">
         <v>398</v>
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10.41083696637312</v>
+        <v>10.40681898194069</v>
       </c>
       <c r="E4" t="n">
-        <v>10000</v>
+        <v>849</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0008616944137918946</v>
+        <v>9.99138518407971e-06</v>
       </c>
       <c r="G4" t="n">
         <v>398</v>
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10.41083696637312</v>
+        <v>10.39541639130355</v>
       </c>
       <c r="E5" t="n">
-        <v>10000</v>
+        <v>61</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002146581051107557</v>
+        <v>2.377156013231305e-07</v>
       </c>
       <c r="G5" t="n">
         <v>398</v>
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10.41083696637312</v>
+        <v>10.40711141820284</v>
       </c>
       <c r="E6" t="n">
-        <v>10000</v>
+        <v>1440</v>
       </c>
       <c r="F6" t="n">
-        <v>3.432852633920214</v>
+        <v>9.994075307793329e-06</v>
       </c>
       <c r="G6" t="n">
         <v>398</v>
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10.41083696637312</v>
+        <v>10.40849688930575</v>
       </c>
       <c r="E7" t="n">
-        <v>10000</v>
+        <v>3096</v>
       </c>
       <c r="F7" t="n">
-        <v>3.357603950362563</v>
+        <v>9.996290033884991e-06</v>
       </c>
       <c r="G7" t="n">
         <v>398</v>
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10.41083696637312</v>
+        <v>10.40687290904289</v>
       </c>
       <c r="E8" t="n">
-        <v>10000</v>
+        <v>976</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001086145166616668</v>
+        <v>9.994137764061311e-06</v>
       </c>
       <c r="G8" t="n">
         <v>398</v>
@@ -749,13 +749,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10.41083696637312</v>
+        <v>10.4068935870377</v>
       </c>
       <c r="E9" t="n">
-        <v>10000</v>
+        <v>1022</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0009236602930642351</v>
+        <v>9.987380083595747e-06</v>
       </c>
       <c r="G9" t="n">
         <v>398</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>199.9988556050082</v>
+        <v>199.9816930845243</v>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>5.723109982979101e-06</v>
+        <v>4.353826715540065e-06</v>
       </c>
       <c r="G11" t="n">
         <v>48</v>
@@ -863,10 +863,10 @@
         <v>200</v>
       </c>
       <c r="E12" t="n">
-        <v>10000</v>
+        <v>749</v>
       </c>
       <c r="F12" t="n">
-        <v>0.000553404818035221</v>
+        <v>9.97464335923175e-06</v>
       </c>
       <c r="G12" t="n">
         <v>48</v>
@@ -900,10 +900,10 @@
         <v>200</v>
       </c>
       <c r="E13" t="n">
-        <v>10000</v>
+        <v>1097</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00201762264105491</v>
+        <v>9.99810411957881e-06</v>
       </c>
       <c r="G13" t="n">
         <v>48</v>
@@ -937,10 +937,10 @@
         <v>200</v>
       </c>
       <c r="E14" t="n">
-        <v>10000</v>
+        <v>810</v>
       </c>
       <c r="F14" t="n">
-        <v>36.77244610782237</v>
+        <v>9.977292795492276e-06</v>
       </c>
       <c r="G14" t="n">
         <v>48</v>
@@ -974,10 +974,10 @@
         <v>200</v>
       </c>
       <c r="E15" t="n">
-        <v>10000</v>
+        <v>1983</v>
       </c>
       <c r="F15" t="n">
-        <v>37.0474108438139</v>
+        <v>9.9936446243908e-06</v>
       </c>
       <c r="G15" t="n">
         <v>48</v>
@@ -1011,10 +1011,10 @@
         <v>200</v>
       </c>
       <c r="E16" t="n">
-        <v>10000</v>
+        <v>501</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00024858040203356</v>
+        <v>9.974198752202633e-06</v>
       </c>
       <c r="G16" t="n">
         <v>48</v>
@@ -1048,10 +1048,10 @@
         <v>200</v>
       </c>
       <c r="E17" t="n">
-        <v>10000</v>
+        <v>909</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0005963475150896432</v>
+        <v>9.990028964771029e-06</v>
       </c>
       <c r="G17" t="n">
         <v>48</v>
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6197215.127347972</v>
+        <v>6193373.021736953</v>
       </c>
       <c r="E19" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F19" t="n">
-        <v>9.400116702690914e-06</v>
+        <v>9.506735145473922e-06</v>
       </c>
       <c r="G19" t="n">
         <v>153</v>
@@ -1159,10 +1159,10 @@
         <v>6197287.055740305</v>
       </c>
       <c r="E20" t="n">
-        <v>10000</v>
+        <v>943</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0009138541077811424</v>
+        <v>9.980054562380002e-06</v>
       </c>
       <c r="G20" t="n">
         <v>153</v>
@@ -1196,10 +1196,10 @@
         <v>6197287.055740305</v>
       </c>
       <c r="E21" t="n">
-        <v>10000</v>
+        <v>1157</v>
       </c>
       <c r="F21" t="n">
-        <v>0.002722772428509236</v>
+        <v>9.995238705435692e-06</v>
       </c>
       <c r="G21" t="n">
         <v>153</v>
@@ -1233,10 +1233,10 @@
         <v>6197287.055740305</v>
       </c>
       <c r="E22" t="n">
-        <v>10000</v>
+        <v>1963</v>
       </c>
       <c r="F22" t="n">
-        <v>394724.3825126545</v>
+        <v>9.994868688560088e-06</v>
       </c>
       <c r="G22" t="n">
         <v>153</v>
@@ -1270,10 +1270,10 @@
         <v>6197287.055740305</v>
       </c>
       <c r="E23" t="n">
-        <v>10000</v>
+        <v>5077</v>
       </c>
       <c r="F23" t="n">
-        <v>380073.6072234991</v>
+        <v>9.99765002157167e-06</v>
       </c>
       <c r="G23" t="n">
         <v>153</v>
@@ -1307,10 +1307,10 @@
         <v>6197287.055740305</v>
       </c>
       <c r="E24" t="n">
-        <v>10000</v>
+        <v>1153</v>
       </c>
       <c r="F24" t="n">
-        <v>0.001345786087633187</v>
+        <v>9.997384008650778e-06</v>
       </c>
       <c r="G24" t="n">
         <v>153</v>
@@ -1344,10 +1344,10 @@
         <v>6197287.055740305</v>
       </c>
       <c r="E25" t="n">
-        <v>10000</v>
+        <v>1149</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0009845720272345019</v>
+        <v>9.993593012495797e-06</v>
       </c>
       <c r="G25" t="n">
         <v>153</v>
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>30148.49450996695</v>
+        <v>30101.60734657212</v>
       </c>
       <c r="E27" t="n">
-        <v>527</v>
+        <v>14</v>
       </c>
       <c r="F27" t="n">
-        <v>9.967965300924009e-06</v>
+        <v>4.186377565356223e-06</v>
       </c>
       <c r="G27" t="n">
         <v>1138</v>
@@ -1452,13 +1452,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>30148.79442195321</v>
+        <v>30148.79245101181</v>
       </c>
       <c r="E28" t="n">
-        <v>10000</v>
+        <v>1040</v>
       </c>
       <c r="F28" t="n">
-        <v>0.001119957627176042</v>
+        <v>9.98330334370097e-06</v>
       </c>
       <c r="G28" t="n">
         <v>1138</v>
@@ -1489,13 +1489,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>30148.79442195321</v>
+        <v>30148.79431134179</v>
       </c>
       <c r="E29" t="n">
-        <v>10000</v>
+        <v>1334</v>
       </c>
       <c r="F29" t="n">
-        <v>0.003405300553530654</v>
+        <v>9.993272112714442e-06</v>
       </c>
       <c r="G29" t="n">
         <v>1138</v>
@@ -1526,13 +1526,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>30148.79442195321</v>
+        <v>30148.7944219532</v>
       </c>
       <c r="E30" t="n">
-        <v>10000</v>
+        <v>3001</v>
       </c>
       <c r="F30" t="n">
-        <v>2895.84686552627</v>
+        <v>9.995951795772905e-06</v>
       </c>
       <c r="G30" t="n">
         <v>1138</v>
@@ -1566,10 +1566,10 @@
         <v>30148.79442195321</v>
       </c>
       <c r="E31" t="n">
-        <v>10000</v>
+        <v>8377</v>
       </c>
       <c r="F31" t="n">
-        <v>2650.598408699112</v>
+        <v>9.999031665507192e-06</v>
       </c>
       <c r="G31" t="n">
         <v>1138</v>
@@ -1600,13 +1600,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>30148.79442195321</v>
+        <v>30148.79442064405</v>
       </c>
       <c r="E32" t="n">
-        <v>10000</v>
+        <v>1787</v>
       </c>
       <c r="F32" t="n">
-        <v>0.003211752792427558</v>
+        <v>9.989780418632438e-06</v>
       </c>
       <c r="G32" t="n">
         <v>1138</v>
@@ -1637,13 +1637,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>30148.79442195321</v>
+        <v>30148.79421692044</v>
       </c>
       <c r="E33" t="n">
-        <v>10000</v>
+        <v>1271</v>
       </c>
       <c r="F33" t="n">
-        <v>0.001206569357563393</v>
+        <v>9.997868451637104e-06</v>
       </c>
       <c r="G33" t="n">
         <v>1138</v>
@@ -1717,7 +1717,7 @@
         <v>9</v>
       </c>
       <c r="F35" t="n">
-        <v>4.701018118273467e-06</v>
+        <v>1.655823763081636e-06</v>
       </c>
       <c r="G35" t="n">
         <v>104</v>
@@ -1748,13 +1748,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>5.502378378875402</v>
+        <v>5.502378378875401</v>
       </c>
       <c r="E36" t="n">
-        <v>10000</v>
+        <v>395</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0001516934850493025</v>
+        <v>9.955600824881408e-06</v>
       </c>
       <c r="G36" t="n">
         <v>104</v>
@@ -1788,10 +1788,10 @@
         <v>5.502378378875402</v>
       </c>
       <c r="E37" t="n">
-        <v>10000</v>
+        <v>575</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0005923647748900125</v>
+        <v>9.991991259533384e-06</v>
       </c>
       <c r="G37" t="n">
         <v>104</v>
@@ -1822,13 +1822,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>5.502378378875402</v>
+        <v>5.502378378875401</v>
       </c>
       <c r="E38" t="n">
-        <v>10000</v>
+        <v>195</v>
       </c>
       <c r="F38" t="n">
-        <v>2.226956843048962</v>
+        <v>9.979193167510845e-06</v>
       </c>
       <c r="G38" t="n">
         <v>104</v>
@@ -1859,13 +1859,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5.502378378875402</v>
+        <v>5.502378378875401</v>
       </c>
       <c r="E39" t="n">
-        <v>10000</v>
+        <v>519</v>
       </c>
       <c r="F39" t="n">
-        <v>2.22860079522677</v>
+        <v>9.993504545296885e-06</v>
       </c>
       <c r="G39" t="n">
         <v>104</v>
@@ -1899,10 +1899,10 @@
         <v>5.502378378875402</v>
       </c>
       <c r="E40" t="n">
-        <v>10000</v>
+        <v>154</v>
       </c>
       <c r="F40" t="n">
-        <v>1.645156928402547e-05</v>
+        <v>9.905379762935128e-06</v>
       </c>
       <c r="G40" t="n">
         <v>104</v>
@@ -1933,13 +1933,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>5.502378378875402</v>
+        <v>5.502378378875401</v>
       </c>
       <c r="E41" t="n">
-        <v>10000</v>
+        <v>484</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0001634621766867252</v>
+        <v>9.993817867317027e-06</v>
       </c>
       <c r="G41" t="n">
         <v>104</v>
@@ -2007,13 +2007,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.9787925878337128</v>
+        <v>0.9769137067289084</v>
       </c>
       <c r="E43" t="n">
-        <v>2267</v>
+        <v>64</v>
       </c>
       <c r="F43" t="n">
-        <v>9.999116609917198e-06</v>
+        <v>9.407687553626166e-06</v>
       </c>
       <c r="G43" t="n">
         <v>2048</v>
@@ -2044,13 +2044,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.9788022785424534</v>
+        <v>0.9787982813556422</v>
       </c>
       <c r="E44" t="n">
-        <v>10000</v>
+        <v>2704</v>
       </c>
       <c r="F44" t="n">
-        <v>0.007082353152920624</v>
+        <v>9.992951414259296e-06</v>
       </c>
       <c r="G44" t="n">
         <v>2048</v>
@@ -2081,13 +2081,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.9788022785424534</v>
+        <v>0.9788021900484739</v>
       </c>
       <c r="E45" t="n">
-        <v>10000</v>
+        <v>4574</v>
       </c>
       <c r="F45" t="n">
-        <v>0.02654506581249649</v>
+        <v>9.997635290122039e-06</v>
       </c>
       <c r="G45" t="n">
         <v>2048</v>
@@ -2118,13 +2118,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.9788022785424534</v>
+        <v>0.9788022781328694</v>
       </c>
       <c r="E46" t="n">
-        <v>10000</v>
+        <v>7206</v>
       </c>
       <c r="F46" t="n">
-        <v>48.96085227163616</v>
+        <v>9.999061227797924e-06</v>
       </c>
       <c r="G46" t="n">
         <v>2048</v>
@@ -2161,7 +2161,7 @@
         <v>10000</v>
       </c>
       <c r="F47" t="n">
-        <v>812.0638787640274</v>
+        <v>0.001285309339926012</v>
       </c>
       <c r="G47" t="n">
         <v>2048</v>
@@ -2192,13 +2192,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.9788022785424534</v>
+        <v>0.9786329384086789</v>
       </c>
       <c r="E48" t="n">
-        <v>10000</v>
+        <v>778</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0005000839472032785</v>
+        <v>9.976605646956668e-06</v>
       </c>
       <c r="G48" t="n">
         <v>2048</v>
@@ -2229,13 +2229,13 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.9788022785424534</v>
+        <v>0.9788008681303265</v>
       </c>
       <c r="E49" t="n">
-        <v>10000</v>
+        <v>3216</v>
       </c>
       <c r="F49" t="n">
-        <v>0.007636602083683102</v>
+        <v>9.997132431229519e-06</v>
       </c>
       <c r="G49" t="n">
         <v>2048</v>
@@ -2303,13 +2303,13 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>3015149174.692433</v>
+        <v>3011156754.072117</v>
       </c>
       <c r="E51" t="n">
-        <v>252</v>
+        <v>85</v>
       </c>
       <c r="F51" t="n">
-        <v>9.928585391860365e-06</v>
+        <v>9.676802385755104e-06</v>
       </c>
       <c r="G51" t="n">
         <v>48</v>
@@ -2340,13 +2340,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>3015179089.897686</v>
+        <v>3015179089.119661</v>
       </c>
       <c r="E52" t="n">
-        <v>10000</v>
+        <v>605</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0003291906152918685</v>
+        <v>9.982704017214424e-06</v>
       </c>
       <c r="G52" t="n">
         <v>48</v>
@@ -2377,13 +2377,13 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>3015179089.897686</v>
+        <v>3015179089.897636</v>
       </c>
       <c r="E53" t="n">
-        <v>10000</v>
+        <v>928</v>
       </c>
       <c r="F53" t="n">
-        <v>0.001358097661704671</v>
+        <v>9.988665997608089e-06</v>
       </c>
       <c r="G53" t="n">
         <v>48</v>
@@ -2414,13 +2414,13 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3015179089.897686</v>
+        <v>3015179088.04552</v>
       </c>
       <c r="E54" t="n">
-        <v>10000</v>
+        <v>576</v>
       </c>
       <c r="F54" t="n">
-        <v>138176655.6496532</v>
+        <v>9.991344948527075e-06</v>
       </c>
       <c r="G54" t="n">
         <v>48</v>
@@ -2454,10 +2454,10 @@
         <v>3015179089.897686</v>
       </c>
       <c r="E55" t="n">
-        <v>10000</v>
+        <v>1608</v>
       </c>
       <c r="F55" t="n">
-        <v>138800294.6638597</v>
+        <v>9.994511562760285e-06</v>
       </c>
       <c r="G55" t="n">
         <v>48</v>
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3015179089.897686</v>
+        <v>3015178458.113348</v>
       </c>
       <c r="E56" t="n">
-        <v>10000</v>
+        <v>381</v>
       </c>
       <c r="F56" t="n">
-        <v>9.069010063737639e-05</v>
+        <v>9.939429229334512e-06</v>
       </c>
       <c r="G56" t="n">
         <v>48</v>
@@ -2525,13 +2525,13 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3015179089.897686</v>
+        <v>3015179089.890363</v>
       </c>
       <c r="E57" t="n">
-        <v>10000</v>
+        <v>761</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0003548055138794432</v>
+        <v>9.982290391434789e-06</v>
       </c>
       <c r="G57" t="n">
         <v>48</v>
@@ -2599,13 +2599,13 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>5.503360131794794</v>
+        <v>5.502403871761227</v>
       </c>
       <c r="E59" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F59" t="n">
-        <v>1.845225155283074e-06</v>
+        <v>2.432831504630166e-06</v>
       </c>
       <c r="G59" t="n">
         <v>400</v>
@@ -2636,13 +2636,13 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>5.502378378470111</v>
+        <v>5.502378378470102</v>
       </c>
       <c r="E60" t="n">
-        <v>10000</v>
+        <v>647</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0004123978124137392</v>
+        <v>9.99859584662748e-06</v>
       </c>
       <c r="G60" t="n">
         <v>400</v>
@@ -2673,13 +2673,13 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>5.502378378470111</v>
+        <v>5.502378378470101</v>
       </c>
       <c r="E61" t="n">
-        <v>10000</v>
+        <v>967</v>
       </c>
       <c r="F61" t="n">
-        <v>0.001560911178215322</v>
+        <v>9.991691453699466e-06</v>
       </c>
       <c r="G61" t="n">
         <v>400</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>5.502378378470111</v>
+        <v>5.502378378470102</v>
       </c>
       <c r="E62" t="n">
-        <v>10000</v>
+        <v>207</v>
       </c>
       <c r="F62" t="n">
-        <v>2.226957013913808</v>
+        <v>9.974712464742694e-06</v>
       </c>
       <c r="G62" t="n">
         <v>400</v>
@@ -2747,13 +2747,13 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>5.502378378470111</v>
+        <v>5.502378378470102</v>
       </c>
       <c r="E63" t="n">
-        <v>10000</v>
+        <v>636</v>
       </c>
       <c r="F63" t="n">
-        <v>2.229172688256474</v>
+        <v>9.97766932946064e-06</v>
       </c>
       <c r="G63" t="n">
         <v>400</v>
@@ -2784,13 +2784,13 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>5.502378378470111</v>
+        <v>5.502378378470101</v>
       </c>
       <c r="E64" t="n">
-        <v>10000</v>
+        <v>167</v>
       </c>
       <c r="F64" t="n">
-        <v>1.648904966410565e-05</v>
+        <v>9.8861457622069e-06</v>
       </c>
       <c r="G64" t="n">
         <v>400</v>
@@ -2821,13 +2821,13 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>5.502378378470111</v>
+        <v>5.502378378470103</v>
       </c>
       <c r="E65" t="n">
-        <v>10000</v>
+        <v>789</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0004443980341755148</v>
+        <v>9.986922652148607e-06</v>
       </c>
       <c r="G65" t="n">
         <v>400</v>
@@ -2895,13 +2895,13 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>66.49593586857701</v>
+        <v>65.95354907787359</v>
       </c>
       <c r="E67" t="n">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="F67" t="n">
-        <v>9.438464996522237e-06</v>
+        <v>6.35985957088322e-06</v>
       </c>
       <c r="G67" t="n">
         <v>1104</v>
@@ -2935,10 +2935,10 @@
         <v>66.49656408021283</v>
       </c>
       <c r="E68" t="n">
-        <v>10000</v>
+        <v>855</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0007706891820941515</v>
+        <v>9.996050425546655e-06</v>
       </c>
       <c r="G68" t="n">
         <v>1104</v>
@@ -2972,10 +2972,10 @@
         <v>66.49656408021283</v>
       </c>
       <c r="E69" t="n">
-        <v>10000</v>
+        <v>1017</v>
       </c>
       <c r="F69" t="n">
-        <v>0.002246867335389094</v>
+        <v>9.987402530037153e-06</v>
       </c>
       <c r="G69" t="n">
         <v>1104</v>
@@ -3009,10 +3009,10 @@
         <v>66.49656408021283</v>
       </c>
       <c r="E70" t="n">
-        <v>10000</v>
+        <v>1858</v>
       </c>
       <c r="F70" t="n">
-        <v>14.78825031772963</v>
+        <v>9.993300423606042e-06</v>
       </c>
       <c r="G70" t="n">
         <v>1104</v>
@@ -3046,10 +3046,10 @@
         <v>66.49656408021283</v>
       </c>
       <c r="E71" t="n">
-        <v>10000</v>
+        <v>4634</v>
       </c>
       <c r="F71" t="n">
-        <v>14.28864615097917</v>
+        <v>9.998425597357998e-06</v>
       </c>
       <c r="G71" t="n">
         <v>1104</v>
@@ -3083,10 +3083,10 @@
         <v>66.49656408021283</v>
       </c>
       <c r="E72" t="n">
-        <v>10000</v>
+        <v>1163</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001377026574396035</v>
+        <v>9.99268005713848e-06</v>
       </c>
       <c r="G72" t="n">
         <v>1104</v>
@@ -3120,10 +3120,10 @@
         <v>66.49656408021283</v>
       </c>
       <c r="E73" t="n">
-        <v>10000</v>
+        <v>1026</v>
       </c>
       <c r="F73" t="n">
-        <v>0.000830281044220738</v>
+        <v>9.995269785371948e-06</v>
       </c>
       <c r="G73" t="n">
         <v>1104</v>
@@ -3191,13 +3191,13 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>11.86722041987553</v>
+        <v>11.79747645891352</v>
       </c>
       <c r="E75" t="n">
-        <v>325</v>
+        <v>49</v>
       </c>
       <c r="F75" t="n">
-        <v>9.94446223104947e-06</v>
+        <v>7.54235882018588e-06</v>
       </c>
       <c r="G75" t="n">
         <v>900</v>
@@ -3228,13 +3228,13 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>11.86573488178698</v>
+        <v>11.86682517885162</v>
       </c>
       <c r="E76" t="n">
-        <v>141</v>
+        <v>214</v>
       </c>
       <c r="F76" t="n">
-        <v>1.722728014120363e-06</v>
+        <v>9.919554385332669e-06</v>
       </c>
       <c r="G76" t="n">
         <v>900</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>11.92869592386268</v>
+        <v>11.86733250672079</v>
       </c>
       <c r="E77" t="n">
-        <v>10000</v>
+        <v>552</v>
       </c>
       <c r="F77" t="n">
-        <v>0.002477860861260694</v>
+        <v>9.966889770936543e-06</v>
       </c>
       <c r="G77" t="n">
         <v>900</v>
@@ -3302,13 +3302,13 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>11.92869592386268</v>
+        <v>11.84415314508302</v>
       </c>
       <c r="E78" t="n">
-        <v>10000</v>
+        <v>70</v>
       </c>
       <c r="F78" t="n">
-        <v>3.791500298878796</v>
+        <v>9.112421910513254e-06</v>
       </c>
       <c r="G78" t="n">
         <v>900</v>
@@ -3339,13 +3339,13 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>11.92869592386268</v>
+        <v>11.86669125703764</v>
       </c>
       <c r="E79" t="n">
-        <v>10000</v>
+        <v>197</v>
       </c>
       <c r="F79" t="n">
-        <v>3.760305889738109</v>
+        <v>9.881016451761061e-06</v>
       </c>
       <c r="G79" t="n">
         <v>900</v>
@@ -3376,13 +3376,13 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>11.87332846817013</v>
+        <v>11.86278781549331</v>
       </c>
       <c r="E80" t="n">
-        <v>6939</v>
+        <v>105</v>
       </c>
       <c r="F80" t="n">
-        <v>9.727630478380473e-06</v>
+        <v>7.772942852511034e-06</v>
       </c>
       <c r="G80" t="n">
         <v>900</v>
@@ -3413,13 +3413,13 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>11.86722795318062</v>
+        <v>11.86727325552391</v>
       </c>
       <c r="E81" t="n">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="F81" t="n">
-        <v>1.46164485344731e-06</v>
+        <v>9.908701187544689e-06</v>
       </c>
       <c r="G81" t="n">
         <v>900</v>
@@ -3487,13 +3487,13 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>12.66827343643875</v>
+        <v>12.64837768291397</v>
       </c>
       <c r="E83" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F83" t="n">
-        <v>4.059705454580761e-06</v>
+        <v>3.152220678864829e-06</v>
       </c>
       <c r="G83" t="n">
         <v>236</v>
@@ -3524,13 +3524,13 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>12.60585989664981</v>
+        <v>12.49222589832259</v>
       </c>
       <c r="E84" t="n">
-        <v>3410</v>
+        <v>162</v>
       </c>
       <c r="F84" t="n">
-        <v>9.970494340118656e-06</v>
+        <v>9.754855339955774e-06</v>
       </c>
       <c r="G84" t="n">
         <v>236</v>
@@ -3561,13 +3561,13 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>12.60586029956506</v>
+        <v>12.51321514231788</v>
       </c>
       <c r="E85" t="n">
-        <v>10000</v>
+        <v>473</v>
       </c>
       <c r="F85" t="n">
-        <v>0.000775109209311593</v>
+        <v>9.972369599074409e-06</v>
       </c>
       <c r="G85" t="n">
         <v>236</v>
@@ -3598,13 +3598,13 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>12.60586029956506</v>
+        <v>12.49456085575737</v>
       </c>
       <c r="E86" t="n">
-        <v>10000</v>
+        <v>160</v>
       </c>
       <c r="F86" t="n">
-        <v>3.97156759767959</v>
+        <v>9.989815930309881e-06</v>
       </c>
       <c r="G86" t="n">
         <v>236</v>
@@ -3635,13 +3635,13 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>12.60586029956506</v>
+        <v>12.60378597234875</v>
       </c>
       <c r="E87" t="n">
-        <v>10000</v>
+        <v>1456</v>
       </c>
       <c r="F87" t="n">
-        <v>3.976563818170285</v>
+        <v>9.982530291828866e-06</v>
       </c>
       <c r="G87" t="n">
         <v>236</v>
@@ -3672,13 +3672,13 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>12.58388703947486</v>
+        <v>12.56475412689529</v>
       </c>
       <c r="E88" t="n">
-        <v>764</v>
+        <v>104</v>
       </c>
       <c r="F88" t="n">
-        <v>9.71026008152148e-06</v>
+        <v>9.442505772186741e-06</v>
       </c>
       <c r="G88" t="n">
         <v>236</v>
@@ -3709,13 +3709,13 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12.60586029956506</v>
+        <v>12.45279251279922</v>
       </c>
       <c r="E89" t="n">
-        <v>8302</v>
+        <v>254</v>
       </c>
       <c r="F89" t="n">
-        <v>9.984118833198056e-06</v>
+        <v>7.030854601727593e-06</v>
       </c>
       <c r="G89" t="n">
         <v>236</v>
@@ -3783,13 +3783,13 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>4359530.089284046</v>
+        <v>4354741.324416467</v>
       </c>
       <c r="E91" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F91" t="n">
-        <v>8.717376779685081e-06</v>
+        <v>5.861043871804342e-06</v>
       </c>
       <c r="G91" t="n">
         <v>27</v>
@@ -3823,10 +3823,10 @@
         <v>4359568.101784363</v>
       </c>
       <c r="E92" t="n">
-        <v>10000</v>
+        <v>733</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0005545447756685804</v>
+        <v>9.982775315803568e-06</v>
       </c>
       <c r="G92" t="n">
         <v>27</v>
@@ -3860,10 +3860,10 @@
         <v>4359568.101784363</v>
       </c>
       <c r="E93" t="n">
-        <v>10000</v>
+        <v>907</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001718627610892268</v>
+        <v>9.999267559953692e-06</v>
       </c>
       <c r="G93" t="n">
         <v>27</v>
@@ -3897,10 +3897,10 @@
         <v>4359568.101784363</v>
       </c>
       <c r="E94" t="n">
-        <v>10000</v>
+        <v>3065</v>
       </c>
       <c r="F94" t="n">
-        <v>282498.5101897008</v>
+        <v>9.9961759992915e-06</v>
       </c>
       <c r="G94" t="n">
         <v>27</v>
@@ -3934,10 +3934,10 @@
         <v>4359568.101784363</v>
       </c>
       <c r="E95" t="n">
-        <v>10000</v>
+        <v>9300</v>
       </c>
       <c r="F95" t="n">
-        <v>254375.2394593354</v>
+        <v>9.99824167624434e-06</v>
       </c>
       <c r="G95" t="n">
         <v>27</v>
@@ -3971,10 +3971,10 @@
         <v>4359568.101784363</v>
       </c>
       <c r="E96" t="n">
-        <v>10000</v>
+        <v>1809</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003267482991796316</v>
+        <v>9.995315275235174e-06</v>
       </c>
       <c r="G96" t="n">
         <v>27</v>
@@ -4008,10 +4008,10 @@
         <v>4359568.101784363</v>
       </c>
       <c r="E97" t="n">
-        <v>10000</v>
+        <v>888</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0005974753128452633</v>
+        <v>9.983557930100885e-06</v>
       </c>
       <c r="G97" t="n">
         <v>27</v>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10.40542259637459</v>
+        <v>10.40552080389987</v>
       </c>
       <c r="E4" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F4" t="n">
-        <v>9.966414100353802e-06</v>
+        <v>9.304846362475817e-06</v>
       </c>
       <c r="G4" t="n">
         <v>398</v>
@@ -607,7 +607,7 @@
         <v>88</v>
       </c>
       <c r="F5" t="n">
-        <v>9.18576758256923e-06</v>
+        <v>9.325930051194274e-06</v>
       </c>
       <c r="G5" t="n">
         <v>398</v>
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10.40641177873929</v>
+        <v>10.40639458096528</v>
       </c>
       <c r="E6" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6" t="n">
-        <v>9.688249580832309e-06</v>
+        <v>9.473195404948016e-06</v>
       </c>
       <c r="G6" t="n">
         <v>398</v>
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10.40656713280958</v>
+        <v>10.40656414178647</v>
       </c>
       <c r="E7" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F7" t="n">
-        <v>9.943563206101052e-06</v>
+        <v>9.880042300738133e-06</v>
       </c>
       <c r="G7" t="n">
         <v>398</v>
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10.40542259637459</v>
+        <v>10.40552080389987</v>
       </c>
       <c r="E8" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F8" t="n">
-        <v>9.966296286532588e-06</v>
+        <v>9.304804064879727e-06</v>
       </c>
       <c r="G8" t="n">
         <v>398</v>
@@ -755,7 +755,7 @@
         <v>88</v>
       </c>
       <c r="F9" t="n">
-        <v>9.458844819972852e-06</v>
+        <v>9.444908498339598e-06</v>
       </c>
       <c r="G9" t="n">
         <v>398</v>
@@ -860,13 +860,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>199.9999988824129</v>
+        <v>199.99998211861</v>
       </c>
       <c r="E12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F12" t="n">
-        <v>6.892830026989844e-06</v>
+        <v>8.582362594035182e-06</v>
       </c>
       <c r="G12" t="n">
         <v>48</v>
@@ -897,13 +897,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>199.9999988824129</v>
+        <v>199.99998211861</v>
       </c>
       <c r="E13" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F13" t="n">
-        <v>6.050958150742468e-06</v>
+        <v>7.373783157618215e-06</v>
       </c>
       <c r="G13" t="n">
         <v>48</v>
@@ -934,13 +934,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>199.9999999301508</v>
+        <v>199.9999988824129</v>
       </c>
       <c r="E14" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F14" t="n">
-        <v>2.923672488600641e-06</v>
+        <v>5.26917473356898e-06</v>
       </c>
       <c r="G14" t="n">
         <v>48</v>
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>199.9999999301508</v>
+        <v>199.9999997206032</v>
       </c>
       <c r="E15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>6.267726391692388e-06</v>
+        <v>3.149642904418066e-06</v>
       </c>
       <c r="G15" t="n">
         <v>48</v>
@@ -1008,13 +1008,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>199.9999988824129</v>
+        <v>199.99998211861</v>
       </c>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F16" t="n">
-        <v>6.892969222070267e-06</v>
+        <v>8.582581278018015e-06</v>
       </c>
       <c r="G16" t="n">
         <v>48</v>
@@ -1045,13 +1045,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>199.9999988824129</v>
+        <v>199.99998211861</v>
       </c>
       <c r="E17" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F17" t="n">
-        <v>6.986575503125125e-06</v>
+        <v>7.509326577066011e-06</v>
       </c>
       <c r="G17" t="n">
         <v>48</v>
@@ -1156,13 +1156,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6196701.145734202</v>
+        <v>6196988.481750282</v>
       </c>
       <c r="E20" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F20" t="n">
-        <v>8.463788513790961e-06</v>
+        <v>9.180246952624249e-06</v>
       </c>
       <c r="G20" t="n">
         <v>153</v>
@@ -1193,13 +1193,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6196823.717917441</v>
+        <v>6196988.481750282</v>
       </c>
       <c r="E21" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F21" t="n">
-        <v>8.589759987131595e-06</v>
+        <v>9.459647296954385e-06</v>
       </c>
       <c r="G21" t="n">
         <v>153</v>
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6197252.279376373</v>
+        <v>6197247.048851128</v>
       </c>
       <c r="E22" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" t="n">
-        <v>9.80469270212319e-06</v>
+        <v>9.353919858325805e-06</v>
       </c>
       <c r="G22" t="n">
         <v>153</v>
@@ -1267,13 +1267,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>6197275.194405969</v>
+        <v>6197273.52326334</v>
       </c>
       <c r="E23" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F23" t="n">
-        <v>9.977586658244617e-06</v>
+        <v>9.805386910567411e-06</v>
       </c>
       <c r="G23" t="n">
         <v>153</v>
@@ -1304,13 +1304,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6196701.145734202</v>
+        <v>6196988.481750282</v>
       </c>
       <c r="E24" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F24" t="n">
-        <v>8.452362386605476e-06</v>
+        <v>9.179854570319485e-06</v>
       </c>
       <c r="G24" t="n">
         <v>153</v>
@@ -1341,13 +1341,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6197087.151238746</v>
+        <v>6197043.861659037</v>
       </c>
       <c r="E25" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" t="n">
-        <v>7.907746564047223e-06</v>
+        <v>9.27132719378142e-06</v>
       </c>
       <c r="G25" t="n">
         <v>153</v>
@@ -1452,13 +1452,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>30115.82629984464</v>
+        <v>30115.22377371474</v>
       </c>
       <c r="E28" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F28" t="n">
-        <v>6.235717821223405e-06</v>
+        <v>1.925490243777308e-06</v>
       </c>
       <c r="G28" t="n">
         <v>1138</v>
@@ -1489,13 +1489,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>30115.82629984464</v>
+        <v>30115.22377371474</v>
       </c>
       <c r="E29" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F29" t="n">
-        <v>4.568432828937074e-06</v>
+        <v>2.56338281221214e-07</v>
       </c>
       <c r="G29" t="n">
         <v>1138</v>
@@ -1526,13 +1526,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>30116.84574637704</v>
+        <v>30116.3472916053</v>
       </c>
       <c r="E30" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F30" t="n">
-        <v>3.722542771329062e-06</v>
+        <v>9.794499992387702e-06</v>
       </c>
       <c r="G30" t="n">
         <v>1138</v>
@@ -1563,13 +1563,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>30116.84574637704</v>
+        <v>30116.59809379434</v>
       </c>
       <c r="E31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F31" t="n">
-        <v>1.88199765928705e-06</v>
+        <v>4.482915195605495e-06</v>
       </c>
       <c r="G31" t="n">
         <v>1138</v>
@@ -1600,13 +1600,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>30115.82629984464</v>
+        <v>30115.22377371474</v>
       </c>
       <c r="E32" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F32" t="n">
-        <v>6.237970112990483e-06</v>
+        <v>1.927767282824333e-06</v>
       </c>
       <c r="G32" t="n">
         <v>1138</v>
@@ -1637,13 +1637,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>30116.59809379434</v>
+        <v>30116.09139544879</v>
       </c>
       <c r="E33" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F33" t="n">
-        <v>9.297946494327395e-06</v>
+        <v>9.508485658180309e-06</v>
       </c>
       <c r="G33" t="n">
         <v>1138</v>
@@ -1748,13 +1748,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>5.50237842977301</v>
+        <v>5.50237898820335</v>
       </c>
       <c r="E36" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F36" t="n">
-        <v>4.537647422795655e-06</v>
+        <v>5.29628837441874e-06</v>
       </c>
       <c r="G36" t="n">
         <v>104</v>
@@ -1785,13 +1785,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>5.50237842977301</v>
+        <v>5.50237898820335</v>
       </c>
       <c r="E37" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F37" t="n">
-        <v>3.948459207032526e-06</v>
+        <v>4.490951852592682e-06</v>
       </c>
       <c r="G37" t="n">
         <v>104</v>
@@ -1822,13 +1822,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>5.502378393601306</v>
+        <v>5.502378554904305</v>
       </c>
       <c r="E38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F38" t="n">
-        <v>4.939852649576385e-06</v>
+        <v>8.152491568470215e-06</v>
       </c>
       <c r="G38" t="n">
         <v>104</v>
@@ -1859,13 +1859,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5.502378393601306</v>
+        <v>5.50237842977301</v>
       </c>
       <c r="E39" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F39" t="n">
-        <v>9.325435285169179e-06</v>
+        <v>5.070415783306507e-06</v>
       </c>
       <c r="G39" t="n">
         <v>104</v>
@@ -1896,13 +1896,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5.50237842977301</v>
+        <v>5.50237898820335</v>
       </c>
       <c r="E40" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F40" t="n">
-        <v>4.537580337825588e-06</v>
+        <v>5.296187842243326e-06</v>
       </c>
       <c r="G40" t="n">
         <v>104</v>
@@ -1933,13 +1933,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>5.50237842977301</v>
+        <v>5.50237898820335</v>
       </c>
       <c r="E41" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F41" t="n">
-        <v>4.297466035979731e-06</v>
+        <v>4.434187605755834e-06</v>
       </c>
       <c r="G41" t="n">
         <v>104</v>
@@ -2050,7 +2050,7 @@
         <v>100</v>
       </c>
       <c r="F44" t="n">
-        <v>9.442812903452143e-06</v>
+        <v>9.534900799784791e-06</v>
       </c>
       <c r="G44" t="n">
         <v>2048</v>
@@ -2087,7 +2087,7 @@
         <v>100</v>
       </c>
       <c r="F45" t="n">
-        <v>9.473442546440359e-06</v>
+        <v>9.548581682772962e-06</v>
       </c>
       <c r="G45" t="n">
         <v>2048</v>
@@ -2118,13 +2118,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.9784024500572027</v>
+        <v>0.9784019525497368</v>
       </c>
       <c r="E46" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F46" t="n">
-        <v>9.933125952981939e-06</v>
+        <v>9.913606675004433e-06</v>
       </c>
       <c r="G46" t="n">
         <v>2048</v>
@@ -2155,13 +2155,13 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.9783943307160177</v>
+        <v>0.9783938075039613</v>
       </c>
       <c r="E47" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F47" t="n">
-        <v>4.951935946335164e-06</v>
+        <v>4.719077680919176e-06</v>
       </c>
       <c r="G47" t="n">
         <v>2048</v>
@@ -2198,7 +2198,7 @@
         <v>100</v>
       </c>
       <c r="F48" t="n">
-        <v>9.442748783800291e-06</v>
+        <v>9.53487315095048e-06</v>
       </c>
       <c r="G48" t="n">
         <v>2048</v>
@@ -2235,7 +2235,7 @@
         <v>100</v>
       </c>
       <c r="F49" t="n">
-        <v>9.619483567684416e-06</v>
+        <v>9.613568112840768e-06</v>
       </c>
       <c r="G49" t="n">
         <v>2048</v>
@@ -2340,13 +2340,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>3014181127.26153</v>
+        <v>2994315290.608232</v>
       </c>
       <c r="E52" t="n">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="F52" t="n">
-        <v>9.79309653712606e-06</v>
+        <v>2.622602171234828e-06</v>
       </c>
       <c r="G52" t="n">
         <v>48</v>
@@ -2383,7 +2383,7 @@
         <v>134</v>
       </c>
       <c r="F53" t="n">
-        <v>9.803204468852192e-06</v>
+        <v>9.812847645515519e-06</v>
       </c>
       <c r="G53" t="n">
         <v>48</v>
@@ -2414,13 +2414,13 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2996903287.477822</v>
+        <v>3006240323.348099</v>
       </c>
       <c r="E54" t="n">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="F54" t="n">
-        <v>9.712546938069412e-06</v>
+        <v>8.569674817641328e-06</v>
       </c>
       <c r="G54" t="n">
         <v>48</v>
@@ -2451,13 +2451,13 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2996575918.088687</v>
+        <v>3008190186.862289</v>
       </c>
       <c r="E55" t="n">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="F55" t="n">
-        <v>1.260975609200225e-06</v>
+        <v>3.261849259291997e-06</v>
       </c>
       <c r="G55" t="n">
         <v>48</v>
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3014181127.26153</v>
+        <v>2994315290.608232</v>
       </c>
       <c r="E56" t="n">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="F56" t="n">
-        <v>9.793008290352726e-06</v>
+        <v>2.160279201327338e-06</v>
       </c>
       <c r="G56" t="n">
         <v>48</v>
@@ -2531,7 +2531,7 @@
         <v>134</v>
       </c>
       <c r="F57" t="n">
-        <v>9.82176311655884e-06</v>
+        <v>9.821422248969074e-06</v>
       </c>
       <c r="G57" t="n">
         <v>48</v>
@@ -2636,13 +2636,13 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>5.502378429367709</v>
+        <v>5.502378987798011</v>
       </c>
       <c r="E60" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F60" t="n">
-        <v>4.535685627591864e-06</v>
+        <v>5.293103880985482e-06</v>
       </c>
       <c r="G60" t="n">
         <v>400</v>
@@ -2673,13 +2673,13 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>5.502378429367709</v>
+        <v>5.502378987798011</v>
       </c>
       <c r="E61" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F61" t="n">
-        <v>3.946675259901892e-06</v>
+        <v>4.488095056673856e-06</v>
       </c>
       <c r="G61" t="n">
         <v>400</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>5.502378393196004</v>
+        <v>5.502378554499002</v>
       </c>
       <c r="E62" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F62" t="n">
-        <v>4.939626843504119e-06</v>
+        <v>8.15203433818e-06</v>
       </c>
       <c r="G62" t="n">
         <v>400</v>
@@ -2747,13 +2747,13 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>5.502378393196004</v>
+        <v>5.502378429367709</v>
       </c>
       <c r="E63" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F63" t="n">
-        <v>9.324998838182909e-06</v>
+        <v>5.070382604500999e-06</v>
       </c>
       <c r="G63" t="n">
         <v>400</v>
@@ -2784,13 +2784,13 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>5.502378429367709</v>
+        <v>5.502378987798011</v>
       </c>
       <c r="E64" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F64" t="n">
-        <v>4.535618600086416e-06</v>
+        <v>5.293003543963724e-06</v>
       </c>
       <c r="G64" t="n">
         <v>400</v>
@@ -2821,13 +2821,13 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>5.502378429367709</v>
+        <v>5.502378987798011</v>
       </c>
       <c r="E65" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F65" t="n">
-        <v>4.294645853215869e-06</v>
+        <v>4.429785167556549e-06</v>
       </c>
       <c r="G65" t="n">
         <v>400</v>
@@ -2938,7 +2938,7 @@
         <v>99</v>
       </c>
       <c r="F68" t="n">
-        <v>9.884474166211285e-06</v>
+        <v>9.988750386068086e-06</v>
       </c>
       <c r="G68" t="n">
         <v>1104</v>
@@ -2969,13 +2969,13 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>66.48704444965379</v>
+        <v>66.48767021742641</v>
       </c>
       <c r="E69" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F69" t="n">
-        <v>9.918854071560975e-06</v>
+        <v>9.346159695116982e-06</v>
       </c>
       <c r="G69" t="n">
         <v>1104</v>
@@ -3006,13 +3006,13 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>66.49523803003167</v>
+        <v>66.49514481158658</v>
       </c>
       <c r="E70" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F70" t="n">
-        <v>9.73995231989243e-06</v>
+        <v>9.605478729894311e-06</v>
       </c>
       <c r="G70" t="n">
         <v>1104</v>
@@ -3043,13 +3043,13 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>66.49635195782344</v>
+        <v>66.49633707380629</v>
       </c>
       <c r="E71" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F71" t="n">
-        <v>9.555907980520358e-06</v>
+        <v>9.520211617842372e-06</v>
       </c>
       <c r="G71" t="n">
         <v>1104</v>
@@ -3086,7 +3086,7 @@
         <v>99</v>
       </c>
       <c r="F72" t="n">
-        <v>9.884397946766035e-06</v>
+        <v>9.988717755946685e-06</v>
       </c>
       <c r="G72" t="n">
         <v>1104</v>
@@ -3123,7 +3123,7 @@
         <v>100</v>
       </c>
       <c r="F73" t="n">
-        <v>9.421498877617703e-06</v>
+        <v>9.415049544200972e-06</v>
       </c>
       <c r="G73" t="n">
         <v>1104</v>
@@ -3234,7 +3234,7 @@
         <v>113</v>
       </c>
       <c r="F76" t="n">
-        <v>9.866501331696134e-06</v>
+        <v>9.930335380148205e-06</v>
       </c>
       <c r="G76" t="n">
         <v>900</v>
@@ -3271,7 +3271,7 @@
         <v>113</v>
       </c>
       <c r="F77" t="n">
-        <v>9.888440788467818e-06</v>
+        <v>9.940284357086973e-06</v>
       </c>
       <c r="G77" t="n">
         <v>900</v>
@@ -3302,13 +3302,13 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>11.8655067711054</v>
+        <v>11.86546333643697</v>
       </c>
       <c r="E78" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F78" t="n">
-        <v>9.867579021147395e-06</v>
+        <v>9.682034680970215e-06</v>
       </c>
       <c r="G78" t="n">
         <v>900</v>
@@ -3339,13 +3339,13 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>11.86641022912457</v>
+        <v>11.86639590040766</v>
       </c>
       <c r="E79" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F79" t="n">
-        <v>9.934707040757959e-06</v>
+        <v>9.89516154312461e-06</v>
       </c>
       <c r="G79" t="n">
         <v>900</v>
@@ -3382,7 +3382,7 @@
         <v>113</v>
       </c>
       <c r="F80" t="n">
-        <v>9.866453052932572e-06</v>
+        <v>9.930316495251763e-06</v>
       </c>
       <c r="G80" t="n">
         <v>900</v>
@@ -3419,7 +3419,7 @@
         <v>113</v>
       </c>
       <c r="F81" t="n">
-        <v>9.988910253664568e-06</v>
+        <v>9.985260077648267e-06</v>
       </c>
       <c r="G81" t="n">
         <v>900</v>
@@ -3530,7 +3530,7 @@
         <v>233</v>
       </c>
       <c r="F84" t="n">
-        <v>3.694284939701289e-06</v>
+        <v>2.824105675644686e-06</v>
       </c>
       <c r="G84" t="n">
         <v>236</v>
@@ -3561,13 +3561,13 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>12.41717072759173</v>
+        <v>12.66532682460676</v>
       </c>
       <c r="E85" t="n">
-        <v>233</v>
+        <v>18</v>
       </c>
       <c r="F85" t="n">
-        <v>3.801911212063193e-06</v>
+        <v>2.478619651939144e-06</v>
       </c>
       <c r="G85" t="n">
         <v>236</v>
@@ -3598,13 +3598,13 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>12.64106696698688</v>
+        <v>12.6418765264093</v>
       </c>
       <c r="E86" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F86" t="n">
-        <v>7.493446121688682e-06</v>
+        <v>4.586650702415309e-06</v>
       </c>
       <c r="G86" t="n">
         <v>236</v>
@@ -3635,13 +3635,13 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>12.62428816363575</v>
+        <v>12.62555359591559</v>
       </c>
       <c r="E87" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F87" t="n">
-        <v>1.951744167437994e-06</v>
+        <v>1.41120348474479e-06</v>
       </c>
       <c r="G87" t="n">
         <v>236</v>
@@ -3678,7 +3678,7 @@
         <v>233</v>
       </c>
       <c r="F88" t="n">
-        <v>3.695532577371725e-06</v>
+        <v>2.824525417175844e-06</v>
       </c>
       <c r="G88" t="n">
         <v>236</v>
@@ -3709,13 +3709,13 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12.41717072759173</v>
+        <v>12.66827343643875</v>
       </c>
       <c r="E89" t="n">
-        <v>233</v>
+        <v>23</v>
       </c>
       <c r="F89" t="n">
-        <v>2.038582890291824e-06</v>
+        <v>1.84032935707703e-06</v>
       </c>
       <c r="G89" t="n">
         <v>236</v>
@@ -3820,13 +3820,13 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>4359361.068442534</v>
+        <v>4359405.598719366</v>
       </c>
       <c r="E92" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F92" t="n">
-        <v>8.298738335341626e-06</v>
+        <v>8.79413004409953e-06</v>
       </c>
       <c r="G92" t="n">
         <v>27</v>
@@ -3857,13 +3857,13 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>4359361.068442534</v>
+        <v>4359405.598719366</v>
       </c>
       <c r="E93" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F93" t="n">
-        <v>8.891136115989496e-06</v>
+        <v>8.964208689398605e-06</v>
       </c>
       <c r="G93" t="n">
         <v>27</v>
@@ -3894,13 +3894,13 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>4359562.620361849</v>
+        <v>4359561.119215791</v>
       </c>
       <c r="E94" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F94" t="n">
-        <v>8.86631778368647e-06</v>
+        <v>8.488856338646265e-06</v>
       </c>
       <c r="G94" t="n">
         <v>27</v>
@@ -3931,13 +3931,13 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>4359566.818912367</v>
+        <v>4359566.467604849</v>
       </c>
       <c r="E95" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F95" t="n">
-        <v>8.961861022192112e-06</v>
+        <v>8.709701979145706e-06</v>
       </c>
       <c r="G95" t="n">
         <v>27</v>
@@ -3968,13 +3968,13 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>4359361.068442534</v>
+        <v>4359405.598719366</v>
       </c>
       <c r="E96" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F96" t="n">
-        <v>8.297234591078285e-06</v>
+        <v>8.793896381638517e-06</v>
       </c>
       <c r="G96" t="n">
         <v>27</v>
@@ -4011,7 +4011,7 @@
         <v>45</v>
       </c>
       <c r="F97" t="n">
-        <v>8.596519229678518e-06</v>
+        <v>8.182488403418075e-06</v>
       </c>
       <c r="G97" t="n">
         <v>27</v>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10.40552080389987</v>
+        <v>10.40542259637459</v>
       </c>
       <c r="E4" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" t="n">
-        <v>9.304846362475817e-06</v>
+        <v>9.966414100353802e-06</v>
       </c>
       <c r="G4" t="n">
         <v>398</v>
@@ -607,7 +607,7 @@
         <v>88</v>
       </c>
       <c r="F5" t="n">
-        <v>9.325930051194274e-06</v>
+        <v>9.18576758256923e-06</v>
       </c>
       <c r="G5" t="n">
         <v>398</v>
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10.40639458096528</v>
+        <v>10.40641177873929</v>
       </c>
       <c r="E6" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F6" t="n">
-        <v>9.473195404948016e-06</v>
+        <v>9.688249580832309e-06</v>
       </c>
       <c r="G6" t="n">
         <v>398</v>
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10.40656414178647</v>
+        <v>10.40656713280958</v>
       </c>
       <c r="E7" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F7" t="n">
-        <v>9.880042300738133e-06</v>
+        <v>9.943563206101052e-06</v>
       </c>
       <c r="G7" t="n">
         <v>398</v>
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10.40552080389987</v>
+        <v>10.40542259637459</v>
       </c>
       <c r="E8" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F8" t="n">
-        <v>9.304804064879727e-06</v>
+        <v>9.966296286532588e-06</v>
       </c>
       <c r="G8" t="n">
         <v>398</v>
@@ -755,7 +755,7 @@
         <v>88</v>
       </c>
       <c r="F9" t="n">
-        <v>9.444908498339598e-06</v>
+        <v>9.458844819972852e-06</v>
       </c>
       <c r="G9" t="n">
         <v>398</v>
@@ -860,13 +860,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>199.99998211861</v>
+        <v>199.9999988824129</v>
       </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F12" t="n">
-        <v>8.582362594035182e-06</v>
+        <v>6.892830026989844e-06</v>
       </c>
       <c r="G12" t="n">
         <v>48</v>
@@ -897,13 +897,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>199.99998211861</v>
+        <v>199.9999988824129</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F13" t="n">
-        <v>7.373783157618215e-06</v>
+        <v>6.050958150742468e-06</v>
       </c>
       <c r="G13" t="n">
         <v>48</v>
@@ -934,13 +934,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>199.9999988824129</v>
+        <v>199.9999999301508</v>
       </c>
       <c r="E14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F14" t="n">
-        <v>5.26917473356898e-06</v>
+        <v>2.923672488600641e-06</v>
       </c>
       <c r="G14" t="n">
         <v>48</v>
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>199.9999997206032</v>
+        <v>199.9999999301508</v>
       </c>
       <c r="E15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" t="n">
-        <v>3.149642904418066e-06</v>
+        <v>6.267726391692388e-06</v>
       </c>
       <c r="G15" t="n">
         <v>48</v>
@@ -1008,13 +1008,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>199.99998211861</v>
+        <v>199.9999988824129</v>
       </c>
       <c r="E16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F16" t="n">
-        <v>8.582581278018015e-06</v>
+        <v>6.892969222070267e-06</v>
       </c>
       <c r="G16" t="n">
         <v>48</v>
@@ -1045,13 +1045,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>199.99998211861</v>
+        <v>199.9999988824129</v>
       </c>
       <c r="E17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" t="n">
-        <v>7.509326577066011e-06</v>
+        <v>6.986575503125125e-06</v>
       </c>
       <c r="G17" t="n">
         <v>48</v>
@@ -1156,13 +1156,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6196988.481750282</v>
+        <v>6196701.145734202</v>
       </c>
       <c r="E20" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F20" t="n">
-        <v>9.180246952624249e-06</v>
+        <v>8.463788513790961e-06</v>
       </c>
       <c r="G20" t="n">
         <v>153</v>
@@ -1193,13 +1193,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6196988.481750282</v>
+        <v>6196823.717917441</v>
       </c>
       <c r="E21" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F21" t="n">
-        <v>9.459647296954385e-06</v>
+        <v>8.589759987131595e-06</v>
       </c>
       <c r="G21" t="n">
         <v>153</v>
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6197247.048851128</v>
+        <v>6197252.279376373</v>
       </c>
       <c r="E22" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F22" t="n">
-        <v>9.353919858325805e-06</v>
+        <v>9.80469270212319e-06</v>
       </c>
       <c r="G22" t="n">
         <v>153</v>
@@ -1267,13 +1267,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>6197273.52326334</v>
+        <v>6197275.194405969</v>
       </c>
       <c r="E23" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F23" t="n">
-        <v>9.805386910567411e-06</v>
+        <v>9.977586658244617e-06</v>
       </c>
       <c r="G23" t="n">
         <v>153</v>
@@ -1304,13 +1304,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6196988.481750282</v>
+        <v>6196701.145734202</v>
       </c>
       <c r="E24" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F24" t="n">
-        <v>9.179854570319485e-06</v>
+        <v>8.452362386605476e-06</v>
       </c>
       <c r="G24" t="n">
         <v>153</v>
@@ -1341,13 +1341,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6197043.861659037</v>
+        <v>6197087.151238746</v>
       </c>
       <c r="E25" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F25" t="n">
-        <v>9.27132719378142e-06</v>
+        <v>7.907746564047223e-06</v>
       </c>
       <c r="G25" t="n">
         <v>153</v>
@@ -1452,13 +1452,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>30115.22377371474</v>
+        <v>30115.82629984464</v>
       </c>
       <c r="E28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F28" t="n">
-        <v>1.925490243777308e-06</v>
+        <v>6.235717821223405e-06</v>
       </c>
       <c r="G28" t="n">
         <v>1138</v>
@@ -1489,13 +1489,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>30115.22377371474</v>
+        <v>30115.82629984464</v>
       </c>
       <c r="E29" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F29" t="n">
-        <v>2.56338281221214e-07</v>
+        <v>4.568432828937074e-06</v>
       </c>
       <c r="G29" t="n">
         <v>1138</v>
@@ -1526,13 +1526,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>30116.3472916053</v>
+        <v>30116.84574637704</v>
       </c>
       <c r="E30" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F30" t="n">
-        <v>9.794499992387702e-06</v>
+        <v>3.722542771329062e-06</v>
       </c>
       <c r="G30" t="n">
         <v>1138</v>
@@ -1563,13 +1563,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>30116.59809379434</v>
+        <v>30116.84574637704</v>
       </c>
       <c r="E31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F31" t="n">
-        <v>4.482915195605495e-06</v>
+        <v>1.88199765928705e-06</v>
       </c>
       <c r="G31" t="n">
         <v>1138</v>
@@ -1600,13 +1600,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>30115.22377371474</v>
+        <v>30115.82629984464</v>
       </c>
       <c r="E32" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F32" t="n">
-        <v>1.927767282824333e-06</v>
+        <v>6.237970112990483e-06</v>
       </c>
       <c r="G32" t="n">
         <v>1138</v>
@@ -1637,13 +1637,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>30116.09139544879</v>
+        <v>30116.59809379434</v>
       </c>
       <c r="E33" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F33" t="n">
-        <v>9.508485658180309e-06</v>
+        <v>9.297946494327395e-06</v>
       </c>
       <c r="G33" t="n">
         <v>1138</v>
@@ -1748,13 +1748,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>5.50237898820335</v>
+        <v>5.50237842977301</v>
       </c>
       <c r="E36" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F36" t="n">
-        <v>5.29628837441874e-06</v>
+        <v>4.537647422795655e-06</v>
       </c>
       <c r="G36" t="n">
         <v>104</v>
@@ -1785,13 +1785,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>5.50237898820335</v>
+        <v>5.50237842977301</v>
       </c>
       <c r="E37" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F37" t="n">
-        <v>4.490951852592682e-06</v>
+        <v>3.948459207032526e-06</v>
       </c>
       <c r="G37" t="n">
         <v>104</v>
@@ -1822,13 +1822,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>5.502378554904305</v>
+        <v>5.502378393601306</v>
       </c>
       <c r="E38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F38" t="n">
-        <v>8.152491568470215e-06</v>
+        <v>4.939852649576385e-06</v>
       </c>
       <c r="G38" t="n">
         <v>104</v>
@@ -1859,13 +1859,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5.50237842977301</v>
+        <v>5.502378393601306</v>
       </c>
       <c r="E39" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F39" t="n">
-        <v>5.070415783306507e-06</v>
+        <v>9.325435285169179e-06</v>
       </c>
       <c r="G39" t="n">
         <v>104</v>
@@ -1896,13 +1896,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5.50237898820335</v>
+        <v>5.50237842977301</v>
       </c>
       <c r="E40" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F40" t="n">
-        <v>5.296187842243326e-06</v>
+        <v>4.537580337825588e-06</v>
       </c>
       <c r="G40" t="n">
         <v>104</v>
@@ -1933,13 +1933,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>5.50237898820335</v>
+        <v>5.50237842977301</v>
       </c>
       <c r="E41" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F41" t="n">
-        <v>4.434187605755834e-06</v>
+        <v>4.297466035979731e-06</v>
       </c>
       <c r="G41" t="n">
         <v>104</v>
@@ -2050,7 +2050,7 @@
         <v>100</v>
       </c>
       <c r="F44" t="n">
-        <v>9.534900799784791e-06</v>
+        <v>9.442812903452143e-06</v>
       </c>
       <c r="G44" t="n">
         <v>2048</v>
@@ -2087,7 +2087,7 @@
         <v>100</v>
       </c>
       <c r="F45" t="n">
-        <v>9.548581682772962e-06</v>
+        <v>9.473442546440359e-06</v>
       </c>
       <c r="G45" t="n">
         <v>2048</v>
@@ -2118,13 +2118,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.9784019525497368</v>
+        <v>0.9784024500572027</v>
       </c>
       <c r="E46" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F46" t="n">
-        <v>9.913606675004433e-06</v>
+        <v>9.933125952981939e-06</v>
       </c>
       <c r="G46" t="n">
         <v>2048</v>
@@ -2155,13 +2155,13 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.9783938075039613</v>
+        <v>0.9783943307160177</v>
       </c>
       <c r="E47" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F47" t="n">
-        <v>4.719077680919176e-06</v>
+        <v>4.951935946335164e-06</v>
       </c>
       <c r="G47" t="n">
         <v>2048</v>
@@ -2198,7 +2198,7 @@
         <v>100</v>
       </c>
       <c r="F48" t="n">
-        <v>9.53487315095048e-06</v>
+        <v>9.442748783800291e-06</v>
       </c>
       <c r="G48" t="n">
         <v>2048</v>
@@ -2235,7 +2235,7 @@
         <v>100</v>
       </c>
       <c r="F49" t="n">
-        <v>9.613568112840768e-06</v>
+        <v>9.619483567684416e-06</v>
       </c>
       <c r="G49" t="n">
         <v>2048</v>
@@ -2340,13 +2340,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2994315290.608232</v>
+        <v>3014181127.26153</v>
       </c>
       <c r="E52" t="n">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="F52" t="n">
-        <v>2.622602171234828e-06</v>
+        <v>9.79309653712606e-06</v>
       </c>
       <c r="G52" t="n">
         <v>48</v>
@@ -2383,7 +2383,7 @@
         <v>134</v>
       </c>
       <c r="F53" t="n">
-        <v>9.812847645515519e-06</v>
+        <v>9.803204468852192e-06</v>
       </c>
       <c r="G53" t="n">
         <v>48</v>
@@ -2414,13 +2414,13 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3006240323.348099</v>
+        <v>2996903287.477822</v>
       </c>
       <c r="E54" t="n">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F54" t="n">
-        <v>8.569674817641328e-06</v>
+        <v>9.712546938069412e-06</v>
       </c>
       <c r="G54" t="n">
         <v>48</v>
@@ -2451,13 +2451,13 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3008190186.862289</v>
+        <v>2996575918.088687</v>
       </c>
       <c r="E55" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="F55" t="n">
-        <v>3.261849259291997e-06</v>
+        <v>1.260975609200225e-06</v>
       </c>
       <c r="G55" t="n">
         <v>48</v>
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2994315290.608232</v>
+        <v>3014181127.26153</v>
       </c>
       <c r="E56" t="n">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="F56" t="n">
-        <v>2.160279201327338e-06</v>
+        <v>9.793008290352726e-06</v>
       </c>
       <c r="G56" t="n">
         <v>48</v>
@@ -2531,7 +2531,7 @@
         <v>134</v>
       </c>
       <c r="F57" t="n">
-        <v>9.821422248969074e-06</v>
+        <v>9.82176311655884e-06</v>
       </c>
       <c r="G57" t="n">
         <v>48</v>
@@ -2636,13 +2636,13 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>5.502378987798011</v>
+        <v>5.502378429367709</v>
       </c>
       <c r="E60" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F60" t="n">
-        <v>5.293103880985482e-06</v>
+        <v>4.535685627591864e-06</v>
       </c>
       <c r="G60" t="n">
         <v>400</v>
@@ -2673,13 +2673,13 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>5.502378987798011</v>
+        <v>5.502378429367709</v>
       </c>
       <c r="E61" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F61" t="n">
-        <v>4.488095056673856e-06</v>
+        <v>3.946675259901892e-06</v>
       </c>
       <c r="G61" t="n">
         <v>400</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>5.502378554499002</v>
+        <v>5.502378393196004</v>
       </c>
       <c r="E62" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F62" t="n">
-        <v>8.15203433818e-06</v>
+        <v>4.939626843504119e-06</v>
       </c>
       <c r="G62" t="n">
         <v>400</v>
@@ -2747,13 +2747,13 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>5.502378429367709</v>
+        <v>5.502378393196004</v>
       </c>
       <c r="E63" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F63" t="n">
-        <v>5.070382604500999e-06</v>
+        <v>9.324998838182909e-06</v>
       </c>
       <c r="G63" t="n">
         <v>400</v>
@@ -2784,13 +2784,13 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>5.502378987798011</v>
+        <v>5.502378429367709</v>
       </c>
       <c r="E64" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F64" t="n">
-        <v>5.293003543963724e-06</v>
+        <v>4.535618600086416e-06</v>
       </c>
       <c r="G64" t="n">
         <v>400</v>
@@ -2821,13 +2821,13 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>5.502378987798011</v>
+        <v>5.502378429367709</v>
       </c>
       <c r="E65" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F65" t="n">
-        <v>4.429785167556549e-06</v>
+        <v>4.294645853215869e-06</v>
       </c>
       <c r="G65" t="n">
         <v>400</v>
@@ -2938,7 +2938,7 @@
         <v>99</v>
       </c>
       <c r="F68" t="n">
-        <v>9.988750386068086e-06</v>
+        <v>9.884474166211285e-06</v>
       </c>
       <c r="G68" t="n">
         <v>1104</v>
@@ -2969,13 +2969,13 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>66.48767021742641</v>
+        <v>66.48704444965379</v>
       </c>
       <c r="E69" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F69" t="n">
-        <v>9.346159695116982e-06</v>
+        <v>9.918854071560975e-06</v>
       </c>
       <c r="G69" t="n">
         <v>1104</v>
@@ -3006,13 +3006,13 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>66.49514481158658</v>
+        <v>66.49523803003167</v>
       </c>
       <c r="E70" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F70" t="n">
-        <v>9.605478729894311e-06</v>
+        <v>9.73995231989243e-06</v>
       </c>
       <c r="G70" t="n">
         <v>1104</v>
@@ -3043,13 +3043,13 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>66.49633707380629</v>
+        <v>66.49635195782344</v>
       </c>
       <c r="E71" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F71" t="n">
-        <v>9.520211617842372e-06</v>
+        <v>9.555907980520358e-06</v>
       </c>
       <c r="G71" t="n">
         <v>1104</v>
@@ -3086,7 +3086,7 @@
         <v>99</v>
       </c>
       <c r="F72" t="n">
-        <v>9.988717755946685e-06</v>
+        <v>9.884397946766035e-06</v>
       </c>
       <c r="G72" t="n">
         <v>1104</v>
@@ -3123,7 +3123,7 @@
         <v>100</v>
       </c>
       <c r="F73" t="n">
-        <v>9.415049544200972e-06</v>
+        <v>9.421498877617703e-06</v>
       </c>
       <c r="G73" t="n">
         <v>1104</v>
@@ -3234,7 +3234,7 @@
         <v>113</v>
       </c>
       <c r="F76" t="n">
-        <v>9.930335380148205e-06</v>
+        <v>9.866501331696134e-06</v>
       </c>
       <c r="G76" t="n">
         <v>900</v>
@@ -3271,7 +3271,7 @@
         <v>113</v>
       </c>
       <c r="F77" t="n">
-        <v>9.940284357086973e-06</v>
+        <v>9.888440788467818e-06</v>
       </c>
       <c r="G77" t="n">
         <v>900</v>
@@ -3302,13 +3302,13 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>11.86546333643697</v>
+        <v>11.8655067711054</v>
       </c>
       <c r="E78" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F78" t="n">
-        <v>9.682034680970215e-06</v>
+        <v>9.867579021147395e-06</v>
       </c>
       <c r="G78" t="n">
         <v>900</v>
@@ -3339,13 +3339,13 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>11.86639590040766</v>
+        <v>11.86641022912457</v>
       </c>
       <c r="E79" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F79" t="n">
-        <v>9.89516154312461e-06</v>
+        <v>9.934707040757959e-06</v>
       </c>
       <c r="G79" t="n">
         <v>900</v>
@@ -3382,7 +3382,7 @@
         <v>113</v>
       </c>
       <c r="F80" t="n">
-        <v>9.930316495251763e-06</v>
+        <v>9.866453052932572e-06</v>
       </c>
       <c r="G80" t="n">
         <v>900</v>
@@ -3419,7 +3419,7 @@
         <v>113</v>
       </c>
       <c r="F81" t="n">
-        <v>9.985260077648267e-06</v>
+        <v>9.988910253664568e-06</v>
       </c>
       <c r="G81" t="n">
         <v>900</v>
@@ -3530,7 +3530,7 @@
         <v>233</v>
       </c>
       <c r="F84" t="n">
-        <v>2.824105675644686e-06</v>
+        <v>3.694284939701289e-06</v>
       </c>
       <c r="G84" t="n">
         <v>236</v>
@@ -3561,13 +3561,13 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>12.66532682460676</v>
+        <v>12.41717072759173</v>
       </c>
       <c r="E85" t="n">
-        <v>18</v>
+        <v>233</v>
       </c>
       <c r="F85" t="n">
-        <v>2.478619651939144e-06</v>
+        <v>3.801911212063193e-06</v>
       </c>
       <c r="G85" t="n">
         <v>236</v>
@@ -3598,13 +3598,13 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>12.6418765264093</v>
+        <v>12.64106696698688</v>
       </c>
       <c r="E86" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="n">
-        <v>4.586650702415309e-06</v>
+        <v>7.493446121688682e-06</v>
       </c>
       <c r="G86" t="n">
         <v>236</v>
@@ -3635,13 +3635,13 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>12.62555359591559</v>
+        <v>12.62428816363575</v>
       </c>
       <c r="E87" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F87" t="n">
-        <v>1.41120348474479e-06</v>
+        <v>1.951744167437994e-06</v>
       </c>
       <c r="G87" t="n">
         <v>236</v>
@@ -3678,7 +3678,7 @@
         <v>233</v>
       </c>
       <c r="F88" t="n">
-        <v>2.824525417175844e-06</v>
+        <v>3.695532577371725e-06</v>
       </c>
       <c r="G88" t="n">
         <v>236</v>
@@ -3709,13 +3709,13 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12.66827343643875</v>
+        <v>12.41717072759173</v>
       </c>
       <c r="E89" t="n">
-        <v>23</v>
+        <v>233</v>
       </c>
       <c r="F89" t="n">
-        <v>1.84032935707703e-06</v>
+        <v>2.038582890291824e-06</v>
       </c>
       <c r="G89" t="n">
         <v>236</v>
@@ -3820,13 +3820,13 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>4359405.598719366</v>
+        <v>4359361.068442534</v>
       </c>
       <c r="E92" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F92" t="n">
-        <v>8.79413004409953e-06</v>
+        <v>8.298738335341626e-06</v>
       </c>
       <c r="G92" t="n">
         <v>27</v>
@@ -3857,13 +3857,13 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>4359405.598719366</v>
+        <v>4359361.068442534</v>
       </c>
       <c r="E93" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F93" t="n">
-        <v>8.964208689398605e-06</v>
+        <v>8.891136115989496e-06</v>
       </c>
       <c r="G93" t="n">
         <v>27</v>
@@ -3894,13 +3894,13 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>4359561.119215791</v>
+        <v>4359562.620361849</v>
       </c>
       <c r="E94" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F94" t="n">
-        <v>8.488856338646265e-06</v>
+        <v>8.86631778368647e-06</v>
       </c>
       <c r="G94" t="n">
         <v>27</v>
@@ -3931,13 +3931,13 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>4359566.467604849</v>
+        <v>4359566.818912367</v>
       </c>
       <c r="E95" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F95" t="n">
-        <v>8.709701979145706e-06</v>
+        <v>8.961861022192112e-06</v>
       </c>
       <c r="G95" t="n">
         <v>27</v>
@@ -3968,13 +3968,13 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>4359405.598719366</v>
+        <v>4359361.068442534</v>
       </c>
       <c r="E96" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F96" t="n">
-        <v>8.793896381638517e-06</v>
+        <v>8.297234591078285e-06</v>
       </c>
       <c r="G96" t="n">
         <v>27</v>
@@ -4011,7 +4011,7 @@
         <v>45</v>
       </c>
       <c r="F97" t="n">
-        <v>8.182488403418075e-06</v>
+        <v>8.596519229678518e-06</v>
       </c>
       <c r="G97" t="n">
         <v>27</v>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10.40542259637459</v>
+        <v>10.40353710214386</v>
       </c>
       <c r="E4" t="n">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F4" t="n">
-        <v>9.966414100353802e-06</v>
+        <v>9.342798923266315e-06</v>
       </c>
       <c r="G4" t="n">
         <v>398</v>
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10.40552080389987</v>
+        <v>10.40295727705686</v>
       </c>
       <c r="E5" t="n">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F5" t="n">
-        <v>9.18576758256923e-06</v>
+        <v>9.218623557247631e-06</v>
       </c>
       <c r="G5" t="n">
         <v>398</v>
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10.40641177873929</v>
+        <v>10.41083696637312</v>
       </c>
       <c r="E6" t="n">
-        <v>108</v>
+        <v>10000</v>
       </c>
       <c r="F6" t="n">
-        <v>9.688249580832309e-06</v>
+        <v>3.443645486315649</v>
       </c>
       <c r="G6" t="n">
         <v>398</v>
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10.40656713280958</v>
+        <v>10.41083696637312</v>
       </c>
       <c r="E7" t="n">
-        <v>128</v>
+        <v>10000</v>
       </c>
       <c r="F7" t="n">
-        <v>9.943563206101052e-06</v>
+        <v>3.443455387633702</v>
       </c>
       <c r="G7" t="n">
         <v>398</v>
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10.40542259637459</v>
+        <v>10.40353710214386</v>
       </c>
       <c r="E8" t="n">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F8" t="n">
-        <v>9.966296286532588e-06</v>
+        <v>9.346855024441101e-06</v>
       </c>
       <c r="G8" t="n">
         <v>398</v>
@@ -749,13 +749,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10.40552080389987</v>
+        <v>10.34603941058515</v>
       </c>
       <c r="E9" t="n">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="F9" t="n">
-        <v>9.458844819972852e-06</v>
+        <v>9.954929419974046e-06</v>
       </c>
       <c r="G9" t="n">
         <v>398</v>
@@ -860,13 +860,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>199.9999988824129</v>
+        <v>199.9999955296518</v>
       </c>
       <c r="E12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" t="n">
-        <v>6.892830026989844e-06</v>
+        <v>9.212843238718603e-06</v>
       </c>
       <c r="G12" t="n">
         <v>48</v>
@@ -897,13 +897,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>199.9999988824129</v>
+        <v>199.9999955296518</v>
       </c>
       <c r="E13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>6.050958150742468e-06</v>
+        <v>8.120659239250246e-06</v>
       </c>
       <c r="G13" t="n">
         <v>48</v>
@@ -934,13 +934,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>199.9999999301508</v>
+        <v>200</v>
       </c>
       <c r="E14" t="n">
-        <v>16</v>
+        <v>10000</v>
       </c>
       <c r="F14" t="n">
-        <v>2.923672488600641e-06</v>
+        <v>36.74783310203046</v>
       </c>
       <c r="G14" t="n">
         <v>48</v>
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>199.9999999301508</v>
+        <v>200</v>
       </c>
       <c r="E15" t="n">
-        <v>16</v>
+        <v>10000</v>
       </c>
       <c r="F15" t="n">
-        <v>6.267726391692388e-06</v>
+        <v>36.74797006529491</v>
       </c>
       <c r="G15" t="n">
         <v>48</v>
@@ -1008,13 +1008,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>199.9999988824129</v>
+        <v>199.9999955296518</v>
       </c>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" t="n">
-        <v>6.892969222070267e-06</v>
+        <v>9.21299168555926e-06</v>
       </c>
       <c r="G16" t="n">
         <v>48</v>
@@ -1045,13 +1045,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>199.9999988824129</v>
+        <v>199.9999955296518</v>
       </c>
       <c r="E17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" t="n">
-        <v>6.986575503125125e-06</v>
+        <v>9.293305930451898e-06</v>
       </c>
       <c r="G17" t="n">
         <v>48</v>
@@ -1156,13 +1156,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6196701.145734202</v>
+        <v>6197121.325827673</v>
       </c>
       <c r="E20" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F20" t="n">
-        <v>8.463788513790961e-06</v>
+        <v>7.558275077303443e-06</v>
       </c>
       <c r="G20" t="n">
         <v>153</v>
@@ -1193,13 +1193,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6196823.717917441</v>
+        <v>6197087.151238746</v>
       </c>
       <c r="E21" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F21" t="n">
-        <v>8.589759987131595e-06</v>
+        <v>8.936521690750358e-06</v>
       </c>
       <c r="G21" t="n">
         <v>153</v>
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6197252.279376373</v>
+        <v>6197287.055740305</v>
       </c>
       <c r="E22" t="n">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="F22" t="n">
-        <v>9.80469270212319e-06</v>
+        <v>396254.5145425995</v>
       </c>
       <c r="G22" t="n">
         <v>153</v>
@@ -1267,13 +1267,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>6197275.194405969</v>
+        <v>6197287.055740305</v>
       </c>
       <c r="E23" t="n">
-        <v>58</v>
+        <v>10000</v>
       </c>
       <c r="F23" t="n">
-        <v>9.977586658244617e-06</v>
+        <v>396257.576511647</v>
       </c>
       <c r="G23" t="n">
         <v>153</v>
@@ -1304,13 +1304,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6196701.145734202</v>
+        <v>6197121.325827673</v>
       </c>
       <c r="E24" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F24" t="n">
-        <v>8.452362386605476e-06</v>
+        <v>7.558722902285141e-06</v>
       </c>
       <c r="G24" t="n">
         <v>153</v>
@@ -1341,13 +1341,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6197087.151238746</v>
+        <v>6196823.717917441</v>
       </c>
       <c r="E25" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F25" t="n">
-        <v>7.907746564047223e-06</v>
+        <v>8.929744223888457e-06</v>
       </c>
       <c r="G25" t="n">
         <v>153</v>
@@ -1452,13 +1452,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>30115.82629984464</v>
+        <v>30116.09139544879</v>
       </c>
       <c r="E28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F28" t="n">
-        <v>6.235717821223405e-06</v>
+        <v>6.485448959809388e-06</v>
       </c>
       <c r="G28" t="n">
         <v>1138</v>
@@ -1489,13 +1489,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>30115.82629984464</v>
+        <v>30116.09139544879</v>
       </c>
       <c r="E29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F29" t="n">
-        <v>4.568432828937074e-06</v>
+        <v>4.535381758166918e-06</v>
       </c>
       <c r="G29" t="n">
         <v>1138</v>
@@ -1526,13 +1526,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>30116.84574637704</v>
+        <v>30148.79442195321</v>
       </c>
       <c r="E30" t="n">
-        <v>26</v>
+        <v>10000</v>
       </c>
       <c r="F30" t="n">
-        <v>3.722542771329062e-06</v>
+        <v>2922.122559918642</v>
       </c>
       <c r="G30" t="n">
         <v>1138</v>
@@ -1563,13 +1563,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>30116.84574637704</v>
+        <v>30148.79442195321</v>
       </c>
       <c r="E31" t="n">
-        <v>26</v>
+        <v>10000</v>
       </c>
       <c r="F31" t="n">
-        <v>1.88199765928705e-06</v>
+        <v>2922.098861102356</v>
       </c>
       <c r="G31" t="n">
         <v>1138</v>
@@ -1600,13 +1600,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>30115.82629984464</v>
+        <v>30116.09139544879</v>
       </c>
       <c r="E32" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F32" t="n">
-        <v>6.237970112990483e-06</v>
+        <v>6.486092513709352e-06</v>
       </c>
       <c r="G32" t="n">
         <v>1138</v>
@@ -1637,13 +1637,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>30116.59809379434</v>
+        <v>30115.82629984464</v>
       </c>
       <c r="E33" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F33" t="n">
-        <v>9.297946494327395e-06</v>
+        <v>8.438909571862254e-06</v>
       </c>
       <c r="G33" t="n">
         <v>1138</v>
@@ -1748,13 +1748,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>5.50237842977301</v>
+        <v>5.502378554904305</v>
       </c>
       <c r="E36" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F36" t="n">
-        <v>4.537647422795655e-06</v>
+        <v>6.398499420325932e-06</v>
       </c>
       <c r="G36" t="n">
         <v>104</v>
@@ -1785,13 +1785,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>5.50237842977301</v>
+        <v>5.502378554904305</v>
       </c>
       <c r="E37" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F37" t="n">
-        <v>3.948459207032526e-06</v>
+        <v>5.59858695817911e-06</v>
       </c>
       <c r="G37" t="n">
         <v>104</v>
@@ -1822,13 +1822,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>5.502378393601306</v>
+        <v>5.502378378875402</v>
       </c>
       <c r="E38" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="F38" t="n">
-        <v>4.939852649576385e-06</v>
+        <v>2.226859943617717</v>
       </c>
       <c r="G38" t="n">
         <v>104</v>
@@ -1859,13 +1859,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5.502378393601306</v>
+        <v>5.502378378875402</v>
       </c>
       <c r="E39" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="F39" t="n">
-        <v>9.325435285169179e-06</v>
+        <v>2.226858474185677</v>
       </c>
       <c r="G39" t="n">
         <v>104</v>
@@ -1896,13 +1896,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5.50237842977301</v>
+        <v>5.502378554904305</v>
       </c>
       <c r="E40" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F40" t="n">
-        <v>4.537580337825588e-06</v>
+        <v>6.398426297731308e-06</v>
       </c>
       <c r="G40" t="n">
         <v>104</v>
@@ -1933,13 +1933,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>5.50237842977301</v>
+        <v>5.502378554904305</v>
       </c>
       <c r="E41" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F41" t="n">
-        <v>4.297466035979731e-06</v>
+        <v>5.996620976232606e-06</v>
       </c>
       <c r="G41" t="n">
         <v>104</v>
@@ -2044,13 +2044,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.9782280548675101</v>
+        <v>0.9778200667504259</v>
       </c>
       <c r="E44" t="n">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="F44" t="n">
-        <v>9.442812903452143e-06</v>
+        <v>9.659187332243112e-06</v>
       </c>
       <c r="G44" t="n">
         <v>2048</v>
@@ -2081,13 +2081,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.9782280548675101</v>
+        <v>0.9685609508207557</v>
       </c>
       <c r="E45" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="F45" t="n">
-        <v>9.473442546440359e-06</v>
+        <v>8.446313999518283e-06</v>
       </c>
       <c r="G45" t="n">
         <v>2048</v>
@@ -2118,13 +2118,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.9784024500572027</v>
+        <v>0.9788022785424534</v>
       </c>
       <c r="E46" t="n">
-        <v>197</v>
+        <v>10000</v>
       </c>
       <c r="F46" t="n">
-        <v>9.933125952981939e-06</v>
+        <v>46.68373274139766</v>
       </c>
       <c r="G46" t="n">
         <v>2048</v>
@@ -2155,13 +2155,13 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.9783943307160177</v>
+        <v>0.9788022785424534</v>
       </c>
       <c r="E47" t="n">
-        <v>181</v>
+        <v>10000</v>
       </c>
       <c r="F47" t="n">
-        <v>4.951935946335164e-06</v>
+        <v>46.68369484196209</v>
       </c>
       <c r="G47" t="n">
         <v>2048</v>
@@ -2192,13 +2192,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.9782280548675101</v>
+        <v>0.9778200667504259</v>
       </c>
       <c r="E48" t="n">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="F48" t="n">
-        <v>9.442748783800291e-06</v>
+        <v>9.666406084841957e-06</v>
       </c>
       <c r="G48" t="n">
         <v>2048</v>
@@ -2229,13 +2229,13 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.9782280548675101</v>
+        <v>0.9582634984076825</v>
       </c>
       <c r="E49" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="F49" t="n">
-        <v>9.619483567684416e-06</v>
+        <v>9.111084992032192e-06</v>
       </c>
       <c r="G49" t="n">
         <v>2048</v>
@@ -2340,13 +2340,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>3014181127.26153</v>
+        <v>2996903287.477822</v>
       </c>
       <c r="E52" t="n">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="F52" t="n">
-        <v>9.79309653712606e-06</v>
+        <v>9.879920810874217e-06</v>
       </c>
       <c r="G52" t="n">
         <v>48</v>
@@ -2377,13 +2377,13 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>3014181127.26153</v>
+        <v>2996244213.466879</v>
       </c>
       <c r="E53" t="n">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="F53" t="n">
-        <v>9.803204468852192e-06</v>
+        <v>3.027903214592014e-06</v>
       </c>
       <c r="G53" t="n">
         <v>48</v>
@@ -2414,13 +2414,13 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2996903287.477822</v>
+        <v>3015179089.897686</v>
       </c>
       <c r="E54" t="n">
-        <v>20</v>
+        <v>10000</v>
       </c>
       <c r="F54" t="n">
-        <v>9.712546938069412e-06</v>
+        <v>138140350.1100419</v>
       </c>
       <c r="G54" t="n">
         <v>48</v>
@@ -2451,13 +2451,13 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2996575918.088687</v>
+        <v>3015179089.897686</v>
       </c>
       <c r="E55" t="n">
-        <v>19</v>
+        <v>10000</v>
       </c>
       <c r="F55" t="n">
-        <v>1.260975609200225e-06</v>
+        <v>138142523.8705322</v>
       </c>
       <c r="G55" t="n">
         <v>48</v>
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3014181127.26153</v>
+        <v>2996903287.477822</v>
       </c>
       <c r="E56" t="n">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="F56" t="n">
-        <v>9.793008290352726e-06</v>
+        <v>9.927615749139931e-06</v>
       </c>
       <c r="G56" t="n">
         <v>48</v>
@@ -2525,13 +2525,13 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3014181127.26153</v>
+        <v>2996575918.088687</v>
       </c>
       <c r="E57" t="n">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="F57" t="n">
-        <v>9.82176311655884e-06</v>
+        <v>7.971580623049999e-06</v>
       </c>
       <c r="G57" t="n">
         <v>48</v>
@@ -2636,13 +2636,13 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>5.502378429367709</v>
+        <v>5.502378554499002</v>
       </c>
       <c r="E60" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F60" t="n">
-        <v>4.535685627591864e-06</v>
+        <v>6.396470867907771e-06</v>
       </c>
       <c r="G60" t="n">
         <v>400</v>
@@ -2673,13 +2673,13 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>5.502378429367709</v>
+        <v>5.502378554499002</v>
       </c>
       <c r="E61" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F61" t="n">
-        <v>3.946675259901892e-06</v>
+        <v>5.596741800123158e-06</v>
       </c>
       <c r="G61" t="n">
         <v>400</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>5.502378393196004</v>
+        <v>5.502378378470111</v>
       </c>
       <c r="E62" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="F62" t="n">
-        <v>4.939626843504119e-06</v>
+        <v>2.226859943380034</v>
       </c>
       <c r="G62" t="n">
         <v>400</v>
@@ -2747,13 +2747,13 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>5.502378393196004</v>
+        <v>5.502378378470111</v>
       </c>
       <c r="E63" t="n">
-        <v>15</v>
+        <v>10000</v>
       </c>
       <c r="F63" t="n">
-        <v>9.324998838182909e-06</v>
+        <v>2.226858600723519</v>
       </c>
       <c r="G63" t="n">
         <v>400</v>
@@ -2784,13 +2784,13 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>5.502378429367709</v>
+        <v>5.502378554499002</v>
       </c>
       <c r="E64" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F64" t="n">
-        <v>4.535618600086416e-06</v>
+        <v>6.396397799388885e-06</v>
       </c>
       <c r="G64" t="n">
         <v>400</v>
@@ -2821,13 +2821,13 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>5.502378429367709</v>
+        <v>5.502378554499002</v>
       </c>
       <c r="E65" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F65" t="n">
-        <v>4.294645853215869e-06</v>
+        <v>5.993704943003528e-06</v>
       </c>
       <c r="G65" t="n">
         <v>400</v>
@@ -2932,13 +2932,13 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>66.48704444965379</v>
+        <v>66.46192362411153</v>
       </c>
       <c r="E68" t="n">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F68" t="n">
-        <v>9.884474166211285e-06</v>
+        <v>9.773860159891637e-06</v>
       </c>
       <c r="G68" t="n">
         <v>1104</v>
@@ -2969,13 +2969,13 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>66.48704444965379</v>
+        <v>66.4540937146667</v>
       </c>
       <c r="E69" t="n">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="F69" t="n">
-        <v>9.918854071560975e-06</v>
+        <v>9.530903348866505e-06</v>
       </c>
       <c r="G69" t="n">
         <v>1104</v>
@@ -3006,13 +3006,13 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>66.49523803003167</v>
+        <v>66.49656408021283</v>
       </c>
       <c r="E70" t="n">
-        <v>128</v>
+        <v>10000</v>
       </c>
       <c r="F70" t="n">
-        <v>9.73995231989243e-06</v>
+        <v>14.84326429344963</v>
       </c>
       <c r="G70" t="n">
         <v>1104</v>
@@ -3043,13 +3043,13 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>66.49635195782344</v>
+        <v>66.49656408021283</v>
       </c>
       <c r="E71" t="n">
-        <v>155</v>
+        <v>10000</v>
       </c>
       <c r="F71" t="n">
-        <v>9.555907980520358e-06</v>
+        <v>14.84325947790704</v>
       </c>
       <c r="G71" t="n">
         <v>1104</v>
@@ -3080,13 +3080,13 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>66.48704444965379</v>
+        <v>66.46192362411153</v>
       </c>
       <c r="E72" t="n">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F72" t="n">
-        <v>9.884397946766035e-06</v>
+        <v>9.780754143655196e-06</v>
       </c>
       <c r="G72" t="n">
         <v>1104</v>
@@ -3117,13 +3117,13 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>66.48767021742641</v>
+        <v>65.83631507797743</v>
       </c>
       <c r="E73" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="F73" t="n">
-        <v>9.421498877617703e-06</v>
+        <v>9.62667128097237e-06</v>
       </c>
       <c r="G73" t="n">
         <v>1104</v>
@@ -3228,13 +3228,13 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>11.86393030934931</v>
+        <v>11.85645615888795</v>
       </c>
       <c r="E76" t="n">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="F76" t="n">
-        <v>9.866501331696134e-06</v>
+        <v>9.81770735511485e-06</v>
       </c>
       <c r="G76" t="n">
         <v>900</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>11.86393030934931</v>
+        <v>11.85343165531611</v>
       </c>
       <c r="E77" t="n">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="F77" t="n">
-        <v>9.888440788467818e-06</v>
+        <v>9.892118321232777e-06</v>
       </c>
       <c r="G77" t="n">
         <v>900</v>
@@ -3302,13 +3302,13 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>11.8655067711054</v>
+        <v>11.92869592386268</v>
       </c>
       <c r="E78" t="n">
-        <v>135</v>
+        <v>10000</v>
       </c>
       <c r="F78" t="n">
-        <v>9.867579021147395e-06</v>
+        <v>3.812001471659486</v>
       </c>
       <c r="G78" t="n">
         <v>900</v>
@@ -3339,13 +3339,13 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>11.86641022912457</v>
+        <v>11.92869592386268</v>
       </c>
       <c r="E79" t="n">
-        <v>172</v>
+        <v>10000</v>
       </c>
       <c r="F79" t="n">
-        <v>9.934707040757959e-06</v>
+        <v>3.811999373987348</v>
       </c>
       <c r="G79" t="n">
         <v>900</v>
@@ -3376,13 +3376,13 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>11.86393030934931</v>
+        <v>11.85645615888795</v>
       </c>
       <c r="E80" t="n">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="F80" t="n">
-        <v>9.866453052932572e-06</v>
+        <v>9.827635608958418e-06</v>
       </c>
       <c r="G80" t="n">
         <v>900</v>
@@ -3413,13 +3413,13 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>11.86393030934931</v>
+        <v>11.73701787012534</v>
       </c>
       <c r="E81" t="n">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="F81" t="n">
-        <v>9.988910253664568e-06</v>
+        <v>9.146802698081266e-06</v>
       </c>
       <c r="G81" t="n">
         <v>900</v>
@@ -3524,13 +3524,13 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>12.41717072759173</v>
+        <v>12.6570291860012</v>
       </c>
       <c r="E84" t="n">
-        <v>233</v>
+        <v>31</v>
       </c>
       <c r="F84" t="n">
-        <v>3.694284939701289e-06</v>
+        <v>8.31017484882125e-06</v>
       </c>
       <c r="G84" t="n">
         <v>236</v>
@@ -3561,13 +3561,13 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>12.41717072759173</v>
+        <v>12.65532767052682</v>
       </c>
       <c r="E85" t="n">
-        <v>233</v>
+        <v>32</v>
       </c>
       <c r="F85" t="n">
-        <v>3.801911212063193e-06</v>
+        <v>9.034096133071129e-06</v>
       </c>
       <c r="G85" t="n">
         <v>236</v>
@@ -3598,13 +3598,13 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>12.64106696698688</v>
+        <v>12.60586029956506</v>
       </c>
       <c r="E86" t="n">
-        <v>45</v>
+        <v>10000</v>
       </c>
       <c r="F86" t="n">
-        <v>7.493446121688682e-06</v>
+        <v>3.974370821635439</v>
       </c>
       <c r="G86" t="n">
         <v>236</v>
@@ -3635,13 +3635,13 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>12.62428816363575</v>
+        <v>12.60586029956506</v>
       </c>
       <c r="E87" t="n">
-        <v>363</v>
+        <v>10000</v>
       </c>
       <c r="F87" t="n">
-        <v>1.951744167437994e-06</v>
+        <v>3.974379071237198</v>
       </c>
       <c r="G87" t="n">
         <v>236</v>
@@ -3672,13 +3672,13 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>12.41717072759173</v>
+        <v>12.6570291860012</v>
       </c>
       <c r="E88" t="n">
-        <v>233</v>
+        <v>31</v>
       </c>
       <c r="F88" t="n">
-        <v>3.695532577371725e-06</v>
+        <v>8.374639274010006e-06</v>
       </c>
       <c r="G88" t="n">
         <v>236</v>
@@ -3709,13 +3709,13 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12.41717072759173</v>
+        <v>12.66575276375507</v>
       </c>
       <c r="E89" t="n">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="F89" t="n">
-        <v>2.038582890291824e-06</v>
+        <v>7.538010665951079e-06</v>
       </c>
       <c r="G89" t="n">
         <v>236</v>
@@ -3820,13 +3820,13 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>4359361.068442534</v>
+        <v>4359467.98054079</v>
       </c>
       <c r="E92" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F92" t="n">
-        <v>8.298738335341626e-06</v>
+        <v>8.309118035027652e-06</v>
       </c>
       <c r="G92" t="n">
         <v>27</v>
@@ -3857,13 +3857,13 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>4359361.068442534</v>
+        <v>4359440.548861713</v>
       </c>
       <c r="E93" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F93" t="n">
-        <v>8.891136115989496e-06</v>
+        <v>9.450585808070602e-06</v>
       </c>
       <c r="G93" t="n">
         <v>27</v>
@@ -3894,13 +3894,13 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>4359562.620361849</v>
+        <v>4359568.101784363</v>
       </c>
       <c r="E94" t="n">
-        <v>58</v>
+        <v>10000</v>
       </c>
       <c r="F94" t="n">
-        <v>8.86631778368647e-06</v>
+        <v>285163.946314836</v>
       </c>
       <c r="G94" t="n">
         <v>27</v>
@@ -3931,13 +3931,13 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>4359566.818912367</v>
+        <v>4359568.101784363</v>
       </c>
       <c r="E95" t="n">
-        <v>64</v>
+        <v>10000</v>
       </c>
       <c r="F95" t="n">
-        <v>8.961861022192112e-06</v>
+        <v>285163.8100686715</v>
       </c>
       <c r="G95" t="n">
         <v>27</v>
@@ -3968,13 +3968,13 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>4359361.068442534</v>
+        <v>4359467.98054079</v>
       </c>
       <c r="E96" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F96" t="n">
-        <v>8.297234591078285e-06</v>
+        <v>8.309684930382372e-06</v>
       </c>
       <c r="G96" t="n">
         <v>27</v>
@@ -4005,13 +4005,13 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>4359440.548861713</v>
+        <v>4359022.544585026</v>
       </c>
       <c r="E97" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F97" t="n">
-        <v>8.596519229678518e-06</v>
+        <v>9.034417681731687e-06</v>
       </c>
       <c r="G97" t="n">
         <v>27</v>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -490,13 +490,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10.40552080389987</v>
+        <v>10.41083696637312</v>
       </c>
       <c r="E2" t="n">
-        <v>88</v>
+        <v>10000</v>
       </c>
       <c r="F2" t="n">
-        <v>9.438021135481325e-06</v>
+        <v>9.025885347604574e-10</v>
       </c>
       <c r="G2" t="n">
         <v>398</v>
@@ -527,13 +527,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10.26974106120281</v>
+        <v>10.41064597649401</v>
       </c>
       <c r="E3" t="n">
-        <v>31</v>
+        <v>6652</v>
       </c>
       <c r="F3" t="n">
-        <v>6.252801378209473e-06</v>
+        <v>7.061195356961412e-11</v>
       </c>
       <c r="G3" t="n">
         <v>398</v>
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10.40353710214386</v>
+        <v>10.40660457794342</v>
       </c>
       <c r="E4" t="n">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="F4" t="n">
-        <v>9.342798923266315e-06</v>
+        <v>6.732421208540055e-11</v>
       </c>
       <c r="G4" t="n">
         <v>398</v>
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10.40295727705686</v>
+        <v>10.40660333716813</v>
       </c>
       <c r="E5" t="n">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="F5" t="n">
-        <v>9.218623557247631e-06</v>
+        <v>6.938399862840957e-11</v>
       </c>
       <c r="G5" t="n">
         <v>398</v>
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10.40353710214386</v>
+        <v>10.40660457794342</v>
       </c>
       <c r="E8" t="n">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="F8" t="n">
-        <v>9.346855024441101e-06</v>
+        <v>6.782656788632418e-11</v>
       </c>
       <c r="G8" t="n">
         <v>398</v>
@@ -749,13 +749,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10.34603941058515</v>
+        <v>10.40660291773662</v>
       </c>
       <c r="E9" t="n">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="F9" t="n">
-        <v>9.954929419974046e-06</v>
+        <v>7.387721035772134e-11</v>
       </c>
       <c r="G9" t="n">
         <v>398</v>
@@ -786,13 +786,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>199.9997138985918</v>
+        <v>199.9999999956344</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F10" t="n">
-        <v>4.291474057006672e-06</v>
+        <v>6.548376063762736e-11</v>
       </c>
       <c r="G10" t="n">
         <v>48</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>199.9816930845243</v>
+        <v>199.9999284744817</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F11" t="n">
-        <v>4.353826715540065e-06</v>
+        <v>6.650680006685051e-11</v>
       </c>
       <c r="G11" t="n">
         <v>48</v>
@@ -860,13 +860,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>199.9999955296518</v>
+        <v>199.9999999999829</v>
       </c>
       <c r="E12" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F12" t="n">
-        <v>9.212843238718603e-06</v>
+        <v>3.517286017872089e-11</v>
       </c>
       <c r="G12" t="n">
         <v>48</v>
@@ -897,13 +897,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>199.9999955296518</v>
+        <v>199.9999999999829</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F13" t="n">
-        <v>8.120659239250246e-06</v>
+        <v>3.283560090387037e-11</v>
       </c>
       <c r="G13" t="n">
         <v>48</v>
@@ -1008,13 +1008,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>199.9999955296518</v>
+        <v>199.9999999999829</v>
       </c>
       <c r="E16" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F16" t="n">
-        <v>9.21299168555926e-06</v>
+        <v>3.502933054610741e-11</v>
       </c>
       <c r="G16" t="n">
         <v>48</v>
@@ -1045,13 +1045,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>199.9999955296518</v>
+        <v>199.9999999999829</v>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F17" t="n">
-        <v>9.293305930451898e-06</v>
+        <v>3.550752580976184e-11</v>
       </c>
       <c r="G17" t="n">
         <v>48</v>
@@ -1082,13 +1082,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6197043.861659037</v>
+        <v>6197287.051397814</v>
       </c>
       <c r="E18" t="n">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="F18" t="n">
-        <v>8.936504241502064e-06</v>
+        <v>9.691242166203807e-11</v>
       </c>
       <c r="G18" t="n">
         <v>153</v>
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6193373.021736953</v>
+        <v>6197285.757615398</v>
       </c>
       <c r="E19" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="F19" t="n">
-        <v>9.506735145473922e-06</v>
+        <v>9.54792100668907e-11</v>
       </c>
       <c r="G19" t="n">
         <v>153</v>
@@ -1156,13 +1156,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6197121.325827673</v>
+        <v>6197287.048449507</v>
       </c>
       <c r="E20" t="n">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="F20" t="n">
-        <v>7.558275077303443e-06</v>
+        <v>9.402571091828995e-11</v>
       </c>
       <c r="G20" t="n">
         <v>153</v>
@@ -1193,13 +1193,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6197087.151238746</v>
+        <v>6197287.047441144</v>
       </c>
       <c r="E21" t="n">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="F21" t="n">
-        <v>8.936521690750358e-06</v>
+        <v>6.832363075419507e-11</v>
       </c>
       <c r="G21" t="n">
         <v>153</v>
@@ -1304,13 +1304,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6197121.325827673</v>
+        <v>6197287.048449507</v>
       </c>
       <c r="E24" t="n">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="F24" t="n">
-        <v>7.558722902285141e-06</v>
+        <v>9.378466327958547e-11</v>
       </c>
       <c r="G24" t="n">
         <v>153</v>
@@ -1341,13 +1341,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6196823.717917441</v>
+        <v>6197286.989795357</v>
       </c>
       <c r="E25" t="n">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="F25" t="n">
-        <v>8.929744223888457e-06</v>
+        <v>8.360761474517046e-11</v>
       </c>
       <c r="G25" t="n">
         <v>153</v>
@@ -1378,13 +1378,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>30115.82629984464</v>
+        <v>30148.79411856191</v>
       </c>
       <c r="E26" t="n">
-        <v>22</v>
+        <v>1231</v>
       </c>
       <c r="F26" t="n">
-        <v>9.397377028680276e-06</v>
+        <v>9.906775418343501e-11</v>
       </c>
       <c r="G26" t="n">
         <v>1138</v>
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>30101.60734657212</v>
+        <v>30148.6402523005</v>
       </c>
       <c r="E27" t="n">
-        <v>14</v>
+        <v>595</v>
       </c>
       <c r="F27" t="n">
-        <v>4.186377565356223e-06</v>
+        <v>9.654664719054071e-11</v>
       </c>
       <c r="G27" t="n">
         <v>1138</v>
@@ -1452,13 +1452,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>30116.09139544879</v>
+        <v>30148.78281109525</v>
       </c>
       <c r="E28" t="n">
-        <v>23</v>
+        <v>859</v>
       </c>
       <c r="F28" t="n">
-        <v>6.485448959809388e-06</v>
+        <v>9.609852570279945e-11</v>
       </c>
       <c r="G28" t="n">
         <v>1138</v>
@@ -1489,13 +1489,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>30116.09139544879</v>
+        <v>30135.17405261119</v>
       </c>
       <c r="E29" t="n">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="F29" t="n">
-        <v>4.535381758166918e-06</v>
+        <v>9.695341624095958e-11</v>
       </c>
       <c r="G29" t="n">
         <v>1138</v>
@@ -1600,13 +1600,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>30116.09139544879</v>
+        <v>30148.75084112083</v>
       </c>
       <c r="E32" t="n">
-        <v>23</v>
+        <v>724</v>
       </c>
       <c r="F32" t="n">
-        <v>6.486092513709352e-06</v>
+        <v>6.670350626795326e-11</v>
       </c>
       <c r="G32" t="n">
         <v>1138</v>
@@ -1637,13 +1637,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>30115.82629984464</v>
+        <v>30146.64990782431</v>
       </c>
       <c r="E33" t="n">
-        <v>22</v>
+        <v>325</v>
       </c>
       <c r="F33" t="n">
-        <v>8.438909571862254e-06</v>
+        <v>8.378623029590728e-11</v>
       </c>
       <c r="G33" t="n">
         <v>1138</v>
@@ -1674,13 +1674,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>5.502385709511155</v>
+        <v>5.502378378978929</v>
       </c>
       <c r="E34" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F34" t="n">
-        <v>3.301034735295559e-06</v>
+        <v>4.614223178292824e-11</v>
       </c>
       <c r="G34" t="n">
         <v>104</v>
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>5.502403873077509</v>
+        <v>5.50237842977301</v>
       </c>
       <c r="E35" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F35" t="n">
-        <v>1.655823763081636e-06</v>
+        <v>6.065363656690676e-11</v>
       </c>
       <c r="G35" t="n">
         <v>104</v>
@@ -1748,13 +1748,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>5.502378554904305</v>
+        <v>5.502378378877919</v>
       </c>
       <c r="E36" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F36" t="n">
-        <v>6.398499420325932e-06</v>
+        <v>8.892165939451615e-11</v>
       </c>
       <c r="G36" t="n">
         <v>104</v>
@@ -1785,13 +1785,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>5.502378554904305</v>
+        <v>5.502378378877919</v>
       </c>
       <c r="E37" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F37" t="n">
-        <v>5.59858695817911e-06</v>
+        <v>8.274454662063049e-11</v>
       </c>
       <c r="G37" t="n">
         <v>104</v>
@@ -1896,13 +1896,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5.502378554904305</v>
+        <v>5.502378378877919</v>
       </c>
       <c r="E40" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F40" t="n">
-        <v>6.398426297731308e-06</v>
+        <v>8.891972238831549e-11</v>
       </c>
       <c r="G40" t="n">
         <v>104</v>
@@ -1933,13 +1933,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>5.502378554904305</v>
+        <v>5.502378378877919</v>
       </c>
       <c r="E41" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F41" t="n">
-        <v>5.996620976232606e-06</v>
+        <v>8.328448708518714e-11</v>
       </c>
       <c r="G41" t="n">
         <v>104</v>
@@ -1970,13 +1970,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.9782280548675101</v>
+        <v>0.9788022306513534</v>
       </c>
       <c r="E42" t="n">
-        <v>100</v>
+        <v>4875</v>
       </c>
       <c r="F42" t="n">
-        <v>9.610528240921566e-06</v>
+        <v>9.991530743457809e-11</v>
       </c>
       <c r="G42" t="n">
         <v>2048</v>
@@ -2007,13 +2007,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.9769137067289084</v>
+        <v>0.9787919201260611</v>
       </c>
       <c r="E43" t="n">
-        <v>64</v>
+        <v>2234</v>
       </c>
       <c r="F43" t="n">
-        <v>9.407687553626166e-06</v>
+        <v>9.630889006611835e-11</v>
       </c>
       <c r="G43" t="n">
         <v>2048</v>
@@ -2044,13 +2044,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.9778200667504259</v>
+        <v>0.9787705852933443</v>
       </c>
       <c r="E44" t="n">
-        <v>79</v>
+        <v>1675</v>
       </c>
       <c r="F44" t="n">
-        <v>9.659187332243112e-06</v>
+        <v>7.899018222984142e-11</v>
       </c>
       <c r="G44" t="n">
         <v>2048</v>
@@ -2081,13 +2081,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.9685609508207557</v>
+        <v>0.9785554077148678</v>
       </c>
       <c r="E45" t="n">
-        <v>32</v>
+        <v>545</v>
       </c>
       <c r="F45" t="n">
-        <v>8.446313999518283e-06</v>
+        <v>6.763274964508732e-11</v>
       </c>
       <c r="G45" t="n">
         <v>2048</v>
@@ -2192,13 +2192,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.9778200667504259</v>
+        <v>0.9787950509179197</v>
       </c>
       <c r="E48" t="n">
-        <v>79</v>
+        <v>2412</v>
       </c>
       <c r="F48" t="n">
-        <v>9.666406084841957e-06</v>
+        <v>9.53195032114241e-11</v>
       </c>
       <c r="G48" t="n">
         <v>2048</v>
@@ -2229,13 +2229,13 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.9582634984076825</v>
+        <v>0.9784064008082318</v>
       </c>
       <c r="E49" t="n">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="F49" t="n">
-        <v>9.111084992032192e-06</v>
+        <v>8.052059947469192e-11</v>
       </c>
       <c r="G49" t="n">
         <v>2048</v>
@@ -2266,13 +2266,13 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3014181127.26153</v>
+        <v>3015179080.010438</v>
       </c>
       <c r="E50" t="n">
-        <v>134</v>
+        <v>520</v>
       </c>
       <c r="F50" t="n">
-        <v>9.821227875599703e-06</v>
+        <v>9.95572108325373e-11</v>
       </c>
       <c r="G50" t="n">
         <v>48</v>
@@ -2303,13 +2303,13 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>3011156754.072117</v>
+        <v>3015164921.695023</v>
       </c>
       <c r="E51" t="n">
-        <v>85</v>
+        <v>277</v>
       </c>
       <c r="F51" t="n">
-        <v>9.676802385755104e-06</v>
+        <v>9.801165388238914e-11</v>
       </c>
       <c r="G51" t="n">
         <v>48</v>
@@ -2340,13 +2340,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2996903287.477822</v>
+        <v>3015178990.986972</v>
       </c>
       <c r="E52" t="n">
-        <v>20</v>
+        <v>443</v>
       </c>
       <c r="F52" t="n">
-        <v>9.879920810874217e-06</v>
+        <v>9.596636076646659e-11</v>
       </c>
       <c r="G52" t="n">
         <v>48</v>
@@ -2377,13 +2377,13 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2996244213.466879</v>
+        <v>3015178621.431344</v>
       </c>
       <c r="E53" t="n">
-        <v>18</v>
+        <v>391</v>
       </c>
       <c r="F53" t="n">
-        <v>3.027903214592014e-06</v>
+        <v>9.6114871223921e-11</v>
       </c>
       <c r="G53" t="n">
         <v>48</v>
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2996903287.477822</v>
+        <v>3015178893.111733</v>
       </c>
       <c r="E56" t="n">
-        <v>20</v>
+        <v>420</v>
       </c>
       <c r="F56" t="n">
-        <v>9.927615749139931e-06</v>
+        <v>8.65302926825525e-11</v>
       </c>
       <c r="G56" t="n">
         <v>48</v>
@@ -2525,13 +2525,13 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2996575918.088687</v>
+        <v>3006240323.348099</v>
       </c>
       <c r="E57" t="n">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F57" t="n">
-        <v>7.971580623049999e-06</v>
+        <v>1.143794261840101e-11</v>
       </c>
       <c r="G57" t="n">
         <v>48</v>
@@ -2562,13 +2562,13 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>5.502385709075823</v>
+        <v>5.502378378573628</v>
       </c>
       <c r="E58" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F58" t="n">
-        <v>3.300874632199692e-06</v>
+        <v>4.614239320351041e-11</v>
       </c>
       <c r="G58" t="n">
         <v>400</v>
@@ -2599,13 +2599,13 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>5.502403871761227</v>
+        <v>5.502378429367709</v>
       </c>
       <c r="E59" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F59" t="n">
-        <v>2.432831504630166e-06</v>
+        <v>6.063232950316975e-11</v>
       </c>
       <c r="G59" t="n">
         <v>400</v>
@@ -2636,13 +2636,13 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>5.502378554499002</v>
+        <v>5.502378378472619</v>
       </c>
       <c r="E60" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F60" t="n">
-        <v>6.396470867907771e-06</v>
+        <v>8.88863090379013e-11</v>
       </c>
       <c r="G60" t="n">
         <v>400</v>
@@ -2673,13 +2673,13 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>5.502378554499002</v>
+        <v>5.502378378472619</v>
       </c>
       <c r="E61" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F61" t="n">
-        <v>5.596741800123158e-06</v>
+        <v>8.274131828305741e-11</v>
       </c>
       <c r="G61" t="n">
         <v>400</v>
@@ -2784,13 +2784,13 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>5.502378554499002</v>
+        <v>5.502378378472619</v>
       </c>
       <c r="E64" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F64" t="n">
-        <v>6.396397799388885e-06</v>
+        <v>8.895684834704741e-11</v>
       </c>
       <c r="G64" t="n">
         <v>400</v>
@@ -2821,13 +2821,13 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>5.502378554499002</v>
+        <v>5.502378378472619</v>
       </c>
       <c r="E65" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F65" t="n">
-        <v>5.993704943003528e-06</v>
+        <v>8.249531848194686e-11</v>
       </c>
       <c r="G65" t="n">
         <v>400</v>
@@ -2858,13 +2858,13 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>66.48767021742641</v>
+        <v>66.49656397787049</v>
       </c>
       <c r="E66" t="n">
-        <v>100</v>
+        <v>271</v>
       </c>
       <c r="F66" t="n">
-        <v>9.411786735373271e-06</v>
+        <v>9.581047272545482e-11</v>
       </c>
       <c r="G66" t="n">
         <v>1104</v>
@@ -2895,13 +2895,13 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>65.95354907787359</v>
+        <v>66.49648730538858</v>
       </c>
       <c r="E67" t="n">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="F67" t="n">
-        <v>6.35985957088322e-06</v>
+        <v>9.989956374508951e-11</v>
       </c>
       <c r="G67" t="n">
         <v>1104</v>
@@ -2932,13 +2932,13 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>66.46192362411153</v>
+        <v>66.49656370279384</v>
       </c>
       <c r="E68" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="F68" t="n">
-        <v>9.773860159891637e-06</v>
+        <v>9.681297783983837e-11</v>
       </c>
       <c r="G68" t="n">
         <v>1104</v>
@@ -2969,13 +2969,13 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>66.4540937146667</v>
+        <v>66.49656326260559</v>
       </c>
       <c r="E69" t="n">
-        <v>77</v>
+        <v>238</v>
       </c>
       <c r="F69" t="n">
-        <v>9.530903348866505e-06</v>
+        <v>9.477078382019032e-11</v>
       </c>
       <c r="G69" t="n">
         <v>1104</v>
@@ -3080,13 +3080,13 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>66.46192362411153</v>
+        <v>66.49656367793219</v>
       </c>
       <c r="E72" t="n">
-        <v>80</v>
+        <v>249</v>
       </c>
       <c r="F72" t="n">
-        <v>9.780754143655196e-06</v>
+        <v>9.422369045765888e-11</v>
       </c>
       <c r="G72" t="n">
         <v>1104</v>
@@ -3117,13 +3117,13 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>65.83631507797743</v>
+        <v>66.49655852666243</v>
       </c>
       <c r="E73" t="n">
-        <v>36</v>
+        <v>209</v>
       </c>
       <c r="F73" t="n">
-        <v>9.62667128097237e-06</v>
+        <v>8.822362850942354e-11</v>
       </c>
       <c r="G73" t="n">
         <v>1104</v>
@@ -3154,13 +3154,13 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>11.86393030934931</v>
+        <v>11.86733830706314</v>
       </c>
       <c r="E74" t="n">
-        <v>113</v>
+        <v>870</v>
       </c>
       <c r="F74" t="n">
-        <v>9.983343197157405e-06</v>
+        <v>9.887665439129894e-11</v>
       </c>
       <c r="G74" t="n">
         <v>900</v>
@@ -3191,13 +3191,13 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>11.79747645891352</v>
+        <v>11.86722648600631</v>
       </c>
       <c r="E75" t="n">
-        <v>49</v>
+        <v>329</v>
       </c>
       <c r="F75" t="n">
-        <v>7.54235882018588e-06</v>
+        <v>9.935833806553928e-11</v>
       </c>
       <c r="G75" t="n">
         <v>900</v>
@@ -3228,13 +3228,13 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>11.85645615888795</v>
+        <v>11.86733623746636</v>
       </c>
       <c r="E76" t="n">
-        <v>85</v>
+        <v>628</v>
       </c>
       <c r="F76" t="n">
-        <v>9.81770735511485e-06</v>
+        <v>7.899347461762838e-11</v>
       </c>
       <c r="G76" t="n">
         <v>900</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>11.85343165531611</v>
+        <v>11.86732786565626</v>
       </c>
       <c r="E77" t="n">
-        <v>80</v>
+        <v>508</v>
       </c>
       <c r="F77" t="n">
-        <v>9.892118321232777e-06</v>
+        <v>3.536210088174771e-11</v>
       </c>
       <c r="G77" t="n">
         <v>900</v>
@@ -3376,13 +3376,13 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>11.85645615888795</v>
+        <v>11.86733586681646</v>
       </c>
       <c r="E80" t="n">
-        <v>85</v>
+        <v>616</v>
       </c>
       <c r="F80" t="n">
-        <v>9.827635608958418e-06</v>
+        <v>7.083267537190448e-11</v>
       </c>
       <c r="G80" t="n">
         <v>900</v>
@@ -3413,13 +3413,13 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>11.73701787012534</v>
+        <v>11.86710093323266</v>
       </c>
       <c r="E81" t="n">
-        <v>37</v>
+        <v>272</v>
       </c>
       <c r="F81" t="n">
-        <v>9.146802698081266e-06</v>
+        <v>7.929097315067625e-11</v>
       </c>
       <c r="G81" t="n">
         <v>900</v>
@@ -3450,13 +3450,13 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>12.41717072759173</v>
+        <v>12.60584912893822</v>
       </c>
       <c r="E82" t="n">
-        <v>233</v>
+        <v>2832</v>
       </c>
       <c r="F82" t="n">
-        <v>1.978124861502015e-06</v>
+        <v>4.536838100943374e-11</v>
       </c>
       <c r="G82" t="n">
         <v>236</v>
@@ -3487,13 +3487,13 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>12.64837768291397</v>
+        <v>12.60584912953977</v>
       </c>
       <c r="E83" t="n">
-        <v>37</v>
+        <v>2833</v>
       </c>
       <c r="F83" t="n">
-        <v>3.152220678864829e-06</v>
+        <v>4.519294147690548e-11</v>
       </c>
       <c r="G83" t="n">
         <v>236</v>
@@ -3524,13 +3524,13 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>12.6570291860012</v>
+        <v>12.60614935431771</v>
       </c>
       <c r="E84" t="n">
-        <v>31</v>
+        <v>1957</v>
       </c>
       <c r="F84" t="n">
-        <v>8.31017484882125e-06</v>
+        <v>1.919079579004e-12</v>
       </c>
       <c r="G84" t="n">
         <v>236</v>
@@ -3561,13 +3561,13 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>12.65532767052682</v>
+        <v>12.60637048546948</v>
       </c>
       <c r="E85" t="n">
-        <v>32</v>
+        <v>1893</v>
       </c>
       <c r="F85" t="n">
-        <v>9.034096133071129e-06</v>
+        <v>4.204879152795875e-11</v>
       </c>
       <c r="G85" t="n">
         <v>236</v>
@@ -3672,13 +3672,13 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>12.6570291860012</v>
+        <v>12.60932751697525</v>
       </c>
       <c r="E88" t="n">
-        <v>31</v>
+        <v>1304</v>
       </c>
       <c r="F88" t="n">
-        <v>8.374639274010006e-06</v>
+        <v>8.831218358091898e-11</v>
       </c>
       <c r="G88" t="n">
         <v>236</v>
@@ -3709,13 +3709,13 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12.66575276375507</v>
+        <v>12.60185161443958</v>
       </c>
       <c r="E89" t="n">
-        <v>26</v>
+        <v>719</v>
       </c>
       <c r="F89" t="n">
-        <v>7.538010665951079e-06</v>
+        <v>2.779449023045671e-11</v>
       </c>
       <c r="G89" t="n">
         <v>236</v>
@@ -3746,13 +3746,13 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>4359440.548861713</v>
+        <v>4359568.100322182</v>
       </c>
       <c r="E90" t="n">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="F90" t="n">
-        <v>8.017116406457163e-06</v>
+        <v>9.18432711756057e-11</v>
       </c>
       <c r="G90" t="n">
         <v>27</v>
@@ -3783,13 +3783,13 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>4354741.324416467</v>
+        <v>4359559.206934161</v>
       </c>
       <c r="E91" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="F91" t="n">
-        <v>5.861043871804342e-06</v>
+        <v>9.542921829765347e-11</v>
       </c>
       <c r="G91" t="n">
         <v>27</v>
@@ -3820,13 +3820,13 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>4359467.98054079</v>
+        <v>4359568.100636504</v>
       </c>
       <c r="E92" t="n">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="F92" t="n">
-        <v>8.309118035027652e-06</v>
+        <v>9.520576418355374e-11</v>
       </c>
       <c r="G92" t="n">
         <v>27</v>
@@ -3857,13 +3857,13 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>4359440.548861713</v>
+        <v>4359568.100636504</v>
       </c>
       <c r="E93" t="n">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="F93" t="n">
-        <v>9.450585808070602e-06</v>
+        <v>9.028101503111049e-11</v>
       </c>
       <c r="G93" t="n">
         <v>27</v>
@@ -3968,13 +3968,13 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>4359467.98054079</v>
+        <v>4359568.100636504</v>
       </c>
       <c r="E96" t="n">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="F96" t="n">
-        <v>8.309684930382372e-06</v>
+        <v>9.73292191167486e-11</v>
       </c>
       <c r="G96" t="n">
         <v>27</v>
@@ -4005,13 +4005,13 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>4359022.544585026</v>
+        <v>4359568.096880184</v>
       </c>
       <c r="E97" t="n">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="F97" t="n">
-        <v>9.034417681731687e-06</v>
+        <v>8.161009838585245e-11</v>
       </c>
       <c r="G97" t="n">
         <v>27</v>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -490,13 +490,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10.41083696637312</v>
+        <v>10.40552080389987</v>
       </c>
       <c r="E2" t="n">
-        <v>10000</v>
+        <v>88</v>
       </c>
       <c r="F2" t="n">
-        <v>9.025885347604574e-10</v>
+        <v>9.438021135481325e-06</v>
       </c>
       <c r="G2" t="n">
         <v>398</v>
@@ -527,13 +527,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10.41064597649401</v>
+        <v>10.26974106120281</v>
       </c>
       <c r="E3" t="n">
-        <v>6652</v>
+        <v>31</v>
       </c>
       <c r="F3" t="n">
-        <v>7.061195356961412e-11</v>
+        <v>6.252801378209473e-06</v>
       </c>
       <c r="G3" t="n">
         <v>398</v>
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10.40660457794342</v>
+        <v>10.40353710214386</v>
       </c>
       <c r="E4" t="n">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="F4" t="n">
-        <v>6.732421208540055e-11</v>
+        <v>9.342798923266315e-06</v>
       </c>
       <c r="G4" t="n">
         <v>398</v>
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10.40660333716813</v>
+        <v>10.40295727705686</v>
       </c>
       <c r="E5" t="n">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="F5" t="n">
-        <v>6.938399862840957e-11</v>
+        <v>9.218623557247631e-06</v>
       </c>
       <c r="G5" t="n">
         <v>398</v>
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10.40660457794342</v>
+        <v>10.40353710214386</v>
       </c>
       <c r="E8" t="n">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="F8" t="n">
-        <v>6.782656788632418e-11</v>
+        <v>9.346855024441101e-06</v>
       </c>
       <c r="G8" t="n">
         <v>398</v>
@@ -749,13 +749,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10.40660291773662</v>
+        <v>10.34603941058515</v>
       </c>
       <c r="E9" t="n">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="F9" t="n">
-        <v>7.387721035772134e-11</v>
+        <v>9.954929419974046e-06</v>
       </c>
       <c r="G9" t="n">
         <v>398</v>
@@ -786,13 +786,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>199.9999999956344</v>
+        <v>199.9997138985918</v>
       </c>
       <c r="E10" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>6.548376063762736e-11</v>
+        <v>4.291474057006672e-06</v>
       </c>
       <c r="G10" t="n">
         <v>48</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>199.9999284744817</v>
+        <v>199.9997138985918</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>6.650680006685051e-11</v>
+        <v>4.291474057006672e-06</v>
       </c>
       <c r="G11" t="n">
         <v>48</v>
@@ -860,13 +860,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>199.9999999999829</v>
+        <v>199.9997138985918</v>
       </c>
       <c r="E12" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>3.517286017872089e-11</v>
+        <v>4.291474057006672e-06</v>
       </c>
       <c r="G12" t="n">
         <v>48</v>
@@ -897,13 +897,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>199.9999999999829</v>
+        <v>199.9997138985918</v>
       </c>
       <c r="E13" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>3.283560090387037e-11</v>
+        <v>4.291474057006672e-06</v>
       </c>
       <c r="G13" t="n">
         <v>48</v>
@@ -934,13 +934,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>200</v>
+        <v>199.9997138985918</v>
       </c>
       <c r="E14" t="n">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="F14" t="n">
-        <v>36.74783310203046</v>
+        <v>4.291474057006672e-06</v>
       </c>
       <c r="G14" t="n">
         <v>48</v>
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>200</v>
+        <v>199.9997138985918</v>
       </c>
       <c r="E15" t="n">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>36.74797006529491</v>
+        <v>4.291474057006672e-06</v>
       </c>
       <c r="G15" t="n">
         <v>48</v>
@@ -1008,13 +1008,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>199.9999999999829</v>
+        <v>199.9997138985918</v>
       </c>
       <c r="E16" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>3.502933054610741e-11</v>
+        <v>4.291474057006672e-06</v>
       </c>
       <c r="G16" t="n">
         <v>48</v>
@@ -1045,13 +1045,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>199.9999999999829</v>
+        <v>199.9997138985918</v>
       </c>
       <c r="E17" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>3.550752580976184e-11</v>
+        <v>4.291474057006672e-06</v>
       </c>
       <c r="G17" t="n">
         <v>48</v>
@@ -1082,13 +1082,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6197287.051397814</v>
+        <v>6197043.861659037</v>
       </c>
       <c r="E18" t="n">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="F18" t="n">
-        <v>9.691242166203807e-11</v>
+        <v>8.936504241502064e-06</v>
       </c>
       <c r="G18" t="n">
         <v>153</v>
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6197285.757615398</v>
+        <v>6193373.021736953</v>
       </c>
       <c r="E19" t="n">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="F19" t="n">
-        <v>9.54792100668907e-11</v>
+        <v>9.506735145473922e-06</v>
       </c>
       <c r="G19" t="n">
         <v>153</v>
@@ -1156,13 +1156,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6197287.048449507</v>
+        <v>6197121.325827673</v>
       </c>
       <c r="E20" t="n">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="F20" t="n">
-        <v>9.402571091828995e-11</v>
+        <v>7.558275077303443e-06</v>
       </c>
       <c r="G20" t="n">
         <v>153</v>
@@ -1193,13 +1193,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6197287.047441144</v>
+        <v>6197087.151238746</v>
       </c>
       <c r="E21" t="n">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="F21" t="n">
-        <v>6.832363075419507e-11</v>
+        <v>8.936521690750358e-06</v>
       </c>
       <c r="G21" t="n">
         <v>153</v>
@@ -1304,13 +1304,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6197287.048449507</v>
+        <v>6197121.325827673</v>
       </c>
       <c r="E24" t="n">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="F24" t="n">
-        <v>9.378466327958547e-11</v>
+        <v>7.558722902285141e-06</v>
       </c>
       <c r="G24" t="n">
         <v>153</v>
@@ -1341,13 +1341,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6197286.989795357</v>
+        <v>6196823.717917441</v>
       </c>
       <c r="E25" t="n">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="F25" t="n">
-        <v>8.360761474517046e-11</v>
+        <v>8.929744223888457e-06</v>
       </c>
       <c r="G25" t="n">
         <v>153</v>
@@ -1378,13 +1378,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>30148.79411856191</v>
+        <v>30115.82629984464</v>
       </c>
       <c r="E26" t="n">
-        <v>1231</v>
+        <v>22</v>
       </c>
       <c r="F26" t="n">
-        <v>9.906775418343501e-11</v>
+        <v>9.397377028680276e-06</v>
       </c>
       <c r="G26" t="n">
         <v>1138</v>
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>30148.6402523005</v>
+        <v>30101.60734657212</v>
       </c>
       <c r="E27" t="n">
-        <v>595</v>
+        <v>14</v>
       </c>
       <c r="F27" t="n">
-        <v>9.654664719054071e-11</v>
+        <v>4.186377565356223e-06</v>
       </c>
       <c r="G27" t="n">
         <v>1138</v>
@@ -1452,13 +1452,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>30148.78281109525</v>
+        <v>30116.09139544879</v>
       </c>
       <c r="E28" t="n">
-        <v>859</v>
+        <v>23</v>
       </c>
       <c r="F28" t="n">
-        <v>9.609852570279945e-11</v>
+        <v>6.485448959809388e-06</v>
       </c>
       <c r="G28" t="n">
         <v>1138</v>
@@ -1489,13 +1489,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>30135.17405261119</v>
+        <v>30116.09139544879</v>
       </c>
       <c r="E29" t="n">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="F29" t="n">
-        <v>9.695341624095958e-11</v>
+        <v>4.535381758166918e-06</v>
       </c>
       <c r="G29" t="n">
         <v>1138</v>
@@ -1600,13 +1600,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>30148.75084112083</v>
+        <v>30116.09139544879</v>
       </c>
       <c r="E32" t="n">
-        <v>724</v>
+        <v>23</v>
       </c>
       <c r="F32" t="n">
-        <v>6.670350626795326e-11</v>
+        <v>6.486092513709352e-06</v>
       </c>
       <c r="G32" t="n">
         <v>1138</v>
@@ -1637,13 +1637,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>30146.64990782431</v>
+        <v>30115.82629984464</v>
       </c>
       <c r="E33" t="n">
-        <v>325</v>
+        <v>22</v>
       </c>
       <c r="F33" t="n">
-        <v>8.378623029590728e-11</v>
+        <v>8.438909571862254e-06</v>
       </c>
       <c r="G33" t="n">
         <v>1138</v>
@@ -1674,13 +1674,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>5.502378378978929</v>
+        <v>5.502385709511155</v>
       </c>
       <c r="E34" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F34" t="n">
-        <v>4.614223178292824e-11</v>
+        <v>3.301034735295559e-06</v>
       </c>
       <c r="G34" t="n">
         <v>104</v>
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>5.50237842977301</v>
+        <v>5.502385709511155</v>
       </c>
       <c r="E35" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F35" t="n">
-        <v>6.065363656690676e-11</v>
+        <v>3.301034735295559e-06</v>
       </c>
       <c r="G35" t="n">
         <v>104</v>
@@ -1748,13 +1748,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>5.502378378877919</v>
+        <v>5.502385709511155</v>
       </c>
       <c r="E36" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F36" t="n">
-        <v>8.892165939451615e-11</v>
+        <v>3.301034735295559e-06</v>
       </c>
       <c r="G36" t="n">
         <v>104</v>
@@ -1785,13 +1785,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>5.502378378877919</v>
+        <v>5.502385709511155</v>
       </c>
       <c r="E37" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F37" t="n">
-        <v>8.274454662063049e-11</v>
+        <v>3.301034735295559e-06</v>
       </c>
       <c r="G37" t="n">
         <v>104</v>
@@ -1822,13 +1822,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>5.502378378875402</v>
+        <v>5.502385709511155</v>
       </c>
       <c r="E38" t="n">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>2.226859943617717</v>
+        <v>3.301034735295559e-06</v>
       </c>
       <c r="G38" t="n">
         <v>104</v>
@@ -1859,13 +1859,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5.502378378875402</v>
+        <v>5.502385709511155</v>
       </c>
       <c r="E39" t="n">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="F39" t="n">
-        <v>2.226858474185677</v>
+        <v>3.301034735295559e-06</v>
       </c>
       <c r="G39" t="n">
         <v>104</v>
@@ -1896,13 +1896,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5.502378378877919</v>
+        <v>5.502385709511155</v>
       </c>
       <c r="E40" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F40" t="n">
-        <v>8.891972238831549e-11</v>
+        <v>3.301034735295559e-06</v>
       </c>
       <c r="G40" t="n">
         <v>104</v>
@@ -1933,13 +1933,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>5.502378378877919</v>
+        <v>5.502385709511155</v>
       </c>
       <c r="E41" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F41" t="n">
-        <v>8.328448708518714e-11</v>
+        <v>3.301034735295559e-06</v>
       </c>
       <c r="G41" t="n">
         <v>104</v>
@@ -1970,13 +1970,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.9788022306513534</v>
+        <v>0.9782280548675101</v>
       </c>
       <c r="E42" t="n">
-        <v>4875</v>
+        <v>100</v>
       </c>
       <c r="F42" t="n">
-        <v>9.991530743457809e-11</v>
+        <v>9.610528240921566e-06</v>
       </c>
       <c r="G42" t="n">
         <v>2048</v>
@@ -2007,13 +2007,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.9787919201260611</v>
+        <v>0.9769137067289084</v>
       </c>
       <c r="E43" t="n">
-        <v>2234</v>
+        <v>64</v>
       </c>
       <c r="F43" t="n">
-        <v>9.630889006611835e-11</v>
+        <v>9.407687553626166e-06</v>
       </c>
       <c r="G43" t="n">
         <v>2048</v>
@@ -2044,13 +2044,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.9787705852933443</v>
+        <v>0.9778200667504259</v>
       </c>
       <c r="E44" t="n">
-        <v>1675</v>
+        <v>79</v>
       </c>
       <c r="F44" t="n">
-        <v>7.899018222984142e-11</v>
+        <v>9.659187332243112e-06</v>
       </c>
       <c r="G44" t="n">
         <v>2048</v>
@@ -2081,13 +2081,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.9785554077148678</v>
+        <v>0.9685609508207557</v>
       </c>
       <c r="E45" t="n">
-        <v>545</v>
+        <v>32</v>
       </c>
       <c r="F45" t="n">
-        <v>6.763274964508732e-11</v>
+        <v>8.446313999518283e-06</v>
       </c>
       <c r="G45" t="n">
         <v>2048</v>
@@ -2192,13 +2192,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.9787950509179197</v>
+        <v>0.9778200667504259</v>
       </c>
       <c r="E48" t="n">
-        <v>2412</v>
+        <v>79</v>
       </c>
       <c r="F48" t="n">
-        <v>9.53195032114241e-11</v>
+        <v>9.666406084841957e-06</v>
       </c>
       <c r="G48" t="n">
         <v>2048</v>
@@ -2229,13 +2229,13 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.9784064008082318</v>
+        <v>0.9582634984076825</v>
       </c>
       <c r="E49" t="n">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c r="F49" t="n">
-        <v>8.052059947469192e-11</v>
+        <v>9.111084992032192e-06</v>
       </c>
       <c r="G49" t="n">
         <v>2048</v>
@@ -2266,13 +2266,13 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3015179080.010438</v>
+        <v>3014181127.26153</v>
       </c>
       <c r="E50" t="n">
-        <v>520</v>
+        <v>134</v>
       </c>
       <c r="F50" t="n">
-        <v>9.95572108325373e-11</v>
+        <v>9.821227875599703e-06</v>
       </c>
       <c r="G50" t="n">
         <v>48</v>
@@ -2303,13 +2303,13 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>3015164921.695023</v>
+        <v>3011156754.072117</v>
       </c>
       <c r="E51" t="n">
-        <v>277</v>
+        <v>85</v>
       </c>
       <c r="F51" t="n">
-        <v>9.801165388238914e-11</v>
+        <v>9.676802385755104e-06</v>
       </c>
       <c r="G51" t="n">
         <v>48</v>
@@ -2340,13 +2340,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>3015178990.986972</v>
+        <v>2996903287.477822</v>
       </c>
       <c r="E52" t="n">
-        <v>443</v>
+        <v>20</v>
       </c>
       <c r="F52" t="n">
-        <v>9.596636076646659e-11</v>
+        <v>9.879920810874217e-06</v>
       </c>
       <c r="G52" t="n">
         <v>48</v>
@@ -2377,13 +2377,13 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>3015178621.431344</v>
+        <v>2996244213.466879</v>
       </c>
       <c r="E53" t="n">
-        <v>391</v>
+        <v>18</v>
       </c>
       <c r="F53" t="n">
-        <v>9.6114871223921e-11</v>
+        <v>3.027903214592014e-06</v>
       </c>
       <c r="G53" t="n">
         <v>48</v>
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>3015178893.111733</v>
+        <v>2996903287.477822</v>
       </c>
       <c r="E56" t="n">
-        <v>420</v>
+        <v>20</v>
       </c>
       <c r="F56" t="n">
-        <v>8.65302926825525e-11</v>
+        <v>9.927615749139931e-06</v>
       </c>
       <c r="G56" t="n">
         <v>48</v>
@@ -2525,13 +2525,13 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3006240323.348099</v>
+        <v>2996575918.088687</v>
       </c>
       <c r="E57" t="n">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="F57" t="n">
-        <v>1.143794261840101e-11</v>
+        <v>7.971580623049999e-06</v>
       </c>
       <c r="G57" t="n">
         <v>48</v>
@@ -2562,13 +2562,13 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>5.502378378573628</v>
+        <v>5.502385709075823</v>
       </c>
       <c r="E58" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F58" t="n">
-        <v>4.614239320351041e-11</v>
+        <v>3.300874632199692e-06</v>
       </c>
       <c r="G58" t="n">
         <v>400</v>
@@ -2599,13 +2599,13 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>5.502378429367709</v>
+        <v>5.502385709075823</v>
       </c>
       <c r="E59" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F59" t="n">
-        <v>6.063232950316975e-11</v>
+        <v>3.300874632199692e-06</v>
       </c>
       <c r="G59" t="n">
         <v>400</v>
@@ -2636,13 +2636,13 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>5.502378378472619</v>
+        <v>5.502385709075823</v>
       </c>
       <c r="E60" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F60" t="n">
-        <v>8.88863090379013e-11</v>
+        <v>3.300874632199692e-06</v>
       </c>
       <c r="G60" t="n">
         <v>400</v>
@@ -2673,13 +2673,13 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>5.502378378472619</v>
+        <v>5.502385709075823</v>
       </c>
       <c r="E61" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F61" t="n">
-        <v>8.274131828305741e-11</v>
+        <v>3.300874632199692e-06</v>
       </c>
       <c r="G61" t="n">
         <v>400</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>5.502378378470111</v>
+        <v>5.502385709075823</v>
       </c>
       <c r="E62" t="n">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>2.226859943380034</v>
+        <v>3.300874632199692e-06</v>
       </c>
       <c r="G62" t="n">
         <v>400</v>
@@ -2747,13 +2747,13 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>5.502378378470111</v>
+        <v>5.502385709075823</v>
       </c>
       <c r="E63" t="n">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>2.226858600723519</v>
+        <v>3.300874632199692e-06</v>
       </c>
       <c r="G63" t="n">
         <v>400</v>
@@ -2784,13 +2784,13 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>5.502378378472619</v>
+        <v>5.502385709075823</v>
       </c>
       <c r="E64" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>8.895684834704741e-11</v>
+        <v>3.300874632199692e-06</v>
       </c>
       <c r="G64" t="n">
         <v>400</v>
@@ -2821,13 +2821,13 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>5.502378378472619</v>
+        <v>5.502385709075823</v>
       </c>
       <c r="E65" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F65" t="n">
-        <v>8.249531848194686e-11</v>
+        <v>3.300874632199692e-06</v>
       </c>
       <c r="G65" t="n">
         <v>400</v>
@@ -2858,13 +2858,13 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>66.49656397787049</v>
+        <v>66.48767021742641</v>
       </c>
       <c r="E66" t="n">
-        <v>271</v>
+        <v>100</v>
       </c>
       <c r="F66" t="n">
-        <v>9.581047272545482e-11</v>
+        <v>9.411786735373271e-06</v>
       </c>
       <c r="G66" t="n">
         <v>1104</v>
@@ -2895,13 +2895,13 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>66.49648730538858</v>
+        <v>65.95354907787359</v>
       </c>
       <c r="E67" t="n">
-        <v>170</v>
+        <v>39</v>
       </c>
       <c r="F67" t="n">
-        <v>9.989956374508951e-11</v>
+        <v>6.35985957088322e-06</v>
       </c>
       <c r="G67" t="n">
         <v>1104</v>
@@ -2932,13 +2932,13 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>66.49656370279384</v>
+        <v>66.46192362411153</v>
       </c>
       <c r="E68" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="F68" t="n">
-        <v>9.681297783983837e-11</v>
+        <v>9.773860159891637e-06</v>
       </c>
       <c r="G68" t="n">
         <v>1104</v>
@@ -2969,13 +2969,13 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>66.49656326260559</v>
+        <v>66.4540937146667</v>
       </c>
       <c r="E69" t="n">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="F69" t="n">
-        <v>9.477078382019032e-11</v>
+        <v>9.530903348866505e-06</v>
       </c>
       <c r="G69" t="n">
         <v>1104</v>
@@ -3080,13 +3080,13 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>66.49656367793219</v>
+        <v>66.46192362411153</v>
       </c>
       <c r="E72" t="n">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="F72" t="n">
-        <v>9.422369045765888e-11</v>
+        <v>9.780754143655196e-06</v>
       </c>
       <c r="G72" t="n">
         <v>1104</v>
@@ -3117,13 +3117,13 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>66.49655852666243</v>
+        <v>65.83631507797743</v>
       </c>
       <c r="E73" t="n">
-        <v>209</v>
+        <v>36</v>
       </c>
       <c r="F73" t="n">
-        <v>8.822362850942354e-11</v>
+        <v>9.62667128097237e-06</v>
       </c>
       <c r="G73" t="n">
         <v>1104</v>
@@ -3154,13 +3154,13 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>11.86733830706314</v>
+        <v>11.86393030934931</v>
       </c>
       <c r="E74" t="n">
-        <v>870</v>
+        <v>113</v>
       </c>
       <c r="F74" t="n">
-        <v>9.887665439129894e-11</v>
+        <v>9.983343197157405e-06</v>
       </c>
       <c r="G74" t="n">
         <v>900</v>
@@ -3191,13 +3191,13 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>11.86722648600631</v>
+        <v>11.79747645891352</v>
       </c>
       <c r="E75" t="n">
-        <v>329</v>
+        <v>49</v>
       </c>
       <c r="F75" t="n">
-        <v>9.935833806553928e-11</v>
+        <v>7.54235882018588e-06</v>
       </c>
       <c r="G75" t="n">
         <v>900</v>
@@ -3228,13 +3228,13 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>11.86733623746636</v>
+        <v>11.85645615888795</v>
       </c>
       <c r="E76" t="n">
-        <v>628</v>
+        <v>85</v>
       </c>
       <c r="F76" t="n">
-        <v>7.899347461762838e-11</v>
+        <v>9.81770735511485e-06</v>
       </c>
       <c r="G76" t="n">
         <v>900</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>11.86732786565626</v>
+        <v>11.85343165531611</v>
       </c>
       <c r="E77" t="n">
-        <v>508</v>
+        <v>80</v>
       </c>
       <c r="F77" t="n">
-        <v>3.536210088174771e-11</v>
+        <v>9.892118321232777e-06</v>
       </c>
       <c r="G77" t="n">
         <v>900</v>
@@ -3376,13 +3376,13 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>11.86733586681646</v>
+        <v>11.85645615888795</v>
       </c>
       <c r="E80" t="n">
-        <v>616</v>
+        <v>85</v>
       </c>
       <c r="F80" t="n">
-        <v>7.083267537190448e-11</v>
+        <v>9.827635608958418e-06</v>
       </c>
       <c r="G80" t="n">
         <v>900</v>
@@ -3413,13 +3413,13 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>11.86710093323266</v>
+        <v>11.73701787012534</v>
       </c>
       <c r="E81" t="n">
-        <v>272</v>
+        <v>37</v>
       </c>
       <c r="F81" t="n">
-        <v>7.929097315067625e-11</v>
+        <v>9.146802698081266e-06</v>
       </c>
       <c r="G81" t="n">
         <v>900</v>
@@ -3450,13 +3450,13 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>12.60584912893822</v>
+        <v>12.41717072759173</v>
       </c>
       <c r="E82" t="n">
-        <v>2832</v>
+        <v>233</v>
       </c>
       <c r="F82" t="n">
-        <v>4.536838100943374e-11</v>
+        <v>1.978124861502015e-06</v>
       </c>
       <c r="G82" t="n">
         <v>236</v>
@@ -3487,13 +3487,13 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>12.60584912953977</v>
+        <v>12.64837768291397</v>
       </c>
       <c r="E83" t="n">
-        <v>2833</v>
+        <v>37</v>
       </c>
       <c r="F83" t="n">
-        <v>4.519294147690548e-11</v>
+        <v>3.152220678864829e-06</v>
       </c>
       <c r="G83" t="n">
         <v>236</v>
@@ -3524,13 +3524,13 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>12.60614935431771</v>
+        <v>12.6570291860012</v>
       </c>
       <c r="E84" t="n">
-        <v>1957</v>
+        <v>31</v>
       </c>
       <c r="F84" t="n">
-        <v>1.919079579004e-12</v>
+        <v>8.31017484882125e-06</v>
       </c>
       <c r="G84" t="n">
         <v>236</v>
@@ -3561,13 +3561,13 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>12.60637048546948</v>
+        <v>12.65532767052682</v>
       </c>
       <c r="E85" t="n">
-        <v>1893</v>
+        <v>32</v>
       </c>
       <c r="F85" t="n">
-        <v>4.204879152795875e-11</v>
+        <v>9.034096133071129e-06</v>
       </c>
       <c r="G85" t="n">
         <v>236</v>
@@ -3672,13 +3672,13 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>12.60932751697525</v>
+        <v>12.6570291860012</v>
       </c>
       <c r="E88" t="n">
-        <v>1304</v>
+        <v>31</v>
       </c>
       <c r="F88" t="n">
-        <v>8.831218358091898e-11</v>
+        <v>8.374639274010006e-06</v>
       </c>
       <c r="G88" t="n">
         <v>236</v>
@@ -3709,13 +3709,13 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>12.60185161443958</v>
+        <v>12.66575276375507</v>
       </c>
       <c r="E89" t="n">
-        <v>719</v>
+        <v>26</v>
       </c>
       <c r="F89" t="n">
-        <v>2.779449023045671e-11</v>
+        <v>7.538010665951079e-06</v>
       </c>
       <c r="G89" t="n">
         <v>236</v>
@@ -3746,13 +3746,13 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>4359568.100322182</v>
+        <v>4359440.548861713</v>
       </c>
       <c r="E90" t="n">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="F90" t="n">
-        <v>9.18432711756057e-11</v>
+        <v>8.017116406457163e-06</v>
       </c>
       <c r="G90" t="n">
         <v>27</v>
@@ -3783,13 +3783,13 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>4359559.206934161</v>
+        <v>4354741.324416467</v>
       </c>
       <c r="E91" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F91" t="n">
-        <v>9.542921829765347e-11</v>
+        <v>5.861043871804342e-06</v>
       </c>
       <c r="G91" t="n">
         <v>27</v>
@@ -3820,13 +3820,13 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>4359568.100636504</v>
+        <v>4359467.98054079</v>
       </c>
       <c r="E92" t="n">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="F92" t="n">
-        <v>9.520576418355374e-11</v>
+        <v>8.309118035027652e-06</v>
       </c>
       <c r="G92" t="n">
         <v>27</v>
@@ -3857,13 +3857,13 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>4359568.100636504</v>
+        <v>4359440.548861713</v>
       </c>
       <c r="E93" t="n">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="F93" t="n">
-        <v>9.028101503111049e-11</v>
+        <v>9.450585808070602e-06</v>
       </c>
       <c r="G93" t="n">
         <v>27</v>
@@ -3968,13 +3968,13 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>4359568.100636504</v>
+        <v>4359467.98054079</v>
       </c>
       <c r="E96" t="n">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="F96" t="n">
-        <v>9.73292191167486e-11</v>
+        <v>8.309684930382372e-06</v>
       </c>
       <c r="G96" t="n">
         <v>27</v>
@@ -4005,13 +4005,13 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>4359568.096880184</v>
+        <v>4359022.544585026</v>
       </c>
       <c r="E97" t="n">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="F97" t="n">
-        <v>8.161009838585245e-11</v>
+        <v>9.034417681731687e-06</v>
       </c>
       <c r="G97" t="n">
         <v>27</v>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,20 +456,25 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Tempo</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Erros</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Ordem</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Campo</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Simetria</t>
         </is>
@@ -496,17 +501,20 @@
         <v>88</v>
       </c>
       <c r="F2" t="n">
+        <v>0.0271451473236084</v>
+      </c>
+      <c r="G2" t="n">
         <v>9.438021135481325e-06</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>398</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -533,17 +541,20 @@
         <v>31</v>
       </c>
       <c r="F3" t="n">
+        <v>0.001282930374145508</v>
+      </c>
+      <c r="G3" t="n">
         <v>6.252801378209473e-06</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>398</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -570,17 +581,20 @@
         <v>76</v>
       </c>
       <c r="F4" t="n">
+        <v>0.01104044914245605</v>
+      </c>
+      <c r="G4" t="n">
         <v>9.342798923266315e-06</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>398</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -607,17 +621,20 @@
         <v>74</v>
       </c>
       <c r="F5" t="n">
+        <v>0.008274555206298828</v>
+      </c>
+      <c r="G5" t="n">
         <v>9.218623557247631e-06</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>398</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -644,17 +661,20 @@
         <v>10000</v>
       </c>
       <c r="F6" t="n">
+        <v>0.7519714832305908</v>
+      </c>
+      <c r="G6" t="n">
         <v>3.443645486315649</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>398</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -681,17 +701,20 @@
         <v>10000</v>
       </c>
       <c r="F7" t="n">
+        <v>0.656404972076416</v>
+      </c>
+      <c r="G7" t="n">
         <v>3.443455387633702</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>398</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -718,17 +741,20 @@
         <v>76</v>
       </c>
       <c r="F8" t="n">
+        <v>0.004829645156860352</v>
+      </c>
+      <c r="G8" t="n">
         <v>9.346855024441101e-06</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>398</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -755,17 +781,20 @@
         <v>41</v>
       </c>
       <c r="F9" t="n">
+        <v>0.007779598236083984</v>
+      </c>
+      <c r="G9" t="n">
         <v>9.954929419974046e-06</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>398</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I9" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -792,17 +821,20 @@
         <v>10</v>
       </c>
       <c r="F10" t="n">
+        <v>0.0001165866851806641</v>
+      </c>
+      <c r="G10" t="n">
         <v>4.291474057006672e-06</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>48</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -829,17 +861,20 @@
         <v>10</v>
       </c>
       <c r="F11" t="n">
+        <v>0.0001025199890136719</v>
+      </c>
+      <c r="G11" t="n">
         <v>4.291474057006672e-06</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>48</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -866,17 +901,20 @@
         <v>10</v>
       </c>
       <c r="F12" t="n">
+        <v>0.0001735687255859375</v>
+      </c>
+      <c r="G12" t="n">
         <v>4.291474057006672e-06</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>48</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -903,17 +941,20 @@
         <v>10</v>
       </c>
       <c r="F13" t="n">
+        <v>0.0001623630523681641</v>
+      </c>
+      <c r="G13" t="n">
         <v>4.291474057006672e-06</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>48</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -940,17 +981,20 @@
         <v>10</v>
       </c>
       <c r="F14" t="n">
+        <v>0.0001516342163085938</v>
+      </c>
+      <c r="G14" t="n">
         <v>4.291474057006672e-06</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>48</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I14" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -977,17 +1021,20 @@
         <v>10</v>
       </c>
       <c r="F15" t="n">
+        <v>0.0001480579376220703</v>
+      </c>
+      <c r="G15" t="n">
         <v>4.291474057006672e-06</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>48</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I15" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1014,17 +1061,20 @@
         <v>10</v>
       </c>
       <c r="F16" t="n">
+        <v>0.0001506805419921875</v>
+      </c>
+      <c r="G16" t="n">
         <v>4.291474057006672e-06</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>48</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I16" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1051,17 +1101,20 @@
         <v>10</v>
       </c>
       <c r="F17" t="n">
+        <v>0.0002436637878417969</v>
+      </c>
+      <c r="G17" t="n">
         <v>4.291474057006672e-06</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>48</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I17" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1088,17 +1141,20 @@
         <v>38</v>
       </c>
       <c r="F18" t="n">
+        <v>0.0005211830139160156</v>
+      </c>
+      <c r="G18" t="n">
         <v>8.936504241502064e-06</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>153</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I18" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1125,17 +1181,20 @@
         <v>27</v>
       </c>
       <c r="F19" t="n">
+        <v>0.0003857612609863281</v>
+      </c>
+      <c r="G19" t="n">
         <v>9.506735145473922e-06</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>153</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I19" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1162,17 +1221,20 @@
         <v>40</v>
       </c>
       <c r="F20" t="n">
+        <v>0.002236366271972656</v>
+      </c>
+      <c r="G20" t="n">
         <v>7.558275077303443e-06</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>153</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I20" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1199,17 +1261,20 @@
         <v>39</v>
       </c>
       <c r="F21" t="n">
+        <v>0.002107620239257812</v>
+      </c>
+      <c r="G21" t="n">
         <v>8.936521690750358e-06</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>153</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I21" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1236,17 +1301,20 @@
         <v>10000</v>
       </c>
       <c r="F22" t="n">
+        <v>0.6534078121185303</v>
+      </c>
+      <c r="G22" t="n">
         <v>396254.5145425995</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>153</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I22" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1273,17 +1341,20 @@
         <v>10000</v>
       </c>
       <c r="F23" t="n">
+        <v>0.6233081817626953</v>
+      </c>
+      <c r="G23" t="n">
         <v>396257.576511647</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>153</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I23" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1310,17 +1381,20 @@
         <v>40</v>
       </c>
       <c r="F24" t="n">
+        <v>0.002035379409790039</v>
+      </c>
+      <c r="G24" t="n">
         <v>7.558722902285141e-06</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>153</v>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I24" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1347,17 +1421,20 @@
         <v>35</v>
       </c>
       <c r="F25" t="n">
+        <v>0.003867149353027344</v>
+      </c>
+      <c r="G25" t="n">
         <v>8.929744223888457e-06</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>153</v>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I25" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1384,17 +1461,20 @@
         <v>22</v>
       </c>
       <c r="F26" t="n">
+        <v>0.003910064697265625</v>
+      </c>
+      <c r="G26" t="n">
         <v>9.397377028680276e-06</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>1138</v>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I26" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1421,17 +1501,20 @@
         <v>14</v>
       </c>
       <c r="F27" t="n">
+        <v>0.001878738403320312</v>
+      </c>
+      <c r="G27" t="n">
         <v>4.186377565356223e-06</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>1138</v>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I27" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1458,17 +1541,20 @@
         <v>23</v>
       </c>
       <c r="F28" t="n">
+        <v>0.004489421844482422</v>
+      </c>
+      <c r="G28" t="n">
         <v>6.485448959809388e-06</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>1138</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I28" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1495,17 +1581,20 @@
         <v>23</v>
       </c>
       <c r="F29" t="n">
+        <v>0.004606246948242188</v>
+      </c>
+      <c r="G29" t="n">
         <v>4.535381758166918e-06</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>1138</v>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I29" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1532,17 +1621,20 @@
         <v>10000</v>
       </c>
       <c r="F30" t="n">
+        <v>2.372947216033936</v>
+      </c>
+      <c r="G30" t="n">
         <v>2922.122559918642</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>1138</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I30" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1569,17 +1661,20 @@
         <v>10000</v>
       </c>
       <c r="F31" t="n">
+        <v>2.325145721435547</v>
+      </c>
+      <c r="G31" t="n">
         <v>2922.098861102356</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>1138</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I31" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1606,17 +1701,20 @@
         <v>23</v>
       </c>
       <c r="F32" t="n">
+        <v>0.005311489105224609</v>
+      </c>
+      <c r="G32" t="n">
         <v>6.486092513709352e-06</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>1138</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I32" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1643,17 +1741,20 @@
         <v>22</v>
       </c>
       <c r="F33" t="n">
+        <v>0.006251811981201172</v>
+      </c>
+      <c r="G33" t="n">
         <v>8.438909571862254e-06</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>1138</v>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I33" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1680,17 +1781,20 @@
         <v>10</v>
       </c>
       <c r="F34" t="n">
+        <v>0.0001420974731445312</v>
+      </c>
+      <c r="G34" t="n">
         <v>3.301034735295559e-06</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>104</v>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I34" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -1717,17 +1821,20 @@
         <v>10</v>
       </c>
       <c r="F35" t="n">
+        <v>0.0001065731048583984</v>
+      </c>
+      <c r="G35" t="n">
         <v>3.301034735295559e-06</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>104</v>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I35" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -1754,17 +1861,20 @@
         <v>10</v>
       </c>
       <c r="F36" t="n">
+        <v>0.0001881122589111328</v>
+      </c>
+      <c r="G36" t="n">
         <v>3.301034735295559e-06</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>104</v>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I36" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -1791,17 +1901,20 @@
         <v>10</v>
       </c>
       <c r="F37" t="n">
+        <v>0.0001649856567382812</v>
+      </c>
+      <c r="G37" t="n">
         <v>3.301034735295559e-06</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>104</v>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I37" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -1828,17 +1941,20 @@
         <v>10</v>
       </c>
       <c r="F38" t="n">
+        <v>0.0001561641693115234</v>
+      </c>
+      <c r="G38" t="n">
         <v>3.301034735295559e-06</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>104</v>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I38" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -1865,17 +1981,20 @@
         <v>10</v>
       </c>
       <c r="F39" t="n">
+        <v>0.0001604557037353516</v>
+      </c>
+      <c r="G39" t="n">
         <v>3.301034735295559e-06</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>104</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I39" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -1902,17 +2021,20 @@
         <v>10</v>
       </c>
       <c r="F40" t="n">
+        <v>0.0001976490020751953</v>
+      </c>
+      <c r="G40" t="n">
         <v>3.301034735295559e-06</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>104</v>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I40" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -1939,17 +2061,20 @@
         <v>10</v>
       </c>
       <c r="F41" t="n">
+        <v>0.000335693359375</v>
+      </c>
+      <c r="G41" t="n">
         <v>3.301034735295559e-06</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>104</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I41" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -1976,17 +2101,20 @@
         <v>100</v>
       </c>
       <c r="F42" t="n">
+        <v>0.08477377891540527</v>
+      </c>
+      <c r="G42" t="n">
         <v>9.610528240921566e-06</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>2048</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I42" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -2013,17 +2141,20 @@
         <v>64</v>
       </c>
       <c r="F43" t="n">
+        <v>0.05367898941040039</v>
+      </c>
+      <c r="G43" t="n">
         <v>9.407687553626166e-06</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>2048</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I43" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -2050,17 +2181,20 @@
         <v>79</v>
       </c>
       <c r="F44" t="n">
+        <v>0.07460284233093262</v>
+      </c>
+      <c r="G44" t="n">
         <v>9.659187332243112e-06</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>2048</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I44" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -2087,17 +2221,20 @@
         <v>32</v>
       </c>
       <c r="F45" t="n">
+        <v>0.02915835380554199</v>
+      </c>
+      <c r="G45" t="n">
         <v>8.446313999518283e-06</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>2048</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I45" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -2124,17 +2261,20 @@
         <v>10000</v>
       </c>
       <c r="F46" t="n">
+        <v>9.453774452209473</v>
+      </c>
+      <c r="G46" t="n">
         <v>46.68373274139766</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>2048</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I46" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -2161,17 +2301,20 @@
         <v>10000</v>
       </c>
       <c r="F47" t="n">
+        <v>9.743765115737915</v>
+      </c>
+      <c r="G47" t="n">
         <v>46.68369484196209</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>2048</v>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I47" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -2198,17 +2341,20 @@
         <v>79</v>
       </c>
       <c r="F48" t="n">
+        <v>0.07329177856445312</v>
+      </c>
+      <c r="G48" t="n">
         <v>9.666406084841957e-06</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>2048</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I48" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -2235,17 +2381,20 @@
         <v>15</v>
       </c>
       <c r="F49" t="n">
+        <v>0.01427292823791504</v>
+      </c>
+      <c r="G49" t="n">
         <v>9.111084992032192e-06</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>2048</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I49" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -2272,17 +2421,20 @@
         <v>134</v>
       </c>
       <c r="F50" t="n">
+        <v>0.001347780227661133</v>
+      </c>
+      <c r="G50" t="n">
         <v>9.821227875599703e-06</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>48</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I50" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -2309,17 +2461,20 @@
         <v>85</v>
       </c>
       <c r="F51" t="n">
+        <v>0.0008945465087890625</v>
+      </c>
+      <c r="G51" t="n">
         <v>9.676802385755104e-06</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>48</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I51" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -2346,17 +2501,20 @@
         <v>20</v>
       </c>
       <c r="F52" t="n">
+        <v>0.0008153915405273438</v>
+      </c>
+      <c r="G52" t="n">
         <v>9.879920810874217e-06</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>48</v>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I52" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -2383,17 +2541,20 @@
         <v>18</v>
       </c>
       <c r="F53" t="n">
+        <v>0.0006473064422607422</v>
+      </c>
+      <c r="G53" t="n">
         <v>3.027903214592014e-06</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>48</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I53" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -2420,17 +2581,20 @@
         <v>10000</v>
       </c>
       <c r="F54" t="n">
+        <v>0.7119021415710449</v>
+      </c>
+      <c r="G54" t="n">
         <v>138140350.1100419</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>48</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I54" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -2457,17 +2621,20 @@
         <v>10000</v>
       </c>
       <c r="F55" t="n">
+        <v>0.5737235546112061</v>
+      </c>
+      <c r="G55" t="n">
         <v>138142523.8705322</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>48</v>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I55" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -2494,17 +2661,20 @@
         <v>20</v>
       </c>
       <c r="F56" t="n">
+        <v>0.0007672309875488281</v>
+      </c>
+      <c r="G56" t="n">
         <v>9.927615749139931e-06</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>48</v>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I56" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -2531,17 +2701,20 @@
         <v>19</v>
       </c>
       <c r="F57" t="n">
+        <v>0.001556873321533203</v>
+      </c>
+      <c r="G57" t="n">
         <v>7.971580623049999e-06</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>48</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I57" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -2568,17 +2741,20 @@
         <v>10</v>
       </c>
       <c r="F58" t="n">
+        <v>0.0003821849822998047</v>
+      </c>
+      <c r="G58" t="n">
         <v>3.300874632199692e-06</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>400</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I58" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -2605,17 +2781,20 @@
         <v>10</v>
       </c>
       <c r="F59" t="n">
+        <v>0.0001730918884277344</v>
+      </c>
+      <c r="G59" t="n">
         <v>3.300874632199692e-06</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>400</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I59" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -2642,17 +2821,20 @@
         <v>10</v>
       </c>
       <c r="F60" t="n">
+        <v>0.0002527236938476562</v>
+      </c>
+      <c r="G60" t="n">
         <v>3.300874632199692e-06</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>400</v>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I60" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -2679,17 +2861,20 @@
         <v>10</v>
       </c>
       <c r="F61" t="n">
+        <v>0.00025177001953125</v>
+      </c>
+      <c r="G61" t="n">
         <v>3.300874632199692e-06</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>400</v>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I61" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -2716,17 +2901,20 @@
         <v>10</v>
       </c>
       <c r="F62" t="n">
+        <v>0.0002484321594238281</v>
+      </c>
+      <c r="G62" t="n">
         <v>3.300874632199692e-06</v>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
         <v>400</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I62" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -2753,17 +2941,20 @@
         <v>10</v>
       </c>
       <c r="F63" t="n">
+        <v>0.0002443790435791016</v>
+      </c>
+      <c r="G63" t="n">
         <v>3.300874632199692e-06</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>400</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I63" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -2790,17 +2981,20 @@
         <v>10</v>
       </c>
       <c r="F64" t="n">
+        <v>0.0002512931823730469</v>
+      </c>
+      <c r="G64" t="n">
         <v>3.300874632199692e-06</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
         <v>400</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I64" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -2827,17 +3021,20 @@
         <v>10</v>
       </c>
       <c r="F65" t="n">
+        <v>0.0003645420074462891</v>
+      </c>
+      <c r="G65" t="n">
         <v>3.300874632199692e-06</v>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>400</v>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I65" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -2864,17 +3061,20 @@
         <v>100</v>
       </c>
       <c r="F66" t="n">
+        <v>0.01011037826538086</v>
+      </c>
+      <c r="G66" t="n">
         <v>9.411786735373271e-06</v>
       </c>
-      <c r="G66" t="n">
+      <c r="H66" t="n">
         <v>1104</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I66" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -2901,17 +3101,20 @@
         <v>39</v>
       </c>
       <c r="F67" t="n">
+        <v>0.003600358963012695</v>
+      </c>
+      <c r="G67" t="n">
         <v>6.35985957088322e-06</v>
       </c>
-      <c r="G67" t="n">
+      <c r="H67" t="n">
         <v>1104</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I67" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -2938,17 +3141,20 @@
         <v>80</v>
       </c>
       <c r="F68" t="n">
+        <v>0.01263284683227539</v>
+      </c>
+      <c r="G68" t="n">
         <v>9.773860159891637e-06</v>
       </c>
-      <c r="G68" t="n">
+      <c r="H68" t="n">
         <v>1104</v>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I68" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -2975,17 +3181,20 @@
         <v>77</v>
       </c>
       <c r="F69" t="n">
+        <v>0.01194095611572266</v>
+      </c>
+      <c r="G69" t="n">
         <v>9.530903348866505e-06</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>1104</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I69" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -3012,17 +3221,20 @@
         <v>10000</v>
       </c>
       <c r="F70" t="n">
+        <v>1.62421178817749</v>
+      </c>
+      <c r="G70" t="n">
         <v>14.84326429344963</v>
       </c>
-      <c r="G70" t="n">
+      <c r="H70" t="n">
         <v>1104</v>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I70" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -3049,17 +3261,20 @@
         <v>10000</v>
       </c>
       <c r="F71" t="n">
+        <v>1.598094701766968</v>
+      </c>
+      <c r="G71" t="n">
         <v>14.84325947790704</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>1104</v>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I71" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -3086,17 +3301,20 @@
         <v>80</v>
       </c>
       <c r="F72" t="n">
+        <v>0.0121002197265625</v>
+      </c>
+      <c r="G72" t="n">
         <v>9.780754143655196e-06</v>
       </c>
-      <c r="G72" t="n">
+      <c r="H72" t="n">
         <v>1104</v>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I72" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -3123,17 +3341,20 @@
         <v>36</v>
       </c>
       <c r="F73" t="n">
+        <v>0.00796198844909668</v>
+      </c>
+      <c r="G73" t="n">
         <v>9.62667128097237e-06</v>
       </c>
-      <c r="G73" t="n">
+      <c r="H73" t="n">
         <v>1104</v>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I73" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -3160,17 +3381,20 @@
         <v>113</v>
       </c>
       <c r="F74" t="n">
+        <v>0.08971333503723145</v>
+      </c>
+      <c r="G74" t="n">
         <v>9.983343197157405e-06</v>
       </c>
-      <c r="G74" t="n">
+      <c r="H74" t="n">
         <v>900</v>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -3197,17 +3421,20 @@
         <v>49</v>
       </c>
       <c r="F75" t="n">
+        <v>0.03899931907653809</v>
+      </c>
+      <c r="G75" t="n">
         <v>7.54235882018588e-06</v>
       </c>
-      <c r="G75" t="n">
+      <c r="H75" t="n">
         <v>900</v>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -3234,17 +3461,20 @@
         <v>85</v>
       </c>
       <c r="F76" t="n">
+        <v>0.07564020156860352</v>
+      </c>
+      <c r="G76" t="n">
         <v>9.81770735511485e-06</v>
       </c>
-      <c r="G76" t="n">
+      <c r="H76" t="n">
         <v>900</v>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
+      <c r="J76" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -3271,17 +3501,20 @@
         <v>80</v>
       </c>
       <c r="F77" t="n">
+        <v>0.07115459442138672</v>
+      </c>
+      <c r="G77" t="n">
         <v>9.892118321232777e-06</v>
       </c>
-      <c r="G77" t="n">
+      <c r="H77" t="n">
         <v>900</v>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -3308,17 +3541,20 @@
         <v>10000</v>
       </c>
       <c r="F78" t="n">
+        <v>8.97965931892395</v>
+      </c>
+      <c r="G78" t="n">
         <v>3.812001471659486</v>
       </c>
-      <c r="G78" t="n">
+      <c r="H78" t="n">
         <v>900</v>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
+      <c r="J78" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -3345,17 +3581,20 @@
         <v>10000</v>
       </c>
       <c r="F79" t="n">
+        <v>8.940270185470581</v>
+      </c>
+      <c r="G79" t="n">
         <v>3.811999373987348</v>
       </c>
-      <c r="G79" t="n">
+      <c r="H79" t="n">
         <v>900</v>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr">
+      <c r="J79" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -3382,17 +3621,20 @@
         <v>85</v>
       </c>
       <c r="F80" t="n">
+        <v>0.07468414306640625</v>
+      </c>
+      <c r="G80" t="n">
         <v>9.827635608958418e-06</v>
       </c>
-      <c r="G80" t="n">
+      <c r="H80" t="n">
         <v>900</v>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
+      <c r="J80" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -3419,17 +3661,20 @@
         <v>37</v>
       </c>
       <c r="F81" t="n">
+        <v>0.03635334968566895</v>
+      </c>
+      <c r="G81" t="n">
         <v>9.146802698081266e-06</v>
       </c>
-      <c r="G81" t="n">
+      <c r="H81" t="n">
         <v>900</v>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>integer</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
+      <c r="J81" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -3456,17 +3701,20 @@
         <v>233</v>
       </c>
       <c r="F82" t="n">
+        <v>0.003564834594726562</v>
+      </c>
+      <c r="G82" t="n">
         <v>1.978124861502015e-06</v>
       </c>
-      <c r="G82" t="n">
+      <c r="H82" t="n">
         <v>236</v>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I82" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -3493,17 +3741,20 @@
         <v>37</v>
       </c>
       <c r="F83" t="n">
+        <v>0.0005662441253662109</v>
+      </c>
+      <c r="G83" t="n">
         <v>3.152220678864829e-06</v>
       </c>
-      <c r="G83" t="n">
+      <c r="H83" t="n">
         <v>236</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I83" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -3530,17 +3781,20 @@
         <v>31</v>
       </c>
       <c r="F84" t="n">
+        <v>0.001689434051513672</v>
+      </c>
+      <c r="G84" t="n">
         <v>8.31017484882125e-06</v>
       </c>
-      <c r="G84" t="n">
+      <c r="H84" t="n">
         <v>236</v>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I84" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -3567,17 +3821,20 @@
         <v>32</v>
       </c>
       <c r="F85" t="n">
+        <v>0.002389430999755859</v>
+      </c>
+      <c r="G85" t="n">
         <v>9.034096133071129e-06</v>
       </c>
-      <c r="G85" t="n">
+      <c r="H85" t="n">
         <v>236</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I85" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -3604,17 +3861,20 @@
         <v>10000</v>
       </c>
       <c r="F86" t="n">
+        <v>0.6344969272613525</v>
+      </c>
+      <c r="G86" t="n">
         <v>3.974370821635439</v>
       </c>
-      <c r="G86" t="n">
+      <c r="H86" t="n">
         <v>236</v>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I86" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -3641,17 +3901,20 @@
         <v>10000</v>
       </c>
       <c r="F87" t="n">
+        <v>0.6124989986419678</v>
+      </c>
+      <c r="G87" t="n">
         <v>3.974379071237198</v>
       </c>
-      <c r="G87" t="n">
+      <c r="H87" t="n">
         <v>236</v>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I87" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -3678,17 +3941,20 @@
         <v>31</v>
       </c>
       <c r="F88" t="n">
+        <v>0.001568317413330078</v>
+      </c>
+      <c r="G88" t="n">
         <v>8.374639274010006e-06</v>
       </c>
-      <c r="G88" t="n">
+      <c r="H88" t="n">
         <v>236</v>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I88" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -3715,17 +3981,20 @@
         <v>26</v>
       </c>
       <c r="F89" t="n">
+        <v>0.002658843994140625</v>
+      </c>
+      <c r="G89" t="n">
         <v>7.538010665951079e-06</v>
       </c>
-      <c r="G89" t="n">
+      <c r="H89" t="n">
         <v>236</v>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I89" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -3752,17 +4021,20 @@
         <v>45</v>
       </c>
       <c r="F90" t="n">
+        <v>0.0004036426544189453</v>
+      </c>
+      <c r="G90" t="n">
         <v>8.017116406457163e-06</v>
       </c>
-      <c r="G90" t="n">
+      <c r="H90" t="n">
         <v>27</v>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I90" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -3789,17 +4061,20 @@
         <v>30</v>
       </c>
       <c r="F91" t="n">
+        <v>0.0003023147583007812</v>
+      </c>
+      <c r="G91" t="n">
         <v>5.861043871804342e-06</v>
       </c>
-      <c r="G91" t="n">
+      <c r="H91" t="n">
         <v>27</v>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I91" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -3826,17 +4101,20 @@
         <v>46</v>
       </c>
       <c r="F92" t="n">
+        <v>0.002400875091552734</v>
+      </c>
+      <c r="G92" t="n">
         <v>8.309118035027652e-06</v>
       </c>
-      <c r="G92" t="n">
+      <c r="H92" t="n">
         <v>27</v>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I92" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -3863,17 +4141,20 @@
         <v>45</v>
       </c>
       <c r="F93" t="n">
+        <v>0.002203226089477539</v>
+      </c>
+      <c r="G93" t="n">
         <v>9.450585808070602e-06</v>
       </c>
-      <c r="G93" t="n">
+      <c r="H93" t="n">
         <v>27</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I93" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -3900,17 +4181,20 @@
         <v>10000</v>
       </c>
       <c r="F94" t="n">
+        <v>0.5974719524383545</v>
+      </c>
+      <c r="G94" t="n">
         <v>285163.946314836</v>
       </c>
-      <c r="G94" t="n">
+      <c r="H94" t="n">
         <v>27</v>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I94" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -3937,17 +4221,20 @@
         <v>10000</v>
       </c>
       <c r="F95" t="n">
+        <v>0.5601851940155029</v>
+      </c>
+      <c r="G95" t="n">
         <v>285163.8100686715</v>
       </c>
-      <c r="G95" t="n">
+      <c r="H95" t="n">
         <v>27</v>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I95" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -3974,17 +4261,20 @@
         <v>46</v>
       </c>
       <c r="F96" t="n">
+        <v>0.002190828323364258</v>
+      </c>
+      <c r="G96" t="n">
         <v>8.309684930382372e-06</v>
       </c>
-      <c r="G96" t="n">
+      <c r="H96" t="n">
         <v>27</v>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I96" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -4011,17 +4301,20 @@
         <v>39</v>
       </c>
       <c r="F97" t="n">
+        <v>0.00435185432434082</v>
+      </c>
+      <c r="G97" t="n">
         <v>9.034417681731687e-06</v>
       </c>
-      <c r="G97" t="n">
+      <c r="H97" t="n">
         <v>27</v>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
       <c r="I97" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
         <is>
           <t>general</t>
         </is>
